--- a/seeded_units_2026.xlsx
+++ b/seeded_units_2026.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="400">
   <si>
     <t>강의년도</t>
   </si>
@@ -100,1120 +100,1114 @@
     <t>Army</t>
   </si>
   <si>
+    <t>강원특별자치도</t>
+  </si>
+  <si>
+    <t>홍천군</t>
+  </si>
+  <si>
+    <t>강원특별자치도 홍천군 홍천로 49</t>
+  </si>
+  <si>
+    <t>본관 3층</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>이현우</t>
+  </si>
+  <si>
+    <t>010-9097-3387</t>
+  </si>
+  <si>
+    <t>officer99@army.mil.kr</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>훈련장</t>
+  </si>
+  <si>
+    <t>주차 가능</t>
+  </si>
+  <si>
+    <t>통신13연대(2026)</t>
+  </si>
+  <si>
+    <t>Marines</t>
+  </si>
+  <si>
+    <t>경상북도</t>
+  </si>
+  <si>
+    <t>포항시 남구</t>
+  </si>
+  <si>
+    <t>경상북도 포항시 남구 시청로 1</t>
+  </si>
+  <si>
+    <t>본관 2층</t>
+  </si>
+  <si>
+    <t>2026-02-21</t>
+  </si>
+  <si>
+    <t>2026-02-23</t>
+  </si>
+  <si>
+    <t>권우진</t>
+  </si>
+  <si>
+    <t>010-8780-9638</t>
+  </si>
+  <si>
+    <t>officer98@army.mil.kr</t>
+  </si>
+  <si>
+    <t>회의실</t>
+  </si>
+  <si>
+    <t>프로젝터 있음</t>
+  </si>
+  <si>
+    <t>통신13여단(2026)</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>경주시</t>
+  </si>
+  <si>
+    <t>경상북도 경주시 양정로 260</t>
+  </si>
+  <si>
+    <t>본관 5층</t>
+  </si>
+  <si>
+    <t>2026-02-27</t>
+  </si>
+  <si>
+    <t>2026-03-01</t>
+  </si>
+  <si>
+    <t>임도윤</t>
+  </si>
+  <si>
+    <t>010-2571-1192</t>
+  </si>
+  <si>
+    <t>officer97@army.mil.kr</t>
+  </si>
+  <si>
+    <t>통신13사단(2026)</t>
+  </si>
+  <si>
+    <t>전북특별자치도</t>
+  </si>
+  <si>
+    <t>군산시</t>
+  </si>
+  <si>
+    <t>전북특별자치도 군산시 시청로 17</t>
+  </si>
+  <si>
+    <t>최주원</t>
+  </si>
+  <si>
+    <t>010-4953-5539</t>
+  </si>
+  <si>
+    <t>officer96@army.mil.kr</t>
+  </si>
+  <si>
+    <t>다목적실</t>
+  </si>
+  <si>
+    <t>통신12교육대(2026)</t>
+  </si>
+  <si>
+    <t>AirForce</t>
+  </si>
+  <si>
+    <t>김천시</t>
+  </si>
+  <si>
+    <t>경상북도 김천시 시청로 20</t>
+  </si>
+  <si>
+    <t>신도현</t>
+  </si>
+  <si>
+    <t>010-1387-1223</t>
+  </si>
+  <si>
+    <t>officer95@army.mil.kr</t>
+  </si>
+  <si>
+    <t>교육센터</t>
+  </si>
+  <si>
+    <t>통신12지원단(2026)</t>
+  </si>
+  <si>
+    <t>MND</t>
+  </si>
+  <si>
+    <t>광주광역시</t>
+  </si>
+  <si>
+    <t>북구</t>
+  </si>
+  <si>
+    <t>광주광역시 북구 용봉로 77</t>
+  </si>
+  <si>
+    <t>임성민</t>
+  </si>
+  <si>
+    <t>010-8846-3049</t>
+  </si>
+  <si>
+    <t>officer94@army.mil.kr</t>
+  </si>
+  <si>
+    <t>강의실</t>
+  </si>
+  <si>
+    <t>통신12사령부(2026)</t>
+  </si>
+  <si>
+    <t>충청남도</t>
+  </si>
+  <si>
+    <t>공주시</t>
+  </si>
+  <si>
+    <t>충청남도 공주시 봉황로 1</t>
+  </si>
+  <si>
+    <t>본관 4층</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>장우진</t>
+  </si>
+  <si>
+    <t>010-4191-3222</t>
+  </si>
+  <si>
+    <t>officer93@army.mil.kr</t>
+  </si>
+  <si>
+    <t>통신12부대(2026)</t>
+  </si>
+  <si>
+    <t>보령시</t>
+  </si>
+  <si>
+    <t>충청남도 보령시 성주산로 77</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>윤성민</t>
+  </si>
+  <si>
+    <t>010-5164-3628</t>
+  </si>
+  <si>
+    <t>officer92@army.mil.kr</t>
+  </si>
+  <si>
+    <t>연병장</t>
+  </si>
+  <si>
+    <t>통신12대대(2026)</t>
+  </si>
+  <si>
+    <t>대구광역시</t>
+  </si>
+  <si>
+    <t>중구</t>
+  </si>
+  <si>
+    <t>대구광역시 중구 공평로 88</t>
+  </si>
+  <si>
+    <t>2026-02-06</t>
+  </si>
+  <si>
+    <t>2026-02-08</t>
+  </si>
+  <si>
+    <t>오도현</t>
+  </si>
+  <si>
+    <t>010-2050-9391</t>
+  </si>
+  <si>
+    <t>officer91@army.mil.kr</t>
+  </si>
+  <si>
+    <t>음향시설 완비</t>
+  </si>
+  <si>
+    <t>통신12연대(2026)</t>
+  </si>
+  <si>
+    <t>경상남도</t>
+  </si>
+  <si>
+    <t>김해시</t>
+  </si>
+  <si>
+    <t>경상남도 김해시 김해대로 2401</t>
+  </si>
+  <si>
+    <t>강도윤</t>
+  </si>
+  <si>
+    <t>010-9334-6275</t>
+  </si>
+  <si>
+    <t>officer90@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병12여단(2026)</t>
+  </si>
+  <si>
     <t>인천광역시</t>
   </si>
   <si>
-    <t>중구</t>
+    <t>남동구</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 예술로 198</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>윤건우</t>
+  </si>
+  <si>
+    <t>010-2010-3179</t>
+  </si>
+  <si>
+    <t>officer89@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병12사단(2026)</t>
+  </si>
+  <si>
+    <t>전주시 덕진구</t>
+  </si>
+  <si>
+    <t>전북특별자치도 전주시 덕진구 건산로 251</t>
+  </si>
+  <si>
+    <t>본관 1층</t>
+  </si>
+  <si>
+    <t>2026-02-14</t>
+  </si>
+  <si>
+    <t>2026-02-16</t>
+  </si>
+  <si>
+    <t>권도윤</t>
+  </si>
+  <si>
+    <t>010-9949-8508</t>
+  </si>
+  <si>
+    <t>officer88@army.mil.kr</t>
+  </si>
+  <si>
+    <t>대강당</t>
+  </si>
+  <si>
+    <t>공병11교육대(2026)</t>
+  </si>
+  <si>
+    <t>계양구</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 계양대로 168</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>윤재원</t>
+  </si>
+  <si>
+    <t>010-9400-2748</t>
+  </si>
+  <si>
+    <t>officer87@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11지원단(2026)</t>
+  </si>
+  <si>
+    <t>충청북도</t>
+  </si>
+  <si>
+    <t>충주시</t>
+  </si>
+  <si>
+    <t>충청북도 충주시 으뜸로 21</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>황하준</t>
+  </si>
+  <si>
+    <t>010-8072-2853</t>
+  </si>
+  <si>
+    <t>officer86@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11사령부(2026)</t>
+  </si>
+  <si>
+    <t>경기도</t>
+  </si>
+  <si>
+    <t>평택시</t>
+  </si>
+  <si>
+    <t>경기도 평택시 평택로 51</t>
+  </si>
+  <si>
+    <t>황지호</t>
+  </si>
+  <si>
+    <t>010-5583-7669</t>
+  </si>
+  <si>
+    <t>officer85@army.mil.kr</t>
+  </si>
+  <si>
+    <t>에어컨 가동</t>
+  </si>
+  <si>
+    <t>공병11부대(2026)</t>
+  </si>
+  <si>
+    <t>부평구</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평대로 168</t>
+  </si>
+  <si>
+    <t>이우진</t>
+  </si>
+  <si>
+    <t>010-9843-6135</t>
+  </si>
+  <si>
+    <t>officer84@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11대대(2026)</t>
+  </si>
+  <si>
+    <t>대전광역시</t>
+  </si>
+  <si>
+    <t>대전광역시 중구 중앙로 101</t>
+  </si>
+  <si>
+    <t>오시우</t>
+  </si>
+  <si>
+    <t>010-4215-3111</t>
+  </si>
+  <si>
+    <t>officer83@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11연대(2026)</t>
+  </si>
+  <si>
+    <t>서구</t>
+  </si>
+  <si>
+    <t>대전광역시 서구 둔산로 100</t>
+  </si>
+  <si>
+    <t>한건우</t>
+  </si>
+  <si>
+    <t>010-5331-7789</t>
+  </si>
+  <si>
+    <t>officer82@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11여단(2026)</t>
+  </si>
+  <si>
+    <t>동구</t>
+  </si>
+  <si>
+    <t>대전광역시 동구 동대전로 133</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
+  </si>
+  <si>
+    <t>정성민</t>
+  </si>
+  <si>
+    <t>010-4139-4294</t>
+  </si>
+  <si>
+    <t>officer81@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11사단(2026)</t>
+  </si>
+  <si>
+    <t>천안시 서북구</t>
+  </si>
+  <si>
+    <t>충청남도 천안시 서북구 번영로 208</t>
+  </si>
+  <si>
+    <t>권시우</t>
+  </si>
+  <si>
+    <t>010-8964-7265</t>
+  </si>
+  <si>
+    <t>officer80@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10교육대(2026)</t>
+  </si>
+  <si>
+    <t>정읍시</t>
+  </si>
+  <si>
+    <t>전북특별자치도 정읍시 충정로 379</t>
+  </si>
+  <si>
+    <t>2026-02-28</t>
+  </si>
+  <si>
+    <t>2026-03-02</t>
+  </si>
+  <si>
+    <t>오지훈</t>
+  </si>
+  <si>
+    <t>010-9683-7931</t>
+  </si>
+  <si>
+    <t>officer79@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10지원단(2026)</t>
+  </si>
+  <si>
+    <t>제천시</t>
+  </si>
+  <si>
+    <t>충청북도 제천시 내토로 295</t>
+  </si>
+  <si>
+    <t>2026-02-13</t>
+  </si>
+  <si>
+    <t>2026-02-15</t>
+  </si>
+  <si>
+    <t>황예준</t>
+  </si>
+  <si>
+    <t>010-6606-9808</t>
+  </si>
+  <si>
+    <t>officer78@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10사령부(2026)</t>
+  </si>
+  <si>
+    <t>전라남도</t>
+  </si>
+  <si>
+    <t>담양군</t>
+  </si>
+  <si>
+    <t>전라남도 담양군 담양읍 추성로 1371</t>
+  </si>
+  <si>
+    <t>서지훈</t>
+  </si>
+  <si>
+    <t>010-6599-5882</t>
+  </si>
+  <si>
+    <t>officer77@army.mil.kr</t>
+  </si>
+  <si>
+    <t>교육관</t>
+  </si>
+  <si>
+    <t>포병10부대(2026)</t>
+  </si>
+  <si>
+    <t>남양주시</t>
+  </si>
+  <si>
+    <t>경기도 남양주시 경춘로 1037</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>조하준</t>
+  </si>
+  <si>
+    <t>010-4536-2342</t>
+  </si>
+  <si>
+    <t>officer76@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10대대(2026)</t>
+  </si>
+  <si>
+    <t>안산시 단원구</t>
+  </si>
+  <si>
+    <t>경기도 안산시 단원구 광덕대로 142</t>
+  </si>
+  <si>
+    <t>이지훈</t>
+  </si>
+  <si>
+    <t>010-9459-5662</t>
+  </si>
+  <si>
+    <t>officer75@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10연대(2026)</t>
+  </si>
+  <si>
+    <t>유성구</t>
+  </si>
+  <si>
+    <t>대전광역시 유성구 대학로 99</t>
+  </si>
+  <si>
+    <t>2026-02-20</t>
+  </si>
+  <si>
+    <t>2026-02-22</t>
+  </si>
+  <si>
+    <t>한성민</t>
+  </si>
+  <si>
+    <t>010-4995-6152</t>
+  </si>
+  <si>
+    <t>officer74@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10여단(2026)</t>
+  </si>
+  <si>
+    <t>고양시 덕양구</t>
+  </si>
+  <si>
+    <t>경기도 고양시 덕양구 고양대로 1955</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>강태현</t>
+  </si>
+  <si>
+    <t>010-5262-7092</t>
+  </si>
+  <si>
+    <t>officer73@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10사단(2026)</t>
+  </si>
+  <si>
+    <t>고양시 일산동구</t>
+  </si>
+  <si>
+    <t>경기도 고양시 일산동구 중앙로 1286</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>윤현우</t>
+  </si>
+  <si>
+    <t>010-4803-2947</t>
+  </si>
+  <si>
+    <t>officer72@army.mil.kr</t>
+  </si>
+  <si>
+    <t>추가장소2</t>
+  </si>
+  <si>
+    <t>추가장소3</t>
+  </si>
+  <si>
+    <t>포병9교육대(2026)</t>
+  </si>
+  <si>
+    <t>아산시</t>
+  </si>
+  <si>
+    <t>충청남도 아산시 번영로 224</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>오지호</t>
+  </si>
+  <si>
+    <t>010-5412-7559</t>
+  </si>
+  <si>
+    <t>officer71@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병9지원단(2026)</t>
+  </si>
+  <si>
+    <t>천안시 동남구</t>
+  </si>
+  <si>
+    <t>충청남도 천안시 동남구 대흥로 215</t>
+  </si>
+  <si>
+    <t>정지훈</t>
+  </si>
+  <si>
+    <t>010-1253-4623</t>
+  </si>
+  <si>
+    <t>officer70@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9사령부(2026)</t>
+  </si>
+  <si>
+    <t>연수구</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 컨벤시아대로 165</t>
+  </si>
+  <si>
+    <t>한하준</t>
+  </si>
+  <si>
+    <t>010-5606-8552</t>
+  </si>
+  <si>
+    <t>officer69@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9부대(2026)</t>
+  </si>
+  <si>
+    <t>이천시</t>
+  </si>
+  <si>
+    <t>경기도 이천시 부악로 40</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>장민준</t>
+  </si>
+  <si>
+    <t>010-4412-7038</t>
+  </si>
+  <si>
+    <t>officer68@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9대대(2026)</t>
+  </si>
+  <si>
+    <t>서울특별시</t>
+  </si>
+  <si>
+    <t>관악구</t>
+  </si>
+  <si>
+    <t>서울특별시 관악구 관악로 145</t>
+  </si>
+  <si>
+    <t>임재원</t>
+  </si>
+  <si>
+    <t>010-7698-1673</t>
+  </si>
+  <si>
+    <t>officer67@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9연대(2026)</t>
+  </si>
+  <si>
+    <t>청주시 상당구</t>
+  </si>
+  <si>
+    <t>충청북도 청주시 상당구 상당로 155</t>
+  </si>
+  <si>
+    <t>장주원</t>
+  </si>
+  <si>
+    <t>010-9369-4196</t>
+  </si>
+  <si>
+    <t>officer66@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9여단(2026)</t>
+  </si>
+  <si>
+    <t>용산구</t>
+  </si>
+  <si>
+    <t>서울특별시 용산구 한강대로 405</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>서우진</t>
+  </si>
+  <si>
+    <t>010-9412-9400</t>
+  </si>
+  <si>
+    <t>officer65@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9사단(2026)</t>
+  </si>
+  <si>
+    <t>수원시 영통구</t>
+  </si>
+  <si>
+    <t>경기도 수원시 영통구 광교로 156</t>
+  </si>
+  <si>
+    <t>010-4882-2515</t>
+  </si>
+  <si>
+    <t>officer64@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화8교육대(2026)</t>
+  </si>
+  <si>
+    <t>광양시</t>
+  </si>
+  <si>
+    <t>전라남도 광양시 시청로 33</t>
+  </si>
+  <si>
+    <t>010-2547-1963</t>
+  </si>
+  <si>
+    <t>officer63@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화8지원단(2026)</t>
+  </si>
+  <si>
+    <t>영등포구</t>
+  </si>
+  <si>
+    <t>서울특별시 영등포구 여의대로 108</t>
+  </si>
+  <si>
+    <t>최시우</t>
+  </si>
+  <si>
+    <t>010-8479-7041</t>
+  </si>
+  <si>
+    <t>officer62@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화8사령부(2026)</t>
+  </si>
+  <si>
+    <t>속초시</t>
+  </si>
+  <si>
+    <t>강원특별자치도 속초시 중앙로 183</t>
+  </si>
+  <si>
+    <t>정예준</t>
+  </si>
+  <si>
+    <t>010-8112-5152</t>
+  </si>
+  <si>
+    <t>officer61@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화8부대(2026)</t>
+  </si>
+  <si>
+    <t>광주시</t>
+  </si>
+  <si>
+    <t>경기도 광주시 파발로 155</t>
+  </si>
+  <si>
+    <t>최현우</t>
+  </si>
+  <si>
+    <t>010-1939-8011</t>
+  </si>
+  <si>
+    <t>officer60@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전8대대(2026)</t>
+  </si>
+  <si>
+    <t>안양시 동안구</t>
+  </si>
+  <si>
+    <t>경기도 안양시 동안구 시민대로 230</t>
+  </si>
+  <si>
+    <t>한재원</t>
+  </si>
+  <si>
+    <t>010-3670-3010</t>
+  </si>
+  <si>
+    <t>officer59@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전8연대(2026)</t>
+  </si>
+  <si>
+    <t>강서구</t>
+  </si>
+  <si>
+    <t>서울특별시 강서구 공항대로 247</t>
+  </si>
+  <si>
+    <t>한서준</t>
+  </si>
+  <si>
+    <t>010-9135-1278</t>
+  </si>
+  <si>
+    <t>officer58@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전8여단(2026)</t>
+  </si>
+  <si>
+    <t>광진구</t>
+  </si>
+  <si>
+    <t>서울특별시 광진구 능동로 120</t>
+  </si>
+  <si>
+    <t>오건우</t>
+  </si>
+  <si>
+    <t>010-1953-5885</t>
+  </si>
+  <si>
+    <t>officer57@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전8사단(2026)</t>
+  </si>
+  <si>
+    <t>인천광역시 서구 서곶로 307</t>
+  </si>
+  <si>
+    <t>최도현</t>
+  </si>
+  <si>
+    <t>010-1914-1449</t>
+  </si>
+  <si>
+    <t>officer56@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7교육대(2026)</t>
+  </si>
+  <si>
+    <t>춘천시</t>
+  </si>
+  <si>
+    <t>강원특별자치도 춘천시 중앙로 1</t>
+  </si>
+  <si>
+    <t>최성민</t>
+  </si>
+  <si>
+    <t>010-6226-9779</t>
+  </si>
+  <si>
+    <t>officer55@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7지원단(2026)</t>
+  </si>
+  <si>
+    <t>수성구</t>
+  </si>
+  <si>
+    <t>대구광역시 수성구 동대구로 364</t>
+  </si>
+  <si>
+    <t>010-3973-2384</t>
+  </si>
+  <si>
+    <t>officer54@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7사령부(2026)</t>
+  </si>
+  <si>
+    <t>강동구</t>
+  </si>
+  <si>
+    <t>서울특별시 강동구 천호대로 1017</t>
+  </si>
+  <si>
+    <t>윤도현</t>
+  </si>
+  <si>
+    <t>010-7524-4726</t>
+  </si>
+  <si>
+    <t>officer53@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7부대(2026)</t>
+  </si>
+  <si>
+    <t>군포시</t>
+  </si>
+  <si>
+    <t>경기도 군포시 청백리길 6</t>
+  </si>
+  <si>
+    <t>서재원</t>
+  </si>
+  <si>
+    <t>010-6084-5044</t>
+  </si>
+  <si>
+    <t>officer52@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7대대(2026)</t>
+  </si>
+  <si>
+    <t>성북구</t>
+  </si>
+  <si>
+    <t>서울특별시 성북구 성북로 76</t>
+  </si>
+  <si>
+    <t>010-3443-8043</t>
+  </si>
+  <si>
+    <t>officer51@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7연대(2026)</t>
   </si>
   <si>
     <t>인천광역시 중구 신포로27번길 80</t>
   </si>
   <si>
-    <t>본관 5층</t>
-  </si>
-  <si>
-    <t>2026-01-19</t>
-  </si>
-  <si>
-    <t>2026-01-21</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>임도윤</t>
-  </si>
-  <si>
-    <t>010-6068-9766</t>
-  </si>
-  <si>
-    <t>officer99@army.mil.kr</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>체육관</t>
-  </si>
-  <si>
-    <t>주차 가능</t>
-  </si>
-  <si>
-    <t>통신13연대(2026)</t>
-  </si>
-  <si>
-    <t>경기도</t>
-  </si>
-  <si>
-    <t>시흥시</t>
-  </si>
-  <si>
-    <t>경기도 시흥시 시청로 20</t>
-  </si>
-  <si>
-    <t>본관 2층</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>2026-01-30</t>
-  </si>
-  <si>
-    <t>오주원</t>
-  </si>
-  <si>
-    <t>010-1006-6750</t>
-  </si>
-  <si>
-    <t>officer98@army.mil.kr</t>
-  </si>
-  <si>
-    <t>훈련장</t>
-  </si>
-  <si>
-    <t>프로젝터 있음</t>
-  </si>
-  <si>
-    <t>통신13여단(2026)</t>
-  </si>
-  <si>
-    <t>서울특별시</t>
-  </si>
-  <si>
-    <t>성북구</t>
-  </si>
-  <si>
-    <t>서울특별시 성북구 성북로 76</t>
-  </si>
-  <si>
-    <t>본관 4층</t>
-  </si>
-  <si>
-    <t>2026-01-20</t>
-  </si>
-  <si>
-    <t>2026-01-23</t>
-  </si>
-  <si>
-    <t>윤지훈</t>
-  </si>
-  <si>
-    <t>010-9558-1653</t>
-  </si>
-  <si>
-    <t>officer97@army.mil.kr</t>
-  </si>
-  <si>
-    <t>연병장</t>
-  </si>
-  <si>
-    <t>에어컨 가동</t>
-  </si>
-  <si>
-    <t>추가장소2</t>
-  </si>
-  <si>
-    <t>추가장소3</t>
-  </si>
-  <si>
-    <t>통신13사단(2026)</t>
-  </si>
-  <si>
-    <t>MND</t>
-  </si>
-  <si>
-    <t>경상남도</t>
-  </si>
-  <si>
-    <t>창원시 성산구</t>
-  </si>
-  <si>
-    <t>경상남도 창원시 성산구 중앙대로 151</t>
-  </si>
-  <si>
-    <t>2026-02-27</t>
-  </si>
-  <si>
-    <t>2026-03-01</t>
-  </si>
-  <si>
-    <t>황주원</t>
-  </si>
-  <si>
-    <t>010-5959-6578</t>
-  </si>
-  <si>
-    <t>officer96@army.mil.kr</t>
-  </si>
-  <si>
-    <t>회의실</t>
-  </si>
-  <si>
-    <t>통신12교육대(2026)</t>
-  </si>
-  <si>
-    <t>거제시</t>
-  </si>
-  <si>
-    <t>경상남도 거제시 계룡로 125</t>
-  </si>
-  <si>
-    <t>본관 3층</t>
-  </si>
-  <si>
-    <t>2026-02-14</t>
-  </si>
-  <si>
-    <t>2026-02-16</t>
-  </si>
-  <si>
-    <t>황서준</t>
-  </si>
-  <si>
-    <t>010-4903-3906</t>
-  </si>
-  <si>
-    <t>officer95@army.mil.kr</t>
-  </si>
-  <si>
-    <t>음향시설 완비</t>
-  </si>
-  <si>
-    <t>통신12지원단(2026)</t>
-  </si>
-  <si>
-    <t>의정부시</t>
-  </si>
-  <si>
-    <t>경기도 의정부시 청사로 1</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>박서준</t>
-  </si>
-  <si>
-    <t>010-3857-1668</t>
-  </si>
-  <si>
-    <t>officer94@army.mil.kr</t>
-  </si>
-  <si>
-    <t>통신12사령부(2026)</t>
-  </si>
-  <si>
-    <t>AirForce</t>
-  </si>
-  <si>
-    <t>충청남도</t>
-  </si>
-  <si>
-    <t>논산시</t>
-  </si>
-  <si>
-    <t>충청남도 논산시 시민로210번길 9</t>
-  </si>
-  <si>
-    <t>2026-01-13</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>이성민</t>
-  </si>
-  <si>
-    <t>010-5216-8770</t>
-  </si>
-  <si>
-    <t>officer93@army.mil.kr</t>
-  </si>
-  <si>
-    <t>통신12부대(2026)</t>
-  </si>
-  <si>
-    <t>전라남도</t>
-  </si>
-  <si>
-    <t>목포시</t>
-  </si>
-  <si>
-    <t>전라남도 목포시 평화로 29</t>
-  </si>
-  <si>
-    <t>2026-02-12</t>
-  </si>
-  <si>
-    <t>황현우</t>
-  </si>
-  <si>
-    <t>010-7624-4234</t>
-  </si>
-  <si>
-    <t>officer92@army.mil.kr</t>
-  </si>
-  <si>
-    <t>교육관</t>
-  </si>
-  <si>
-    <t>통신12대대(2026)</t>
-  </si>
-  <si>
-    <t>Marines</t>
-  </si>
-  <si>
-    <t>대구광역시</t>
-  </si>
-  <si>
-    <t>달서구</t>
-  </si>
-  <si>
-    <t>대구광역시 달서구 학산로 30</t>
-  </si>
-  <si>
-    <t>2026-02-19</t>
-  </si>
-  <si>
-    <t>2026-02-21</t>
-  </si>
-  <si>
-    <t>권건우</t>
-  </si>
-  <si>
-    <t>010-6609-6478</t>
-  </si>
-  <si>
-    <t>officer91@army.mil.kr</t>
-  </si>
-  <si>
-    <t>통신12연대(2026)</t>
-  </si>
-  <si>
-    <t>공주시</t>
-  </si>
-  <si>
-    <t>충청남도 공주시 봉황로 1</t>
-  </si>
-  <si>
-    <t>2026-01-22</t>
-  </si>
-  <si>
-    <t>정재원</t>
-  </si>
-  <si>
-    <t>010-5599-7932</t>
-  </si>
-  <si>
-    <t>officer90@army.mil.kr</t>
-  </si>
-  <si>
-    <t>다목적실</t>
-  </si>
-  <si>
-    <t>공병12여단(2026)</t>
-  </si>
-  <si>
-    <t>영등포구</t>
-  </si>
-  <si>
-    <t>서울특별시 영등포구 여의대로 108</t>
-  </si>
-  <si>
-    <t>윤현우</t>
-  </si>
-  <si>
-    <t>010-5300-1762</t>
-  </si>
-  <si>
-    <t>officer89@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병12사단(2026)</t>
-  </si>
-  <si>
-    <t>광주광역시</t>
-  </si>
-  <si>
-    <t>북구</t>
-  </si>
-  <si>
-    <t>광주광역시 북구 용봉로 77</t>
-  </si>
-  <si>
-    <t>2026-02-20</t>
-  </si>
-  <si>
-    <t>2026-02-22</t>
-  </si>
-  <si>
-    <t>강도현</t>
-  </si>
-  <si>
-    <t>010-3980-5321</t>
-  </si>
-  <si>
-    <t>officer88@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11교육대(2026)</t>
-  </si>
-  <si>
-    <t>대전광역시</t>
-  </si>
-  <si>
-    <t>동구</t>
-  </si>
-  <si>
-    <t>대전광역시 동구 동대전로 133</t>
-  </si>
-  <si>
-    <t>010-1128-8463</t>
-  </si>
-  <si>
-    <t>officer87@army.mil.kr</t>
-  </si>
-  <si>
-    <t>대강당</t>
-  </si>
-  <si>
-    <t>공병11지원단(2026)</t>
-  </si>
-  <si>
-    <t>경상북도</t>
-  </si>
-  <si>
-    <t>영주시</t>
-  </si>
-  <si>
-    <t>경상북도 영주시 시청로 1</t>
-  </si>
-  <si>
-    <t>2026-02-23</t>
-  </si>
-  <si>
-    <t>황도윤</t>
-  </si>
-  <si>
-    <t>010-7102-9953</t>
-  </si>
-  <si>
-    <t>officer86@army.mil.kr</t>
-  </si>
-  <si>
-    <t>세미나실</t>
-  </si>
-  <si>
-    <t>공병11사령부(2026)</t>
-  </si>
-  <si>
-    <t>강원특별자치도</t>
-  </si>
-  <si>
-    <t>춘천시</t>
-  </si>
-  <si>
-    <t>강원특별자치도 춘천시 중앙로 1</t>
-  </si>
-  <si>
-    <t>오하준</t>
-  </si>
-  <si>
-    <t>010-3565-2970</t>
-  </si>
-  <si>
-    <t>officer85@army.mil.kr</t>
-  </si>
-  <si>
-    <t>강의실</t>
-  </si>
-  <si>
-    <t>공병11부대(2026)</t>
-  </si>
-  <si>
-    <t>고양시 일산동구</t>
-  </si>
-  <si>
-    <t>경기도 고양시 일산동구 중앙로 1286</t>
-  </si>
-  <si>
-    <t>박민준</t>
-  </si>
-  <si>
-    <t>010-7928-5361</t>
-  </si>
-  <si>
-    <t>officer84@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11대대(2026)</t>
-  </si>
-  <si>
-    <t>전북특별자치도</t>
-  </si>
-  <si>
-    <t>군산시</t>
-  </si>
-  <si>
-    <t>전북특별자치도 군산시 시청로 17</t>
-  </si>
-  <si>
-    <t>2026-02-28</t>
-  </si>
-  <si>
-    <t>2026-03-02</t>
-  </si>
-  <si>
-    <t>권지호</t>
-  </si>
-  <si>
-    <t>010-9682-9359</t>
-  </si>
-  <si>
-    <t>officer83@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11연대(2026)</t>
-  </si>
-  <si>
-    <t>강남구</t>
-  </si>
-  <si>
-    <t>서울특별시 강남구 테헤란로 152</t>
-  </si>
-  <si>
     <t>조예준</t>
   </si>
   <si>
-    <t>010-4134-3371</t>
-  </si>
-  <si>
-    <t>officer82@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11여단(2026)</t>
-  </si>
-  <si>
-    <t>부천시</t>
-  </si>
-  <si>
-    <t>경기도 부천시 길주로 210</t>
-  </si>
-  <si>
-    <t>본관 1층</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>2026-01-06</t>
-  </si>
-  <si>
-    <t>신지훈</t>
-  </si>
-  <si>
-    <t>010-7519-3572</t>
-  </si>
-  <si>
-    <t>officer81@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11사단(2026)</t>
-  </si>
-  <si>
-    <t>천안시 서북구</t>
-  </si>
-  <si>
-    <t>충청남도 천안시 서북구 번영로 208</t>
-  </si>
-  <si>
-    <t>2026-01-07</t>
-  </si>
-  <si>
-    <t>최재원</t>
-  </si>
-  <si>
-    <t>010-9691-4765</t>
-  </si>
-  <si>
-    <t>officer80@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10교육대(2026)</t>
-  </si>
-  <si>
-    <t>구미시</t>
-  </si>
-  <si>
-    <t>경상북도 구미시 송정대로 55</t>
-  </si>
-  <si>
-    <t>2026-02-13</t>
-  </si>
-  <si>
-    <t>2026-02-15</t>
-  </si>
-  <si>
-    <t>한우진</t>
-  </si>
-  <si>
-    <t>010-3678-1465</t>
-  </si>
-  <si>
-    <t>officer79@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10지원단(2026)</t>
-  </si>
-  <si>
-    <t>삼척시</t>
-  </si>
-  <si>
-    <t>강원특별자치도 삼척시 중앙로 296</t>
-  </si>
-  <si>
-    <t>서주원</t>
-  </si>
-  <si>
-    <t>010-8132-3906</t>
-  </si>
-  <si>
-    <t>officer78@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10사령부(2026)</t>
-  </si>
-  <si>
-    <t>포항시 남구</t>
-  </si>
-  <si>
-    <t>경상북도 포항시 남구 시청로 1</t>
-  </si>
-  <si>
-    <t>황하준</t>
-  </si>
-  <si>
-    <t>010-7497-3095</t>
-  </si>
-  <si>
-    <t>officer77@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10부대(2026)</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>광진구</t>
-  </si>
-  <si>
-    <t>서울특별시 광진구 능동로 120</t>
-  </si>
-  <si>
-    <t>2026-01-27</t>
-  </si>
-  <si>
-    <t>조도윤</t>
-  </si>
-  <si>
-    <t>010-3880-9665</t>
-  </si>
-  <si>
-    <t>officer76@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10대대(2026)</t>
-  </si>
-  <si>
-    <t>서구</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 내방로 111</t>
-  </si>
-  <si>
-    <t>박우진</t>
-  </si>
-  <si>
-    <t>010-2337-7849</t>
-  </si>
-  <si>
-    <t>officer75@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10연대(2026)</t>
-  </si>
-  <si>
-    <t>충청북도</t>
-  </si>
-  <si>
-    <t>제천시</t>
-  </si>
-  <si>
-    <t>충청북도 제천시 내토로 295</t>
-  </si>
-  <si>
-    <t>2026-02-06</t>
-  </si>
-  <si>
-    <t>2026-02-08</t>
-  </si>
-  <si>
-    <t>한지호</t>
-  </si>
-  <si>
-    <t>010-9012-8280</t>
-  </si>
-  <si>
-    <t>officer74@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10여단(2026)</t>
-  </si>
-  <si>
-    <t>평택시</t>
-  </si>
-  <si>
-    <t>경기도 평택시 평택로 51</t>
-  </si>
-  <si>
-    <t>박도윤</t>
-  </si>
-  <si>
-    <t>010-7218-6450</t>
-  </si>
-  <si>
-    <t>officer73@army.mil.kr</t>
-  </si>
-  <si>
-    <t>교육센터</t>
-  </si>
-  <si>
-    <t>포병10사단(2026)</t>
-  </si>
-  <si>
-    <t>마포구</t>
-  </si>
-  <si>
-    <t>서울특별시 마포구 월드컵북로 396</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>조주원</t>
-  </si>
-  <si>
-    <t>010-6468-6304</t>
-  </si>
-  <si>
-    <t>officer72@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병9교육대(2026)</t>
-  </si>
-  <si>
-    <t>충주시</t>
-  </si>
-  <si>
-    <t>충청북도 충주시 으뜸로 21</t>
-  </si>
-  <si>
-    <t>010-1077-8955</t>
-  </si>
-  <si>
-    <t>officer71@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병9지원단(2026)</t>
-  </si>
-  <si>
-    <t>경주시</t>
-  </si>
-  <si>
-    <t>경상북도 경주시 양정로 260</t>
-  </si>
-  <si>
-    <t>2026-02-26</t>
-  </si>
-  <si>
-    <t>조태현</t>
-  </si>
-  <si>
-    <t>010-8032-2766</t>
-  </si>
-  <si>
-    <t>officer70@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9사령부(2026)</t>
-  </si>
-  <si>
-    <t>전주시 덕진구</t>
-  </si>
-  <si>
-    <t>전북특별자치도 전주시 덕진구 건산로 251</t>
-  </si>
-  <si>
-    <t>서현우</t>
-  </si>
-  <si>
-    <t>010-9269-1435</t>
-  </si>
-  <si>
-    <t>officer69@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9부대(2026)</t>
-  </si>
-  <si>
-    <t>동해시</t>
-  </si>
-  <si>
-    <t>강원특별자치도 동해시 천곡로 77</t>
-  </si>
-  <si>
-    <t>김태현</t>
-  </si>
-  <si>
-    <t>010-7315-9738</t>
-  </si>
-  <si>
-    <t>officer68@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9대대(2026)</t>
-  </si>
-  <si>
-    <t>부평구</t>
-  </si>
-  <si>
-    <t>인천광역시 부평구 부평대로 168</t>
-  </si>
-  <si>
-    <t>010-9375-1155</t>
-  </si>
-  <si>
-    <t>officer67@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9연대(2026)</t>
-  </si>
-  <si>
-    <t>속초시</t>
-  </si>
-  <si>
-    <t>강원특별자치도 속초시 중앙로 183</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>임시우</t>
-  </si>
-  <si>
-    <t>010-5644-8085</t>
-  </si>
-  <si>
-    <t>officer66@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9여단(2026)</t>
-  </si>
-  <si>
-    <t>미추홀구</t>
-  </si>
-  <si>
-    <t>인천광역시 미추홀구 석정로 229</t>
-  </si>
-  <si>
-    <t>임성민</t>
-  </si>
-  <si>
-    <t>010-6687-6505</t>
-  </si>
-  <si>
-    <t>officer65@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9사단(2026)</t>
-  </si>
-  <si>
-    <t>익산시</t>
-  </si>
-  <si>
-    <t>전북특별자치도 익산시 인북로 140</t>
-  </si>
-  <si>
-    <t>조하준</t>
-  </si>
-  <si>
-    <t>010-2240-7573</t>
-  </si>
-  <si>
-    <t>officer64@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화8교육대(2026)</t>
-  </si>
-  <si>
-    <t>고양시 덕양구</t>
-  </si>
-  <si>
-    <t>경기도 고양시 덕양구 고양대로 1955</t>
-  </si>
-  <si>
-    <t>010-6621-8074</t>
-  </si>
-  <si>
-    <t>officer63@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화8지원단(2026)</t>
-  </si>
-  <si>
-    <t>수성구</t>
-  </si>
-  <si>
-    <t>대구광역시 수성구 동대구로 364</t>
-  </si>
-  <si>
-    <t>2026-02-05</t>
-  </si>
-  <si>
-    <t>2026-02-07</t>
-  </si>
-  <si>
-    <t>윤건우</t>
-  </si>
-  <si>
-    <t>010-7155-4240</t>
-  </si>
-  <si>
-    <t>officer62@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화8사령부(2026)</t>
-  </si>
-  <si>
-    <t>수원시 팔달구</t>
-  </si>
-  <si>
-    <t>경기도 수원시 팔달구 효원로 1</t>
-  </si>
-  <si>
-    <t>2026-01-26</t>
-  </si>
-  <si>
-    <t>서도윤</t>
-  </si>
-  <si>
-    <t>010-2448-5703</t>
-  </si>
-  <si>
-    <t>officer61@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화8부대(2026)</t>
-  </si>
-  <si>
-    <t>계양구</t>
-  </si>
-  <si>
-    <t>인천광역시 계양구 계양대로 168</t>
-  </si>
-  <si>
-    <t>윤재원</t>
-  </si>
-  <si>
-    <t>010-8987-2866</t>
-  </si>
-  <si>
-    <t>officer60@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전8대대(2026)</t>
-  </si>
-  <si>
-    <t>광주광역시 동구 서남로 1</t>
-  </si>
-  <si>
-    <t>이서준</t>
-  </si>
-  <si>
-    <t>010-8731-3443</t>
-  </si>
-  <si>
-    <t>officer59@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전8연대(2026)</t>
-  </si>
-  <si>
-    <t>아산시</t>
-  </si>
-  <si>
-    <t>충청남도 아산시 번영로 224</t>
-  </si>
-  <si>
-    <t>김도현</t>
-  </si>
-  <si>
-    <t>010-7864-5927</t>
-  </si>
-  <si>
-    <t>officer58@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전8여단(2026)</t>
-  </si>
-  <si>
-    <t>인천광역시 동구 샛골로 130</t>
-  </si>
-  <si>
-    <t>권시우</t>
-  </si>
-  <si>
-    <t>010-2244-3487</t>
-  </si>
-  <si>
-    <t>officer57@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전8사단(2026)</t>
-  </si>
-  <si>
-    <t>보령시</t>
-  </si>
-  <si>
-    <t>충청남도 보령시 성주산로 77</t>
-  </si>
-  <si>
-    <t>강하준</t>
-  </si>
-  <si>
-    <t>010-2967-1525</t>
-  </si>
-  <si>
-    <t>officer56@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7교육대(2026)</t>
-  </si>
-  <si>
-    <t>대구광역시 중구 공평로 88</t>
-  </si>
-  <si>
-    <t>장도현</t>
-  </si>
-  <si>
-    <t>010-6536-9046</t>
-  </si>
-  <si>
-    <t>officer55@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7지원단(2026)</t>
-  </si>
-  <si>
-    <t>파주시</t>
-  </si>
-  <si>
-    <t>경기도 파주시 문발로 242</t>
-  </si>
-  <si>
-    <t>최건우</t>
-  </si>
-  <si>
-    <t>010-3733-8881</t>
-  </si>
-  <si>
-    <t>officer54@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7사령부(2026)</t>
-  </si>
-  <si>
-    <t>용인시 처인구</t>
-  </si>
-  <si>
-    <t>경기도 용인시 처인구 중부대로 1199</t>
-  </si>
-  <si>
-    <t>최민준</t>
-  </si>
-  <si>
-    <t>010-9122-7225</t>
-  </si>
-  <si>
-    <t>officer53@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7부대(2026)</t>
-  </si>
-  <si>
-    <t>오산시</t>
-  </si>
-  <si>
-    <t>경기도 오산시 성호대로 141</t>
-  </si>
-  <si>
-    <t>010-5228-4082</t>
-  </si>
-  <si>
-    <t>officer52@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7대대(2026)</t>
-  </si>
-  <si>
-    <t>수원시 영통구</t>
-  </si>
-  <si>
-    <t>경기도 수원시 영통구 광교로 156</t>
-  </si>
-  <si>
-    <t>정시우</t>
-  </si>
-  <si>
-    <t>010-8351-4264</t>
-  </si>
-  <si>
-    <t>officer51@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7연대(2026)</t>
-  </si>
-  <si>
-    <t>유성구</t>
-  </si>
-  <si>
-    <t>대전광역시 유성구 대학로 99</t>
-  </si>
-  <si>
-    <t>010-3582-9130</t>
+    <t>010-9139-4159</t>
   </si>
   <si>
     <t>officer50@army.mil.kr</t>
@@ -1597,7 +1591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z68"/>
+  <dimension ref="A1:Z70"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,10 +1735,10 @@
         <v>43</v>
       </c>
       <c r="R7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T7" t="s">
         <v>45</v>
@@ -1753,16 +1747,16 @@
         <v>35</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X7">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Y7">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Z7" t="s">
         <v>46</v>
@@ -1773,25 +1767,25 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
         <v>35</v>
@@ -1809,72 +1803,72 @@
         <v>39</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R8" t="s">
         <v>44</v>
       </c>
       <c r="S8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
         <v>35</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X8">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Y8">
         <v>63</v>
       </c>
       <c r="Z8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
         <v>36</v>
@@ -1889,229 +1883,229 @@
         <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
         <v>35</v>
       </c>
       <c r="V9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X9">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="Y9">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="Z9" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="O10" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="P10" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="Q10" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s">
         <v>35</v>
       </c>
       <c r="V10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X10">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="Y10">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="Q11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T11" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="U11" t="s">
         <v>35</v>
       </c>
       <c r="V11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X11">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="Y11">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="Z11" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
         <v>35</v>
@@ -2129,40 +2123,40 @@
         <v>39</v>
       </c>
       <c r="N12" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="Q12" t="s">
         <v>43</v>
       </c>
       <c r="R12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T12" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="U12" t="s">
         <v>35</v>
       </c>
       <c r="V12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X12">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Y12">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="Z12" t="s">
         <v>46</v>
@@ -2170,28 +2164,28 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="I13" t="s">
         <v>35</v>
@@ -2209,13 +2203,13 @@
         <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="O13" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="P13" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="Q13" t="s">
         <v>43</v>
@@ -2224,54 +2218,54 @@
         <v>44</v>
       </c>
       <c r="S13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T13" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
         <v>35</v>
       </c>
       <c r="V13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X13">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="Y13">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="Z13" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="I14" t="s">
         <v>35</v>
@@ -2289,40 +2283,40 @@
         <v>39</v>
       </c>
       <c r="N14" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Q14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T14" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="U14" t="s">
         <v>35</v>
       </c>
       <c r="V14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X14">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="Y14">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="Z14" t="s">
         <v>46</v>
@@ -2330,28 +2324,28 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="H15" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I15" t="s">
         <v>35</v>
@@ -2369,69 +2363,69 @@
         <v>39</v>
       </c>
       <c r="N15" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="P15" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="Q15" t="s">
         <v>44</v>
       </c>
       <c r="R15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T15" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="U15" t="s">
         <v>35</v>
       </c>
       <c r="V15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X15">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="Y15">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="Z15" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
         <v>35</v>
@@ -2449,69 +2443,69 @@
         <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O16" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Q16" t="s">
         <v>44</v>
       </c>
       <c r="R16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T16" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
         <v>35</v>
       </c>
       <c r="V16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X16">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Y16">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Z16" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="H17" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I17" t="s">
         <v>35</v>
@@ -2529,69 +2523,69 @@
         <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="O17" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Q17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U17" t="s">
         <v>35</v>
       </c>
       <c r="V17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X17">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="Y17">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="Z17" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="I18" t="s">
         <v>35</v>
@@ -2609,13 +2603,13 @@
         <v>39</v>
       </c>
       <c r="N18" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="O18" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Q18" t="s">
         <v>44</v>
@@ -2624,57 +2618,57 @@
         <v>43</v>
       </c>
       <c r="S18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T18" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="U18" t="s">
         <v>35</v>
       </c>
       <c r="V18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X18">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="Y18">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J19" t="s">
         <v>36</v>
@@ -2689,229 +2683,229 @@
         <v>39</v>
       </c>
       <c r="N19" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="O19" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="Q19" t="s">
         <v>43</v>
       </c>
       <c r="R19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s">
         <v>35</v>
       </c>
       <c r="V19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X19">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="Y19">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="Z19" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="I20" t="s">
         <v>35</v>
       </c>
       <c r="J20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N20" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="P20" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="Q20" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R20" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S20" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T20" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="U20" t="s">
         <v>35</v>
       </c>
       <c r="V20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X20">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="Y20">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="I21" t="s">
         <v>35</v>
       </c>
       <c r="J21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N21" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="O21" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="P21" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="Q21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T21" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="U21" t="s">
         <v>35</v>
       </c>
       <c r="V21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X21">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="Y21">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="I22" t="s">
         <v>35</v>
@@ -2929,69 +2923,69 @@
         <v>39</v>
       </c>
       <c r="N22" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="O22" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="Q22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T22" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s">
         <v>35</v>
       </c>
       <c r="V22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X22">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="Y22">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="I23" t="s">
         <v>35</v>
@@ -3009,69 +3003,69 @@
         <v>39</v>
       </c>
       <c r="N23" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="O23" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="Q23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T23" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="U23" t="s">
         <v>35</v>
       </c>
       <c r="V23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X23">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="Y23">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="Z23" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="E24" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="I24" t="s">
         <v>35</v>
@@ -3089,13 +3083,13 @@
         <v>39</v>
       </c>
       <c r="N24" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="O24" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="Q24" t="s">
         <v>43</v>
@@ -3104,54 +3098,54 @@
         <v>44</v>
       </c>
       <c r="S24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T24" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="U24" t="s">
         <v>35</v>
       </c>
       <c r="V24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X24">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="Y24">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="Z24" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I25" t="s">
         <v>35</v>
@@ -3169,72 +3163,72 @@
         <v>39</v>
       </c>
       <c r="N25" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="O25" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="Q25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T25" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s">
         <v>35</v>
       </c>
       <c r="V25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X25">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Y25">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="Z25" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="E26" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="H26" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="I26" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="J26" t="s">
         <v>36</v>
@@ -3249,149 +3243,149 @@
         <v>39</v>
       </c>
       <c r="N26" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="O26" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="Q26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T26" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
         <v>35</v>
       </c>
       <c r="V26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X26">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Y26">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Z26" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="I27" t="s">
         <v>35</v>
       </c>
       <c r="J27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N27" t="s">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="O27" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="P27" t="s">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="Q27" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R27" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S27" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T27" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="U27" t="s">
         <v>35</v>
       </c>
       <c r="V27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X27">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="Y27">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="Z27" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="E28" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="H28" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I28" t="s">
         <v>35</v>
@@ -3409,72 +3403,72 @@
         <v>39</v>
       </c>
       <c r="N28" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="O28" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="Q28" t="s">
         <v>43</v>
       </c>
       <c r="R28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T28" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="U28" t="s">
         <v>35</v>
       </c>
       <c r="V28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X28">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="Y28">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="Z28" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="D29" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="E29" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="I29" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="J29" t="s">
         <v>36</v>
@@ -3489,152 +3483,152 @@
         <v>39</v>
       </c>
       <c r="N29" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="O29" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="Q29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R29" t="s">
         <v>44</v>
       </c>
       <c r="S29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T29" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="U29" t="s">
         <v>35</v>
       </c>
       <c r="V29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X29">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="Y29">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="Z29" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="I30" t="s">
         <v>35</v>
       </c>
       <c r="J30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N30" t="s">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="O30" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="P30" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="Q30" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R30" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S30" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T30" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="U30" t="s">
         <v>35</v>
       </c>
       <c r="V30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X30">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="Y30">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="Z30" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="E31" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="F31" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="H31" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="I31" t="s">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="J31" t="s">
         <v>36</v>
@@ -3649,69 +3643,69 @@
         <v>39</v>
       </c>
       <c r="N31" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="O31" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="Q31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R31" t="s">
         <v>44</v>
       </c>
       <c r="S31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T31" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="U31" t="s">
         <v>35</v>
       </c>
       <c r="V31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X31">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="Y31">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="Z31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="E32" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="H32" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="I32" t="s">
         <v>35</v>
@@ -3729,72 +3723,72 @@
         <v>39</v>
       </c>
       <c r="N32" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="O32" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="P32" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="Q32" t="s">
+        <v>43</v>
+      </c>
+      <c r="R32" t="s">
         <v>44</v>
       </c>
-      <c r="R32" t="s">
-        <v>43</v>
-      </c>
       <c r="S32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T32" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="U32" t="s">
         <v>35</v>
       </c>
       <c r="V32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X32">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y32">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Z32" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D33" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="E33" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="H33" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="I33" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="J33" t="s">
         <v>36</v>
@@ -3809,72 +3803,72 @@
         <v>39</v>
       </c>
       <c r="N33" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="O33" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="P33" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="Q33" t="s">
         <v>44</v>
       </c>
       <c r="R33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T33" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s">
         <v>35</v>
       </c>
       <c r="V33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X33">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Y33">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z33" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s">
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="E34" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="I34" t="s">
-        <v>35</v>
+        <v>263</v>
       </c>
       <c r="J34" t="s">
         <v>36</v>
@@ -3889,13 +3883,13 @@
         <v>39</v>
       </c>
       <c r="N34" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="O34" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="Q34" t="s">
         <v>44</v>
@@ -3904,294 +3898,294 @@
         <v>43</v>
       </c>
       <c r="S34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T34" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="U34" t="s">
         <v>35</v>
       </c>
       <c r="V34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X34">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="Y34">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="Z34" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>230</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="I35" t="s">
         <v>35</v>
       </c>
       <c r="J35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N35" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="O35" t="s">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c r="P35" t="s">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="Q35" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R35" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S35" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T35" t="s">
-        <v>169</v>
+        <v>267</v>
       </c>
       <c r="U35" t="s">
         <v>35</v>
       </c>
       <c r="V35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X35">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="Y35">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="Z35" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>239</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N36" t="s">
-        <v>241</v>
+        <v>35</v>
       </c>
       <c r="O36" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="P36" t="s">
-        <v>243</v>
+        <v>35</v>
       </c>
       <c r="Q36" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R36" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T36" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="U36" t="s">
         <v>35</v>
       </c>
       <c r="V36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X36">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="Y36">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="Z36" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>271</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="H37" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="I37" t="s">
         <v>35</v>
       </c>
       <c r="J37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M37" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N37" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="O37" t="s">
-        <v>35</v>
+        <v>274</v>
       </c>
       <c r="P37" t="s">
-        <v>35</v>
+        <v>275</v>
       </c>
       <c r="Q37" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R37" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S37" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T37" t="s">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c r="U37" t="s">
         <v>35</v>
       </c>
       <c r="V37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X37">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="Y37">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="Z37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s">
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E38" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="F38" t="s">
         <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="H38" t="s">
-        <v>89</v>
+        <v>272</v>
       </c>
       <c r="I38" t="s">
         <v>35</v>
@@ -4209,69 +4203,69 @@
         <v>39</v>
       </c>
       <c r="N38" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="O38" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="P38" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="Q38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R38" t="s">
         <v>43</v>
       </c>
       <c r="S38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T38" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s">
         <v>35</v>
       </c>
       <c r="V38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X38">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="Y38">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="Z38" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="E39" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="F39" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>254</v>
+        <v>108</v>
       </c>
       <c r="H39" t="s">
-        <v>255</v>
+        <v>109</v>
       </c>
       <c r="I39" t="s">
         <v>35</v>
@@ -4289,40 +4283,40 @@
         <v>39</v>
       </c>
       <c r="N39" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="O39" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="P39" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="Q39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T39" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U39" t="s">
         <v>35</v>
       </c>
       <c r="V39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X39">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="Y39">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="Z39" t="s">
         <v>46</v>
@@ -4330,28 +4324,28 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="B40" t="s">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="D40" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="E40" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="F40" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="G40" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="H40" t="s">
-        <v>204</v>
+        <v>292</v>
       </c>
       <c r="I40" t="s">
         <v>35</v>
@@ -4369,72 +4363,72 @@
         <v>39</v>
       </c>
       <c r="N40" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="O40" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="P40" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="Q40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T40" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="U40" t="s">
         <v>35</v>
       </c>
       <c r="V40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X40">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="Y40">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="Z40" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s">
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>297</v>
       </c>
       <c r="D41" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="E41" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="G41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H41" t="s">
-        <v>269</v>
+        <v>101</v>
       </c>
       <c r="I41" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J41" t="s">
         <v>36</v>
@@ -4449,43 +4443,43 @@
         <v>39</v>
       </c>
       <c r="N41" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="O41" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="P41" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="Q41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R41" t="s">
         <v>44</v>
       </c>
       <c r="S41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T41" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="U41" t="s">
         <v>35</v>
       </c>
       <c r="V41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X41">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="Y41">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="Z41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
@@ -4547,22 +4541,22 @@
         <v>35</v>
       </c>
       <c r="T42" t="s">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="U42" t="s">
         <v>35</v>
       </c>
       <c r="V42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X42">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="Y42">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="Z42" t="s">
         <v>35</v>
@@ -4627,22 +4621,22 @@
         <v>35</v>
       </c>
       <c r="T43" t="s">
-        <v>72</v>
+        <v>268</v>
       </c>
       <c r="U43" t="s">
         <v>35</v>
       </c>
       <c r="V43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X43">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="Y43">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="Z43" t="s">
         <v>35</v>
@@ -4650,28 +4644,28 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>251</v>
+        <v>158</v>
       </c>
       <c r="D44" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="E44" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="H44" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="I44" t="s">
         <v>35</v>
@@ -4689,72 +4683,72 @@
         <v>39</v>
       </c>
       <c r="N44" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="O44" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="P44" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="Q44" t="s">
         <v>43</v>
       </c>
       <c r="R44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T44" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="U44" t="s">
         <v>35</v>
       </c>
       <c r="V44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X44">
         <v>119</v>
       </c>
       <c r="Y44">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="Z44" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="B45" t="s">
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>297</v>
       </c>
       <c r="D45" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="E45" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="F45" t="s">
         <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="H45" t="s">
-        <v>188</v>
+        <v>292</v>
       </c>
       <c r="I45" t="s">
-        <v>35</v>
+        <v>291</v>
       </c>
       <c r="J45" t="s">
         <v>36</v>
@@ -4769,120 +4763,120 @@
         <v>39</v>
       </c>
       <c r="N45" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O45" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="P45" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="Q45" t="s">
         <v>44</v>
       </c>
       <c r="R45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T45" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s">
         <v>35</v>
       </c>
       <c r="V45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X45">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="Y45">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="Z45" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="E46" t="s">
-        <v>287</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="H46" t="s">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="I46" t="s">
         <v>35</v>
       </c>
       <c r="J46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N46" t="s">
-        <v>288</v>
+        <v>35</v>
       </c>
       <c r="O46" t="s">
-        <v>289</v>
+        <v>35</v>
       </c>
       <c r="P46" t="s">
-        <v>290</v>
+        <v>35</v>
       </c>
       <c r="Q46" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R46" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S46" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T46" t="s">
-        <v>169</v>
+        <v>267</v>
       </c>
       <c r="U46" t="s">
         <v>35</v>
       </c>
       <c r="V46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X46">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="Y46">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="Z46" t="s">
         <v>35</v>
@@ -4890,31 +4884,31 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>316</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" t="s">
+        <v>317</v>
+      </c>
+      <c r="E47" t="s">
+        <v>318</v>
+      </c>
+      <c r="F47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" t="s">
         <v>291</v>
       </c>
-      <c r="B47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" t="s">
-        <v>171</v>
-      </c>
-      <c r="D47" t="s">
-        <v>292</v>
-      </c>
-      <c r="E47" t="s">
-        <v>293</v>
-      </c>
-      <c r="F47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" t="s">
-        <v>203</v>
-      </c>
       <c r="H47" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="I47" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="J47" t="s">
         <v>36</v>
@@ -4929,149 +4923,149 @@
         <v>39</v>
       </c>
       <c r="N47" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="O47" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="P47" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="Q47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R47" t="s">
         <v>43</v>
       </c>
       <c r="S47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T47" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="U47" t="s">
         <v>35</v>
       </c>
       <c r="V47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X47">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Y47">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="Z47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>297</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>298</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>299</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="H48" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="I48" t="s">
         <v>35</v>
       </c>
       <c r="J48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M48" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N48" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="O48" t="s">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="P48" t="s">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="Q48" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R48" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S48" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T48" t="s">
-        <v>69</v>
+        <v>267</v>
       </c>
       <c r="U48" t="s">
         <v>35</v>
       </c>
       <c r="V48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X48">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="Y48">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="Z48" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="D49" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="E49" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="F49" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="G49" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="H49" t="s">
-        <v>305</v>
+        <v>66</v>
       </c>
       <c r="I49" t="s">
         <v>35</v>
@@ -5089,13 +5083,13 @@
         <v>39</v>
       </c>
       <c r="N49" t="s">
-        <v>306</v>
+        <v>154</v>
       </c>
       <c r="O49" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="P49" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="Q49" t="s">
         <v>43</v>
@@ -5104,57 +5098,57 @@
         <v>44</v>
       </c>
       <c r="S49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U49" t="s">
         <v>35</v>
       </c>
       <c r="V49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X49">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="Y49">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s">
         <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>297</v>
       </c>
       <c r="D50" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="E50" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>98</v>
+        <v>312</v>
       </c>
       <c r="H50" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="I50" t="s">
-        <v>35</v>
+        <v>291</v>
       </c>
       <c r="J50" t="s">
         <v>36</v>
@@ -5169,200 +5163,200 @@
         <v>39</v>
       </c>
       <c r="N50" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="O50" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="P50" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="Q50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R50" t="s">
         <v>44</v>
       </c>
       <c r="S50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T50" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="U50" t="s">
         <v>35</v>
       </c>
       <c r="V50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X50">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="Y50">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="Z50" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>315</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>316</v>
+        <v>35</v>
       </c>
       <c r="E51" t="s">
-        <v>317</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="I51" t="s">
         <v>35</v>
       </c>
       <c r="J51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M51" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N51" t="s">
-        <v>318</v>
+        <v>35</v>
       </c>
       <c r="O51" t="s">
-        <v>319</v>
+        <v>35</v>
       </c>
       <c r="P51" t="s">
-        <v>320</v>
+        <v>35</v>
       </c>
       <c r="Q51" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="R51" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S51" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T51" t="s">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="U51" t="s">
         <v>35</v>
       </c>
       <c r="V51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X51">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="Y51">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="Z51" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>321</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
-        <v>322</v>
+        <v>35</v>
       </c>
       <c r="E52" t="s">
-        <v>323</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="H52" t="s">
-        <v>269</v>
+        <v>35</v>
       </c>
       <c r="I52" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="J52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L52" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M52" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N52" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="O52" t="s">
-        <v>324</v>
+        <v>35</v>
       </c>
       <c r="P52" t="s">
-        <v>325</v>
+        <v>35</v>
       </c>
       <c r="Q52" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R52" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S52" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T52" t="s">
-        <v>120</v>
+        <v>268</v>
       </c>
       <c r="U52" t="s">
         <v>35</v>
       </c>
       <c r="V52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X52">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="Y52">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="Z52" t="s">
         <v>35</v>
@@ -5370,28 +5364,28 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B53" t="s">
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E53" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G53" t="s">
-        <v>329</v>
+        <v>153</v>
       </c>
       <c r="H53" t="s">
-        <v>330</v>
+        <v>272</v>
       </c>
       <c r="I53" t="s">
         <v>35</v>
@@ -5409,72 +5403,72 @@
         <v>39</v>
       </c>
       <c r="N53" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O53" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P53" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q53" t="s">
         <v>43</v>
       </c>
       <c r="R53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T53" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="U53" t="s">
         <v>35</v>
       </c>
       <c r="V53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X53">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="Y53">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B54" t="s">
         <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="D54" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E54" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s">
-        <v>337</v>
+        <v>152</v>
       </c>
       <c r="H54" t="s">
-        <v>305</v>
+        <v>153</v>
       </c>
       <c r="I54" t="s">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="J54" t="s">
         <v>36</v>
@@ -5489,152 +5483,152 @@
         <v>39</v>
       </c>
       <c r="N54" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="O54" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P54" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q54" t="s">
         <v>43</v>
       </c>
       <c r="R54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T54" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="U54" t="s">
         <v>35</v>
       </c>
       <c r="V54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X54">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="Y54">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z54" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>344</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>345</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>346</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H55" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="I55" t="s">
-        <v>35</v>
+        <v>263</v>
       </c>
       <c r="J55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K55" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M55" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N55" t="s">
-        <v>35</v>
+        <v>347</v>
       </c>
       <c r="O55" t="s">
-        <v>35</v>
+        <v>348</v>
       </c>
       <c r="P55" t="s">
-        <v>35</v>
+        <v>349</v>
       </c>
       <c r="Q55" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R55" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S55" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T55" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="U55" t="s">
         <v>35</v>
       </c>
       <c r="V55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X55">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="Y55">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="Z55" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B56" t="s">
         <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>297</v>
       </c>
       <c r="D56" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="E56" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="F56" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="H56" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="I56" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="J56" t="s">
         <v>36</v>
@@ -5649,40 +5643,40 @@
         <v>39</v>
       </c>
       <c r="N56" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="O56" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="P56" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="Q56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T56" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U56" t="s">
         <v>35</v>
       </c>
       <c r="V56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X56">
         <v>53</v>
       </c>
       <c r="Y56">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Z56" t="s">
         <v>35</v>
@@ -5690,191 +5684,191 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>347</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="D57" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="E57" t="s">
-        <v>348</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="H57" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I57" t="s">
         <v>35</v>
       </c>
       <c r="J57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M57" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N57" t="s">
-        <v>349</v>
+        <v>35</v>
       </c>
       <c r="O57" t="s">
-        <v>350</v>
+        <v>35</v>
       </c>
       <c r="P57" t="s">
-        <v>351</v>
+        <v>35</v>
       </c>
       <c r="Q57" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="R57" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S57" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T57" t="s">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="U57" t="s">
         <v>35</v>
       </c>
       <c r="V57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X57">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="Y57">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="Z57" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>352</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>353</v>
+        <v>35</v>
       </c>
       <c r="E58" t="s">
-        <v>354</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="H58" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="I58" t="s">
         <v>35</v>
       </c>
       <c r="J58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M58" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N58" t="s">
-        <v>355</v>
+        <v>35</v>
       </c>
       <c r="O58" t="s">
-        <v>356</v>
+        <v>35</v>
       </c>
       <c r="P58" t="s">
-        <v>357</v>
+        <v>35</v>
       </c>
       <c r="Q58" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R58" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S58" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T58" t="s">
-        <v>177</v>
+        <v>268</v>
       </c>
       <c r="U58" t="s">
         <v>35</v>
       </c>
       <c r="V58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X58">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="Y58">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Z58" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B59" t="s">
         <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>297</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
+        <v>357</v>
       </c>
       <c r="E59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F59" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="G59" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="H59" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="I59" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="J59" t="s">
         <v>36</v>
@@ -5889,149 +5883,149 @@
         <v>39</v>
       </c>
       <c r="N59" t="s">
+        <v>359</v>
+      </c>
+      <c r="O59" t="s">
         <v>360</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>361</v>
       </c>
-      <c r="P59" t="s">
-        <v>362</v>
-      </c>
       <c r="Q59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R59" t="s">
         <v>44</v>
       </c>
       <c r="S59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T59" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="U59" t="s">
         <v>35</v>
       </c>
       <c r="V59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X59">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y59">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Z59" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>363</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="D60" t="s">
-        <v>364</v>
+        <v>35</v>
       </c>
       <c r="E60" t="s">
-        <v>365</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>337</v>
+        <v>35</v>
       </c>
       <c r="H60" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I60" t="s">
         <v>35</v>
       </c>
       <c r="J60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L60" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M60" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N60" t="s">
-        <v>366</v>
+        <v>35</v>
       </c>
       <c r="O60" t="s">
-        <v>367</v>
+        <v>35</v>
       </c>
       <c r="P60" t="s">
-        <v>368</v>
+        <v>35</v>
       </c>
       <c r="Q60" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R60" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S60" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T60" t="s">
-        <v>138</v>
+        <v>267</v>
       </c>
       <c r="U60" t="s">
         <v>35</v>
       </c>
       <c r="V60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X60">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="Y60">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z60" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="E61" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G61" t="s">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="H61" t="s">
-        <v>165</v>
+        <v>292</v>
       </c>
       <c r="I61" t="s">
         <v>35</v>
@@ -6049,72 +6043,72 @@
         <v>39</v>
       </c>
       <c r="N61" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="O61" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="P61" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="Q61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R61" t="s">
         <v>43</v>
       </c>
       <c r="S61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T61" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="U61" t="s">
         <v>35</v>
       </c>
       <c r="V61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X61">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="Y61">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="Z61" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B62" t="s">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E62" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F62" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="G62" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="H62" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="I62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J62" t="s">
         <v>36</v>
@@ -6129,72 +6123,72 @@
         <v>39</v>
       </c>
       <c r="N62" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="O62" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="P62" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="Q62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T62" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U62" t="s">
         <v>35</v>
       </c>
       <c r="V62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X62">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="Y62">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Z62" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E63" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F63" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="H63" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="I63" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="J63" t="s">
         <v>36</v>
@@ -6209,392 +6203,392 @@
         <v>39</v>
       </c>
       <c r="N63" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="O63" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="P63" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="Q63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R63" t="s">
         <v>44</v>
       </c>
       <c r="S63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T63" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="U63" t="s">
         <v>35</v>
       </c>
       <c r="V63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X63">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="Y63">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="Z63" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>378</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
+        <v>379</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>380</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>291</v>
       </c>
       <c r="H64" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="I64" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="J64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L64" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M64" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N64" t="s">
-        <v>35</v>
+        <v>381</v>
       </c>
       <c r="O64" t="s">
-        <v>35</v>
+        <v>382</v>
       </c>
       <c r="P64" t="s">
-        <v>35</v>
+        <v>383</v>
       </c>
       <c r="Q64" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R64" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S64" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T64" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="U64" t="s">
         <v>35</v>
       </c>
       <c r="V64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X64">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="Y64">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z64" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>386</v>
+        <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D65" t="s">
-        <v>387</v>
+        <v>35</v>
       </c>
       <c r="E65" t="s">
-        <v>388</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="H65" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="I65" t="s">
         <v>35</v>
       </c>
       <c r="J65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M65" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N65" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="O65" t="s">
-        <v>389</v>
+        <v>35</v>
       </c>
       <c r="P65" t="s">
-        <v>390</v>
+        <v>35</v>
       </c>
       <c r="Q65" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R65" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S65" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T65" t="s">
-        <v>169</v>
+        <v>267</v>
       </c>
       <c r="U65" t="s">
         <v>35</v>
       </c>
       <c r="V65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X65">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="Y65">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="Z65" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>391</v>
+        <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D66" t="s">
-        <v>392</v>
+        <v>35</v>
       </c>
       <c r="E66" t="s">
-        <v>393</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="H66" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" t="s">
+        <v>35</v>
+      </c>
+      <c r="J66" t="s">
+        <v>35</v>
+      </c>
+      <c r="K66" t="s">
+        <v>35</v>
+      </c>
+      <c r="L66" t="s">
+        <v>35</v>
+      </c>
+      <c r="M66" t="s">
+        <v>35</v>
+      </c>
+      <c r="N66" t="s">
+        <v>35</v>
+      </c>
+      <c r="O66" t="s">
+        <v>35</v>
+      </c>
+      <c r="P66" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>35</v>
+      </c>
+      <c r="R66" t="s">
+        <v>35</v>
+      </c>
+      <c r="S66" t="s">
+        <v>35</v>
+      </c>
+      <c r="T66" t="s">
+        <v>268</v>
+      </c>
+      <c r="U66" t="s">
+        <v>35</v>
+      </c>
+      <c r="V66" t="s">
+        <v>43</v>
+      </c>
+      <c r="W66" t="s">
+        <v>43</v>
+      </c>
+      <c r="X66">
+        <v>59</v>
+      </c>
+      <c r="Y66">
         <v>53</v>
       </c>
-      <c r="I66" t="s">
-        <v>52</v>
-      </c>
-      <c r="J66" t="s">
-        <v>36</v>
-      </c>
-      <c r="K66" t="s">
-        <v>37</v>
-      </c>
-      <c r="L66" t="s">
-        <v>38</v>
-      </c>
-      <c r="M66" t="s">
-        <v>39</v>
-      </c>
-      <c r="N66" t="s">
-        <v>394</v>
-      </c>
-      <c r="O66" t="s">
-        <v>395</v>
-      </c>
-      <c r="P66" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>44</v>
-      </c>
-      <c r="R66" t="s">
-        <v>43</v>
-      </c>
-      <c r="S66" t="s">
-        <v>44</v>
-      </c>
-      <c r="T66" t="s">
-        <v>138</v>
-      </c>
-      <c r="U66" t="s">
-        <v>35</v>
-      </c>
-      <c r="V66" t="s">
-        <v>44</v>
-      </c>
-      <c r="W66" t="s">
-        <v>44</v>
-      </c>
-      <c r="X66">
-        <v>94</v>
-      </c>
-      <c r="Y66">
-        <v>82</v>
-      </c>
       <c r="Z66" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>384</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="D67" t="s">
-        <v>35</v>
+        <v>385</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>386</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="H67" t="s">
-        <v>35</v>
+        <v>254</v>
       </c>
       <c r="I67" t="s">
         <v>35</v>
       </c>
       <c r="J67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L67" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M67" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N67" t="s">
-        <v>35</v>
+        <v>387</v>
       </c>
       <c r="O67" t="s">
-        <v>35</v>
+        <v>388</v>
       </c>
       <c r="P67" t="s">
-        <v>35</v>
+        <v>389</v>
       </c>
       <c r="Q67" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R67" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S67" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T67" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="U67" t="s">
         <v>35</v>
       </c>
       <c r="V67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X67">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Y67">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Z67" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B68" t="s">
         <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="D68" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E68" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s">
-        <v>88</v>
+        <v>291</v>
       </c>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="I68" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="J68" t="s">
         <v>36</v>
@@ -6609,13 +6603,13 @@
         <v>39</v>
       </c>
       <c r="N68" t="s">
-        <v>66</v>
+        <v>370</v>
       </c>
       <c r="O68" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="P68" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Q68" t="s">
         <v>44</v>
@@ -6624,28 +6618,188 @@
         <v>43</v>
       </c>
       <c r="S68" t="s">
+        <v>43</v>
+      </c>
+      <c r="T68" t="s">
+        <v>113</v>
+      </c>
+      <c r="U68" t="s">
+        <v>35</v>
+      </c>
+      <c r="V68" t="s">
+        <v>43</v>
+      </c>
+      <c r="W68" t="s">
+        <v>43</v>
+      </c>
+      <c r="X68">
+        <v>137</v>
+      </c>
+      <c r="Y68">
+        <v>117</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69" t="s">
+        <v>35</v>
+      </c>
+      <c r="J69" t="s">
+        <v>35</v>
+      </c>
+      <c r="K69" t="s">
+        <v>35</v>
+      </c>
+      <c r="L69" t="s">
+        <v>35</v>
+      </c>
+      <c r="M69" t="s">
+        <v>35</v>
+      </c>
+      <c r="N69" t="s">
+        <v>35</v>
+      </c>
+      <c r="O69" t="s">
+        <v>35</v>
+      </c>
+      <c r="P69" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>35</v>
+      </c>
+      <c r="R69" t="s">
+        <v>35</v>
+      </c>
+      <c r="S69" t="s">
+        <v>35</v>
+      </c>
+      <c r="T69" t="s">
+        <v>267</v>
+      </c>
+      <c r="U69" t="s">
+        <v>35</v>
+      </c>
+      <c r="V69" t="s">
+        <v>43</v>
+      </c>
+      <c r="W69" t="s">
+        <v>43</v>
+      </c>
+      <c r="X69">
+        <v>129</v>
+      </c>
+      <c r="Y69">
+        <v>123</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>395</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" t="s">
+        <v>116</v>
+      </c>
+      <c r="E70" t="s">
+        <v>396</v>
+      </c>
+      <c r="F70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G70" t="s">
+        <v>152</v>
+      </c>
+      <c r="H70" t="s">
+        <v>153</v>
+      </c>
+      <c r="I70" t="s">
+        <v>35</v>
+      </c>
+      <c r="J70" t="s">
+        <v>36</v>
+      </c>
+      <c r="K70" t="s">
+        <v>37</v>
+      </c>
+      <c r="L70" t="s">
+        <v>38</v>
+      </c>
+      <c r="M70" t="s">
+        <v>39</v>
+      </c>
+      <c r="N70" t="s">
+        <v>397</v>
+      </c>
+      <c r="O70" t="s">
+        <v>398</v>
+      </c>
+      <c r="P70" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q70" t="s">
         <v>44</v>
       </c>
-      <c r="T68" t="s">
-        <v>45</v>
-      </c>
-      <c r="U68" t="s">
-        <v>35</v>
-      </c>
-      <c r="V68" t="s">
-        <v>44</v>
-      </c>
-      <c r="W68" t="s">
-        <v>44</v>
-      </c>
-      <c r="X68">
-        <v>149</v>
-      </c>
-      <c r="Y68">
-        <v>136</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>35</v>
+      <c r="R70" t="s">
+        <v>43</v>
+      </c>
+      <c r="S70" t="s">
+        <v>43</v>
+      </c>
+      <c r="T70" t="s">
+        <v>113</v>
+      </c>
+      <c r="U70" t="s">
+        <v>35</v>
+      </c>
+      <c r="V70" t="s">
+        <v>43</v>
+      </c>
+      <c r="W70" t="s">
+        <v>43</v>
+      </c>
+      <c r="X70">
+        <v>107</v>
+      </c>
+      <c r="Y70">
+        <v>98</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/seeded_units_2026.xlsx
+++ b/seeded_units_2026.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="399">
   <si>
     <t>강의년도</t>
   </si>
@@ -97,112 +97,841 @@
     <t>통신13대대(2026)</t>
   </si>
   <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>충청남도</t>
+  </si>
+  <si>
+    <t>논산시</t>
+  </si>
+  <si>
+    <t>충청남도 논산시 시민로210번길 9</t>
+  </si>
+  <si>
+    <t>본관 5층</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>이민준</t>
+  </si>
+  <si>
+    <t>010-4466-1315</t>
+  </si>
+  <si>
+    <t>officer99@army.mil.kr</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>연병장</t>
+  </si>
+  <si>
+    <t>주차 가능</t>
+  </si>
+  <si>
+    <t>통신13연대(2026)</t>
+  </si>
+  <si>
+    <t>경기도</t>
+  </si>
+  <si>
+    <t>안양시 동안구</t>
+  </si>
+  <si>
+    <t>경기도 안양시 동안구 시민대로 230</t>
+  </si>
+  <si>
+    <t>본관 4층</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>오지훈</t>
+  </si>
+  <si>
+    <t>010-7320-5057</t>
+  </si>
+  <si>
+    <t>officer98@army.mil.kr</t>
+  </si>
+  <si>
+    <t>회의실</t>
+  </si>
+  <si>
+    <t>음향시설 완비</t>
+  </si>
+  <si>
+    <t>통신13여단(2026)</t>
+  </si>
+  <si>
+    <t>서울특별시</t>
+  </si>
+  <si>
+    <t>서초구</t>
+  </si>
+  <si>
+    <t>서울특별시 서초구 서초대로 396</t>
+  </si>
+  <si>
+    <t>본관 1층</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>조도현</t>
+  </si>
+  <si>
+    <t>010-4036-8315</t>
+  </si>
+  <si>
+    <t>officer97@army.mil.kr</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>체육관</t>
+  </si>
+  <si>
+    <t>에어컨 가동</t>
+  </si>
+  <si>
+    <t>추가장소2</t>
+  </si>
+  <si>
+    <t>통신13사단(2026)</t>
+  </si>
+  <si>
+    <t>Marines</t>
+  </si>
+  <si>
+    <t>전라남도</t>
+  </si>
+  <si>
+    <t>담양군</t>
+  </si>
+  <si>
+    <t>전라남도 담양군 담양읍 추성로 1371</t>
+  </si>
+  <si>
+    <t>본관 2층</t>
+  </si>
+  <si>
+    <t>2026-02-27</t>
+  </si>
+  <si>
+    <t>2026-03-01</t>
+  </si>
+  <si>
+    <t>정지훈</t>
+  </si>
+  <si>
+    <t>010-9317-4773</t>
+  </si>
+  <si>
+    <t>officer96@army.mil.kr</t>
+  </si>
+  <si>
+    <t>세미나실</t>
+  </si>
+  <si>
+    <t>통신12교육대(2026)</t>
+  </si>
+  <si>
+    <t>MND</t>
+  </si>
+  <si>
+    <t>아산시</t>
+  </si>
+  <si>
+    <t>충청남도 아산시 번영로 224</t>
+  </si>
+  <si>
+    <t>본관 3층</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>이우진</t>
+  </si>
+  <si>
+    <t>010-3489-4249</t>
+  </si>
+  <si>
+    <t>officer95@army.mil.kr</t>
+  </si>
+  <si>
+    <t>교육센터</t>
+  </si>
+  <si>
+    <t>통신12지원단(2026)</t>
+  </si>
+  <si>
+    <t>송파구</t>
+  </si>
+  <si>
+    <t>서울특별시 송파구 올림픽로 300</t>
+  </si>
+  <si>
+    <t>서서준</t>
+  </si>
+  <si>
+    <t>010-4048-6368</t>
+  </si>
+  <si>
+    <t>officer94@army.mil.kr</t>
+  </si>
+  <si>
+    <t>강의실</t>
+  </si>
+  <si>
+    <t>추가장소3</t>
+  </si>
+  <si>
+    <t>통신12사령부(2026)</t>
+  </si>
+  <si>
+    <t>관악구</t>
+  </si>
+  <si>
+    <t>서울특별시 관악구 관악로 145</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>윤우진</t>
+  </si>
+  <si>
+    <t>010-2129-4252</t>
+  </si>
+  <si>
+    <t>officer93@army.mil.kr</t>
+  </si>
+  <si>
+    <t>훈련장</t>
+  </si>
+  <si>
+    <t>통신12부대(2026)</t>
+  </si>
+  <si>
+    <t>서산시</t>
+  </si>
+  <si>
+    <t>충청남도 서산시 관아문길 1</t>
+  </si>
+  <si>
+    <t>윤지호</t>
+  </si>
+  <si>
+    <t>010-1038-9211</t>
+  </si>
+  <si>
+    <t>officer92@army.mil.kr</t>
+  </si>
+  <si>
+    <t>통신12대대(2026)</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>고양시 덕양구</t>
+  </si>
+  <si>
+    <t>경기도 고양시 덕양구 고양대로 1955</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>신성민</t>
+  </si>
+  <si>
+    <t>010-6624-9572</t>
+  </si>
+  <si>
+    <t>officer91@army.mil.kr</t>
+  </si>
+  <si>
+    <t>프로젝터 있음</t>
+  </si>
+  <si>
+    <t>통신12연대(2026)</t>
+  </si>
+  <si>
+    <t>화성시</t>
+  </si>
+  <si>
+    <t>경기도 화성시 남양읍 시청로 159</t>
+  </si>
+  <si>
+    <t>이성민</t>
+  </si>
+  <si>
+    <t>010-8670-6595</t>
+  </si>
+  <si>
+    <t>officer90@army.mil.kr</t>
+  </si>
+  <si>
+    <t>대강당</t>
+  </si>
+  <si>
+    <t>공병12여단(2026)</t>
+  </si>
+  <si>
+    <t>강원특별자치도</t>
+  </si>
+  <si>
+    <t>삼척시</t>
+  </si>
+  <si>
+    <t>강원특별자치도 삼척시 중앙로 296</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>윤재원</t>
+  </si>
+  <si>
+    <t>010-3556-6787</t>
+  </si>
+  <si>
+    <t>officer89@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병12사단(2026)</t>
+  </si>
+  <si>
+    <t>전북특별자치도</t>
+  </si>
+  <si>
+    <t>익산시</t>
+  </si>
+  <si>
+    <t>전북특별자치도 익산시 인북로 140</t>
+  </si>
+  <si>
+    <t>2026-02-06</t>
+  </si>
+  <si>
+    <t>2026-02-08</t>
+  </si>
+  <si>
+    <t>오우진</t>
+  </si>
+  <si>
+    <t>010-2895-5007</t>
+  </si>
+  <si>
+    <t>officer88@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11교육대(2026)</t>
+  </si>
+  <si>
+    <t>충청북도</t>
+  </si>
+  <si>
+    <t>청주시 흥덕구</t>
+  </si>
+  <si>
+    <t>충청북도 청주시 흥덕구 강내면 청주역로 71</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>정도윤</t>
+  </si>
+  <si>
+    <t>010-2397-3826</t>
+  </si>
+  <si>
+    <t>officer87@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11지원단(2026)</t>
+  </si>
+  <si>
+    <t>강동구</t>
+  </si>
+  <si>
+    <t>서울특별시 강동구 천호대로 1017</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>조시우</t>
+  </si>
+  <si>
+    <t>010-3368-5434</t>
+  </si>
+  <si>
+    <t>officer86@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11사령부(2026)</t>
+  </si>
+  <si>
     <t>AirForce</t>
   </si>
   <si>
-    <t>경기도</t>
-  </si>
-  <si>
-    <t>군포시</t>
-  </si>
-  <si>
-    <t>경기도 군포시 청백리길 6</t>
-  </si>
-  <si>
-    <t>본관 5층</t>
-  </si>
-  <si>
-    <t>2026-01-06</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>권건우</t>
-  </si>
-  <si>
-    <t>010-7621-3071</t>
-  </si>
-  <si>
-    <t>officer99@army.mil.kr</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>교육센터</t>
-  </si>
-  <si>
-    <t>음향시설 완비</t>
-  </si>
-  <si>
-    <t>통신13연대(2026)</t>
-  </si>
-  <si>
-    <t>전라남도</t>
-  </si>
-  <si>
-    <t>담양군</t>
-  </si>
-  <si>
-    <t>전라남도 담양군 담양읍 추성로 1371</t>
-  </si>
-  <si>
-    <t>본관 2층</t>
-  </si>
-  <si>
-    <t>2026-02-05</t>
-  </si>
-  <si>
-    <t>2026-02-07</t>
-  </si>
-  <si>
-    <t>이도윤</t>
-  </si>
-  <si>
-    <t>010-5052-8491</t>
-  </si>
-  <si>
-    <t>officer98@army.mil.kr</t>
-  </si>
-  <si>
-    <t>체육관</t>
-  </si>
-  <si>
-    <t>통신13여단(2026)</t>
-  </si>
-  <si>
-    <t>Marines</t>
+    <t>대전광역시</t>
+  </si>
+  <si>
+    <t>동구</t>
+  </si>
+  <si>
+    <t>대전광역시 동구 동대전로 133</t>
+  </si>
+  <si>
+    <t>2026-02-13</t>
+  </si>
+  <si>
+    <t>2026-02-15</t>
+  </si>
+  <si>
+    <t>장예준</t>
+  </si>
+  <si>
+    <t>010-3412-9990</t>
+  </si>
+  <si>
+    <t>officer85@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11부대(2026)</t>
+  </si>
+  <si>
+    <t>남양주시</t>
+  </si>
+  <si>
+    <t>경기도 남양주시 경춘로 1037</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>김예준</t>
+  </si>
+  <si>
+    <t>010-2441-8343</t>
+  </si>
+  <si>
+    <t>officer84@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11대대(2026)</t>
+  </si>
+  <si>
+    <t>군산시</t>
+  </si>
+  <si>
+    <t>전북특별자치도 군산시 시청로 17</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
+  </si>
+  <si>
+    <t>2026-02-14</t>
+  </si>
+  <si>
+    <t>신시우</t>
+  </si>
+  <si>
+    <t>010-3836-9935</t>
+  </si>
+  <si>
+    <t>officer83@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11연대(2026)</t>
+  </si>
+  <si>
+    <t>영등포구</t>
+  </si>
+  <si>
+    <t>서울특별시 영등포구 여의대로 108</t>
+  </si>
+  <si>
+    <t>임시우</t>
+  </si>
+  <si>
+    <t>010-6157-2150</t>
+  </si>
+  <si>
+    <t>officer82@army.mil.kr</t>
+  </si>
+  <si>
+    <t>다목적실</t>
+  </si>
+  <si>
+    <t>공병11여단(2026)</t>
+  </si>
+  <si>
+    <t>경상북도</t>
+  </si>
+  <si>
+    <t>영주시</t>
+  </si>
+  <si>
+    <t>경상북도 영주시 시청로 1</t>
+  </si>
+  <si>
+    <t>이시우</t>
+  </si>
+  <si>
+    <t>010-3197-5170</t>
+  </si>
+  <si>
+    <t>officer81@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11사단(2026)</t>
+  </si>
+  <si>
+    <t>광주광역시</t>
+  </si>
+  <si>
+    <t>북구</t>
+  </si>
+  <si>
+    <t>광주광역시 북구 용봉로 77</t>
+  </si>
+  <si>
+    <t>이하준</t>
+  </si>
+  <si>
+    <t>010-7164-1517</t>
+  </si>
+  <si>
+    <t>officer80@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10교육대(2026)</t>
+  </si>
+  <si>
+    <t>계룡시</t>
+  </si>
+  <si>
+    <t>충청남도 계룡시 장안로 46</t>
+  </si>
+  <si>
+    <t>권도현</t>
+  </si>
+  <si>
+    <t>010-7720-4292</t>
+  </si>
+  <si>
+    <t>officer79@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10지원단(2026)</t>
+  </si>
+  <si>
+    <t>안동시</t>
+  </si>
+  <si>
+    <t>경상북도 안동시 퇴계로 115</t>
+  </si>
+  <si>
+    <t>한도현</t>
+  </si>
+  <si>
+    <t>010-6992-8925</t>
+  </si>
+  <si>
+    <t>officer78@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10사령부(2026)</t>
+  </si>
+  <si>
+    <t>횡성군</t>
+  </si>
+  <si>
+    <t>강원특별자치도 횡성군 횡성로 111</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>서민준</t>
+  </si>
+  <si>
+    <t>010-7675-3713</t>
+  </si>
+  <si>
+    <t>officer77@army.mil.kr</t>
+  </si>
+  <si>
+    <t>교육관</t>
+  </si>
+  <si>
+    <t>포병10부대(2026)</t>
+  </si>
+  <si>
+    <t>성북구</t>
+  </si>
+  <si>
+    <t>서울특별시 성북구 성북로 76</t>
+  </si>
+  <si>
+    <t>박예준</t>
+  </si>
+  <si>
+    <t>010-9260-9918</t>
+  </si>
+  <si>
+    <t>officer76@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10대대(2026)</t>
+  </si>
+  <si>
+    <t>광주광역시 동구 서남로 1</t>
+  </si>
+  <si>
+    <t>2026-02-16</t>
+  </si>
+  <si>
+    <t>최현우</t>
+  </si>
+  <si>
+    <t>010-9255-8502</t>
+  </si>
+  <si>
+    <t>officer75@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10연대(2026)</t>
+  </si>
+  <si>
+    <t>음성군</t>
+  </si>
+  <si>
+    <t>충청북도 음성군 음성읍 수정로 38</t>
+  </si>
+  <si>
+    <t>2026-02-26</t>
+  </si>
+  <si>
+    <t>2026-02-28</t>
+  </si>
+  <si>
+    <t>김도현</t>
+  </si>
+  <si>
+    <t>010-1951-5585</t>
+  </si>
+  <si>
+    <t>officer74@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10여단(2026)</t>
+  </si>
+  <si>
+    <t>종로구</t>
+  </si>
+  <si>
+    <t>서울특별시 종로구 세종대로 209</t>
+  </si>
+  <si>
+    <t>서도윤</t>
+  </si>
+  <si>
+    <t>010-3472-9284</t>
+  </si>
+  <si>
+    <t>officer73@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10사단(2026)</t>
+  </si>
+  <si>
+    <t>제천시</t>
+  </si>
+  <si>
+    <t>충청북도 제천시 내토로 295</t>
+  </si>
+  <si>
+    <t>임도윤</t>
+  </si>
+  <si>
+    <t>010-3971-1564</t>
+  </si>
+  <si>
+    <t>officer72@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병9교육대(2026)</t>
   </si>
   <si>
     <t>대구광역시</t>
   </si>
   <si>
-    <t>달서구</t>
-  </si>
-  <si>
-    <t>대구광역시 달서구 학산로 30</t>
-  </si>
-  <si>
-    <t>본관 1층</t>
+    <t>중구</t>
+  </si>
+  <si>
+    <t>대구광역시 중구 공평로 88</t>
+  </si>
+  <si>
+    <t>장우진</t>
+  </si>
+  <si>
+    <t>010-8482-7235</t>
+  </si>
+  <si>
+    <t>officer71@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병9지원단(2026)</t>
+  </si>
+  <si>
+    <t>정읍시</t>
+  </si>
+  <si>
+    <t>전북특별자치도 정읍시 충정로 379</t>
+  </si>
+  <si>
+    <t>최지훈</t>
+  </si>
+  <si>
+    <t>010-3621-5709</t>
+  </si>
+  <si>
+    <t>officer70@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9사령부(2026)</t>
+  </si>
+  <si>
+    <t>서구</t>
+  </si>
+  <si>
+    <t>대전광역시 서구 둔산로 100</t>
+  </si>
+  <si>
+    <t>010-9704-9972</t>
+  </si>
+  <si>
+    <t>officer69@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9부대(2026)</t>
+  </si>
+  <si>
+    <t>수원시 영통구</t>
+  </si>
+  <si>
+    <t>경기도 수원시 영통구 광교로 156</t>
+  </si>
+  <si>
+    <t>오하준</t>
+  </si>
+  <si>
+    <t>010-5783-2269</t>
+  </si>
+  <si>
+    <t>officer68@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9대대(2026)</t>
+  </si>
+  <si>
+    <t>인천광역시</t>
+  </si>
+  <si>
+    <t>인천광역시 중구 신포로27번길 80</t>
+  </si>
+  <si>
+    <t>권주원</t>
+  </si>
+  <si>
+    <t>010-4715-7575</t>
+  </si>
+  <si>
+    <t>officer67@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9연대(2026)</t>
+  </si>
+  <si>
+    <t>은평구</t>
+  </si>
+  <si>
+    <t>서울특별시 은평구 은평로 195</t>
+  </si>
+  <si>
+    <t>조성민</t>
+  </si>
+  <si>
+    <t>010-2669-6820</t>
+  </si>
+  <si>
+    <t>officer66@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9여단(2026)</t>
+  </si>
+  <si>
+    <t>대전광역시 중구 중앙로 101</t>
   </si>
   <si>
     <t>2026-02-19</t>
@@ -211,58 +940,157 @@
     <t>2026-02-21</t>
   </si>
   <si>
-    <t>황현우</t>
-  </si>
-  <si>
-    <t>010-9501-6451</t>
-  </si>
-  <si>
-    <t>officer97@army.mil.kr</t>
-  </si>
-  <si>
-    <t>대강당</t>
-  </si>
-  <si>
-    <t>통신13사단(2026)</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>전북특별자치도</t>
-  </si>
-  <si>
-    <t>익산시</t>
-  </si>
-  <si>
-    <t>전북특별자치도 익산시 인북로 140</t>
-  </si>
-  <si>
-    <t>본관 4층</t>
-  </si>
-  <si>
-    <t>2026-02-26</t>
-  </si>
-  <si>
-    <t>2026-02-28</t>
+    <t>010-6928-8403</t>
+  </si>
+  <si>
+    <t>officer65@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9사단(2026)</t>
+  </si>
+  <si>
+    <t>시흥시</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 시청로 20</t>
+  </si>
+  <si>
+    <t>김도윤</t>
+  </si>
+  <si>
+    <t>010-6868-9594</t>
+  </si>
+  <si>
+    <t>officer64@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화8교육대(2026)</t>
+  </si>
+  <si>
+    <t>경상남도</t>
+  </si>
+  <si>
+    <t>거제시</t>
+  </si>
+  <si>
+    <t>경상남도 거제시 계룡로 125</t>
   </si>
   <si>
     <t>박태현</t>
   </si>
   <si>
-    <t>010-3805-2523</t>
-  </si>
-  <si>
-    <t>officer96@army.mil.kr</t>
-  </si>
-  <si>
-    <t>강의실</t>
-  </si>
-  <si>
-    <t>통신12교육대(2026)</t>
-  </si>
-  <si>
-    <t>충청북도</t>
+    <t>010-8623-5975</t>
+  </si>
+  <si>
+    <t>officer63@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화8지원단(2026)</t>
+  </si>
+  <si>
+    <t>동해시</t>
+  </si>
+  <si>
+    <t>강원특별자치도 동해시 천곡로 77</t>
+  </si>
+  <si>
+    <t>정하준</t>
+  </si>
+  <si>
+    <t>010-6511-4045</t>
+  </si>
+  <si>
+    <t>officer62@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화8사령부(2026)</t>
+  </si>
+  <si>
+    <t>김천시</t>
+  </si>
+  <si>
+    <t>경상북도 김천시 시청로 20</t>
+  </si>
+  <si>
+    <t>010-9410-7178</t>
+  </si>
+  <si>
+    <t>officer61@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화8부대(2026)</t>
+  </si>
+  <si>
+    <t>구미시</t>
+  </si>
+  <si>
+    <t>경상북도 구미시 송정대로 55</t>
+  </si>
+  <si>
+    <t>2026-03-02</t>
+  </si>
+  <si>
+    <t>임지훈</t>
+  </si>
+  <si>
+    <t>010-1007-8633</t>
+  </si>
+  <si>
+    <t>officer60@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전8대대(2026)</t>
+  </si>
+  <si>
+    <t>강남구</t>
+  </si>
+  <si>
+    <t>서울특별시 강남구 테헤란로 152</t>
+  </si>
+  <si>
+    <t>신지호</t>
+  </si>
+  <si>
+    <t>010-9930-7952</t>
+  </si>
+  <si>
+    <t>officer59@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전8연대(2026)</t>
+  </si>
+  <si>
+    <t>남동구</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 예술로 198</t>
+  </si>
+  <si>
+    <t>서성민</t>
+  </si>
+  <si>
+    <t>010-8122-8961</t>
+  </si>
+  <si>
+    <t>officer58@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전8여단(2026)</t>
+  </si>
+  <si>
+    <t>용인시 처인구</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 중부대로 1199</t>
+  </si>
+  <si>
+    <t>010-5860-9856</t>
+  </si>
+  <si>
+    <t>officer57@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전8사단(2026)</t>
   </si>
   <si>
     <t>진천군</t>
@@ -271,223 +1099,16 @@
     <t>충청북도 진천군 진천읍 중앙서로 11</t>
   </si>
   <si>
-    <t>2026-03-02</t>
-  </si>
-  <si>
-    <t>장성민</t>
-  </si>
-  <si>
-    <t>010-9915-6980</t>
-  </si>
-  <si>
-    <t>officer95@army.mil.kr</t>
-  </si>
-  <si>
-    <t>프로젝터 있음</t>
-  </si>
-  <si>
-    <t>통신12지원단(2026)</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>경상북도</t>
-  </si>
-  <si>
-    <t>영주시</t>
-  </si>
-  <si>
-    <t>경상북도 영주시 시청로 1</t>
-  </si>
-  <si>
-    <t>2026-02-27</t>
-  </si>
-  <si>
-    <t>2026-03-01</t>
-  </si>
-  <si>
-    <t>임서준</t>
-  </si>
-  <si>
-    <t>010-9636-5159</t>
-  </si>
-  <si>
-    <t>officer94@army.mil.kr</t>
-  </si>
-  <si>
-    <t>통신12사령부(2026)</t>
-  </si>
-  <si>
-    <t>경주시</t>
-  </si>
-  <si>
-    <t>경상북도 경주시 양정로 260</t>
-  </si>
-  <si>
-    <t>2026-02-14</t>
-  </si>
-  <si>
-    <t>2026-02-16</t>
-  </si>
-  <si>
-    <t>강태현</t>
-  </si>
-  <si>
-    <t>010-6261-4413</t>
-  </si>
-  <si>
-    <t>officer93@army.mil.kr</t>
-  </si>
-  <si>
-    <t>훈련장</t>
-  </si>
-  <si>
-    <t>주차 가능</t>
-  </si>
-  <si>
-    <t>통신12부대(2026)</t>
-  </si>
-  <si>
-    <t>전주시 덕진구</t>
-  </si>
-  <si>
-    <t>전북특별자치도 전주시 덕진구 건산로 251</t>
-  </si>
-  <si>
-    <t>신도현</t>
-  </si>
-  <si>
-    <t>010-9209-3771</t>
-  </si>
-  <si>
-    <t>officer92@army.mil.kr</t>
-  </si>
-  <si>
-    <t>다목적실</t>
-  </si>
-  <si>
-    <t>에어컨 가동</t>
-  </si>
-  <si>
-    <t>통신12대대(2026)</t>
-  </si>
-  <si>
-    <t>경상남도</t>
-  </si>
-  <si>
-    <t>김해시</t>
-  </si>
-  <si>
-    <t>경상남도 김해시 김해대로 2401</t>
-  </si>
-  <si>
-    <t>본관 3층</t>
-  </si>
-  <si>
-    <t>2026-02-23</t>
-  </si>
-  <si>
-    <t>조시우</t>
-  </si>
-  <si>
-    <t>010-8509-7910</t>
-  </si>
-  <si>
-    <t>officer91@army.mil.kr</t>
-  </si>
-  <si>
-    <t>통신12연대(2026)</t>
-  </si>
-  <si>
-    <t>충청남도</t>
-  </si>
-  <si>
-    <t>서산시</t>
-  </si>
-  <si>
-    <t>충청남도 서산시 관아문길 1</t>
-  </si>
-  <si>
-    <t>2026-01-26</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>조건우</t>
-  </si>
-  <si>
-    <t>010-4837-6969</t>
-  </si>
-  <si>
-    <t>officer90@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병12여단(2026)</t>
-  </si>
-  <si>
-    <t>중구</t>
-  </si>
-  <si>
-    <t>대구광역시 중구 공평로 88</t>
-  </si>
-  <si>
-    <t>2026-02-12</t>
-  </si>
-  <si>
-    <t>강건우</t>
-  </si>
-  <si>
-    <t>010-8650-3327</t>
-  </si>
-  <si>
-    <t>officer89@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병12사단(2026)</t>
-  </si>
-  <si>
-    <t>대전광역시</t>
-  </si>
-  <si>
-    <t>서구</t>
-  </si>
-  <si>
-    <t>대전광역시 서구 둔산로 100</t>
-  </si>
-  <si>
-    <t>권성민</t>
-  </si>
-  <si>
-    <t>010-5163-5065</t>
-  </si>
-  <si>
-    <t>officer88@army.mil.kr</t>
-  </si>
-  <si>
-    <t>연병장</t>
-  </si>
-  <si>
-    <t>공병11교육대(2026)</t>
-  </si>
-  <si>
-    <t>진주시</t>
-  </si>
-  <si>
-    <t>경상남도 진주시 동진로 155</t>
-  </si>
-  <si>
-    <t>박예준</t>
-  </si>
-  <si>
-    <t>010-2554-4492</t>
-  </si>
-  <si>
-    <t>officer87@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11지원단(2026)</t>
+    <t>장민준</t>
+  </si>
+  <si>
+    <t>010-2572-2032</t>
+  </si>
+  <si>
+    <t>officer56@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7교육대(2026)</t>
   </si>
   <si>
     <t>창원시 성산구</t>
@@ -496,664 +1117,43 @@
     <t>경상남도 창원시 성산구 중앙대로 151</t>
   </si>
   <si>
-    <t>2026-02-13</t>
-  </si>
-  <si>
-    <t>2026-02-15</t>
-  </si>
-  <si>
-    <t>조민준</t>
-  </si>
-  <si>
-    <t>010-1248-5334</t>
-  </si>
-  <si>
-    <t>officer86@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11사령부(2026)</t>
-  </si>
-  <si>
-    <t>양산시</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 중앙로 39</t>
-  </si>
-  <si>
-    <t>한하준</t>
-  </si>
-  <si>
-    <t>010-4318-3136</t>
-  </si>
-  <si>
-    <t>officer85@army.mil.kr</t>
-  </si>
-  <si>
-    <t>세미나실</t>
-  </si>
-  <si>
-    <t>공병11부대(2026)</t>
-  </si>
-  <si>
-    <t>광주광역시</t>
-  </si>
-  <si>
-    <t>북구</t>
-  </si>
-  <si>
-    <t>광주광역시 북구 용봉로 77</t>
-  </si>
-  <si>
-    <t>010-8650-9147</t>
-  </si>
-  <si>
-    <t>officer84@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11대대(2026)</t>
-  </si>
-  <si>
-    <t>목포시</t>
-  </si>
-  <si>
-    <t>전라남도 목포시 평화로 29</t>
-  </si>
-  <si>
-    <t>한건우</t>
-  </si>
-  <si>
-    <t>010-6009-5710</t>
-  </si>
-  <si>
-    <t>officer83@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11연대(2026)</t>
-  </si>
-  <si>
-    <t>안동시</t>
-  </si>
-  <si>
-    <t>경상북도 안동시 퇴계로 115</t>
-  </si>
-  <si>
-    <t>신현우</t>
-  </si>
-  <si>
-    <t>010-7755-1783</t>
-  </si>
-  <si>
-    <t>officer82@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11여단(2026)</t>
-  </si>
-  <si>
-    <t>MND</t>
-  </si>
-  <si>
-    <t>괴산군</t>
-  </si>
-  <si>
-    <t>충청북도 괴산군 괴산읍 임꺽정로 90</t>
-  </si>
-  <si>
-    <t>장현우</t>
-  </si>
-  <si>
-    <t>010-4498-6918</t>
-  </si>
-  <si>
-    <t>officer81@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11사단(2026)</t>
-  </si>
-  <si>
-    <t>청주시 흥덕구</t>
-  </si>
-  <si>
-    <t>충청북도 청주시 흥덕구 강내면 청주역로 71</t>
-  </si>
-  <si>
-    <t>신재원</t>
-  </si>
-  <si>
-    <t>010-4876-5090</t>
-  </si>
-  <si>
-    <t>officer80@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10교육대(2026)</t>
-  </si>
-  <si>
-    <t>구미시</t>
-  </si>
-  <si>
-    <t>경상북도 구미시 송정대로 55</t>
-  </si>
-  <si>
-    <t>한서준</t>
-  </si>
-  <si>
-    <t>010-5493-1225</t>
-  </si>
-  <si>
-    <t>officer79@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10지원단(2026)</t>
-  </si>
-  <si>
-    <t>부천시</t>
-  </si>
-  <si>
-    <t>경기도 부천시 길주로 210</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>신시우</t>
-  </si>
-  <si>
-    <t>010-8693-8722</t>
-  </si>
-  <si>
-    <t>officer78@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10사령부(2026)</t>
-  </si>
-  <si>
-    <t>의정부시</t>
-  </si>
-  <si>
-    <t>경기도 의정부시 청사로 1</t>
-  </si>
-  <si>
-    <t>2026-01-19</t>
-  </si>
-  <si>
-    <t>2026-01-21</t>
+    <t>임주원</t>
+  </si>
+  <si>
+    <t>010-2562-8358</t>
+  </si>
+  <si>
+    <t>officer55@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7지원단(2026)</t>
+  </si>
+  <si>
+    <t>전주시 완산구</t>
+  </si>
+  <si>
+    <t>전북특별자치도 전주시 완산구 효자로 225</t>
+  </si>
+  <si>
+    <t>010-5260-5676</t>
+  </si>
+  <si>
+    <t>officer54@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7사령부(2026)</t>
+  </si>
+  <si>
+    <t>안산시 단원구</t>
+  </si>
+  <si>
+    <t>경기도 안산시 단원구 광덕대로 142</t>
   </si>
   <si>
     <t>정우진</t>
   </si>
   <si>
-    <t>010-7969-7359</t>
-  </si>
-  <si>
-    <t>officer77@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10부대(2026)</t>
-  </si>
-  <si>
-    <t>서울특별시</t>
-  </si>
-  <si>
-    <t>동대문구</t>
-  </si>
-  <si>
-    <t>서울특별시 동대문구 천호대로 145</t>
-  </si>
-  <si>
-    <t>김성민</t>
-  </si>
-  <si>
-    <t>010-6693-5224</t>
-  </si>
-  <si>
-    <t>officer76@army.mil.kr</t>
-  </si>
-  <si>
-    <t>추가장소2</t>
-  </si>
-  <si>
-    <t>포병10대대(2026)</t>
-  </si>
-  <si>
-    <t>고양시 덕양구</t>
-  </si>
-  <si>
-    <t>경기도 고양시 덕양구 고양대로 1955</t>
-  </si>
-  <si>
-    <t>2026-01-27</t>
-  </si>
-  <si>
-    <t>2026-01-30</t>
-  </si>
-  <si>
-    <t>신우진</t>
-  </si>
-  <si>
-    <t>010-8670-7758</t>
-  </si>
-  <si>
-    <t>officer75@army.mil.kr</t>
-  </si>
-  <si>
-    <t>회의실</t>
-  </si>
-  <si>
-    <t>포병10연대(2026)</t>
-  </si>
-  <si>
-    <t>대덕구</t>
-  </si>
-  <si>
-    <t>대전광역시 대덕구 대전로1033번길 20</t>
-  </si>
-  <si>
-    <t>신태현</t>
-  </si>
-  <si>
-    <t>010-2082-9028</t>
-  </si>
-  <si>
-    <t>officer74@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10여단(2026)</t>
-  </si>
-  <si>
-    <t>인천광역시</t>
-  </si>
-  <si>
-    <t>동구</t>
-  </si>
-  <si>
-    <t>인천광역시 동구 샛골로 130</t>
-  </si>
-  <si>
-    <t>임민준</t>
-  </si>
-  <si>
-    <t>010-5803-6449</t>
-  </si>
-  <si>
-    <t>officer73@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10사단(2026)</t>
-  </si>
-  <si>
-    <t>광주시</t>
-  </si>
-  <si>
-    <t>경기도 광주시 파발로 155</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>서현우</t>
-  </si>
-  <si>
-    <t>010-5633-2958</t>
-  </si>
-  <si>
-    <t>officer72@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병9교육대(2026)</t>
-  </si>
-  <si>
-    <t>논산시</t>
-  </si>
-  <si>
-    <t>충청남도 논산시 시민로210번길 9</t>
-  </si>
-  <si>
-    <t>박서준</t>
-  </si>
-  <si>
-    <t>010-8196-6037</t>
-  </si>
-  <si>
-    <t>officer71@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병9지원단(2026)</t>
-  </si>
-  <si>
-    <t>수성구</t>
-  </si>
-  <si>
-    <t>대구광역시 수성구 동대구로 364</t>
-  </si>
-  <si>
-    <t>010-9172-9932</t>
-  </si>
-  <si>
-    <t>officer70@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9사령부(2026)</t>
-  </si>
-  <si>
-    <t>정읍시</t>
-  </si>
-  <si>
-    <t>전북특별자치도 정읍시 충정로 379</t>
-  </si>
-  <si>
-    <t>황민준</t>
-  </si>
-  <si>
-    <t>010-7163-1955</t>
-  </si>
-  <si>
-    <t>officer69@army.mil.kr</t>
-  </si>
-  <si>
-    <t>교육관</t>
-  </si>
-  <si>
-    <t>기계화9부대(2026)</t>
-  </si>
-  <si>
-    <t>성북구</t>
-  </si>
-  <si>
-    <t>서울특별시 성북구 성북로 76</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>강예준</t>
-  </si>
-  <si>
-    <t>010-1416-3613</t>
-  </si>
-  <si>
-    <t>officer68@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9대대(2026)</t>
-  </si>
-  <si>
-    <t>미추홀구</t>
-  </si>
-  <si>
-    <t>인천광역시 미추홀구 석정로 229</t>
-  </si>
-  <si>
-    <t>2026-01-20</t>
-  </si>
-  <si>
-    <t>2026-01-22</t>
-  </si>
-  <si>
-    <t>박우진</t>
-  </si>
-  <si>
-    <t>010-2425-8769</t>
-  </si>
-  <si>
-    <t>officer67@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9연대(2026)</t>
-  </si>
-  <si>
-    <t>고양시 일산동구</t>
-  </si>
-  <si>
-    <t>경기도 고양시 일산동구 중앙로 1286</t>
-  </si>
-  <si>
-    <t>강서준</t>
-  </si>
-  <si>
-    <t>010-5001-3897</t>
-  </si>
-  <si>
-    <t>officer66@army.mil.kr</t>
-  </si>
-  <si>
-    <t>추가장소3</t>
-  </si>
-  <si>
-    <t>기계화9여단(2026)</t>
-  </si>
-  <si>
-    <t>유성구</t>
-  </si>
-  <si>
-    <t>대전광역시 유성구 대학로 99</t>
-  </si>
-  <si>
-    <t>서우진</t>
-  </si>
-  <si>
-    <t>010-5557-5428</t>
-  </si>
-  <si>
-    <t>officer65@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9사단(2026)</t>
-  </si>
-  <si>
-    <t>김천시</t>
-  </si>
-  <si>
-    <t>경상북도 김천시 시청로 20</t>
-  </si>
-  <si>
-    <t>정민준</t>
-  </si>
-  <si>
-    <t>010-7763-6026</t>
-  </si>
-  <si>
-    <t>officer64@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화8교육대(2026)</t>
-  </si>
-  <si>
-    <t>계룡시</t>
-  </si>
-  <si>
-    <t>충청남도 계룡시 장안로 46</t>
-  </si>
-  <si>
-    <t>2026-01-13</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>010-5079-4102</t>
-  </si>
-  <si>
-    <t>officer63@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화8지원단(2026)</t>
-  </si>
-  <si>
-    <t>음성군</t>
-  </si>
-  <si>
-    <t>충청북도 음성군 음성읍 수정로 38</t>
-  </si>
-  <si>
-    <t>2026-02-06</t>
-  </si>
-  <si>
-    <t>2026-02-08</t>
-  </si>
-  <si>
-    <t>황하준</t>
-  </si>
-  <si>
-    <t>010-5200-6239</t>
-  </si>
-  <si>
-    <t>officer62@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화8사령부(2026)</t>
-  </si>
-  <si>
-    <t>종로구</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 세종대로 209</t>
-  </si>
-  <si>
-    <t>강도윤</t>
-  </si>
-  <si>
-    <t>010-9687-9837</t>
-  </si>
-  <si>
-    <t>officer61@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화8부대(2026)</t>
-  </si>
-  <si>
-    <t>부평구</t>
-  </si>
-  <si>
-    <t>인천광역시 부평구 부평대로 168</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>장태현</t>
-  </si>
-  <si>
-    <t>010-7825-6730</t>
-  </si>
-  <si>
-    <t>officer60@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전8대대(2026)</t>
-  </si>
-  <si>
-    <t>공주시</t>
-  </si>
-  <si>
-    <t>충청남도 공주시 봉황로 1</t>
-  </si>
-  <si>
-    <t>권도현</t>
-  </si>
-  <si>
-    <t>010-9805-7499</t>
-  </si>
-  <si>
-    <t>officer59@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전8연대(2026)</t>
-  </si>
-  <si>
-    <t>관악구</t>
-  </si>
-  <si>
-    <t>서울특별시 관악구 관악로 145</t>
-  </si>
-  <si>
-    <t>권재원</t>
-  </si>
-  <si>
-    <t>010-5426-7636</t>
-  </si>
-  <si>
-    <t>officer58@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전8여단(2026)</t>
-  </si>
-  <si>
-    <t>용산구</t>
-  </si>
-  <si>
-    <t>서울특별시 용산구 한강대로 405</t>
-  </si>
-  <si>
-    <t>010-1924-6613</t>
-  </si>
-  <si>
-    <t>officer57@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전8사단(2026)</t>
-  </si>
-  <si>
-    <t>대전광역시 동구 동대전로 133</t>
-  </si>
-  <si>
-    <t>010-6580-1801</t>
-  </si>
-  <si>
-    <t>officer56@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7교육대(2026)</t>
-  </si>
-  <si>
-    <t>여수시</t>
-  </si>
-  <si>
-    <t>전라남도 여수시 시청로 1</t>
-  </si>
-  <si>
-    <t>강하준</t>
-  </si>
-  <si>
-    <t>010-6293-2140</t>
-  </si>
-  <si>
-    <t>officer55@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7지원단(2026)</t>
-  </si>
-  <si>
-    <t>이천시</t>
-  </si>
-  <si>
-    <t>경기도 이천시 부악로 40</t>
-  </si>
-  <si>
-    <t>장시우</t>
-  </si>
-  <si>
-    <t>010-1833-7667</t>
-  </si>
-  <si>
-    <t>officer54@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7사령부(2026)</t>
-  </si>
-  <si>
-    <t>시흥시</t>
-  </si>
-  <si>
-    <t>경기도 시흥시 시청로 20</t>
-  </si>
-  <si>
-    <t>최태현</t>
-  </si>
-  <si>
-    <t>010-7276-2017</t>
+    <t>010-1208-4657</t>
   </si>
   <si>
     <t>officer53@army.mil.kr</t>
@@ -1162,13 +1162,16 @@
     <t>특전7부대(2026)</t>
   </si>
   <si>
-    <t>청주시 상당구</t>
-  </si>
-  <si>
-    <t>충청북도 청주시 상당구 상당로 155</t>
-  </si>
-  <si>
-    <t>010-4711-4543</t>
+    <t>평택시</t>
+  </si>
+  <si>
+    <t>경기도 평택시 평택로 51</t>
+  </si>
+  <si>
+    <t>신건우</t>
+  </si>
+  <si>
+    <t>010-9485-9045</t>
   </si>
   <si>
     <t>officer52@army.mil.kr</t>
@@ -1177,34 +1180,31 @@
     <t>특전7대대(2026)</t>
   </si>
   <si>
+    <t>속초시</t>
+  </si>
+  <si>
+    <t>강원특별자치도 속초시 중앙로 183</t>
+  </si>
+  <si>
+    <t>김주원</t>
+  </si>
+  <si>
+    <t>010-7124-3748</t>
+  </si>
+  <si>
+    <t>officer51@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7연대(2026)</t>
+  </si>
+  <si>
     <t>남원시</t>
   </si>
   <si>
     <t>전북특별자치도 남원시 시청로 60</t>
   </si>
   <si>
-    <t>최하준</t>
-  </si>
-  <si>
-    <t>010-8860-9454</t>
-  </si>
-  <si>
-    <t>officer51@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7연대(2026)</t>
-  </si>
-  <si>
-    <t>보령시</t>
-  </si>
-  <si>
-    <t>충청남도 보령시 성주산로 77</t>
-  </si>
-  <si>
-    <t>김현우</t>
-  </si>
-  <si>
-    <t>010-6988-6983</t>
+    <t>010-9513-6391</t>
   </si>
   <si>
     <t>officer50@army.mil.kr</t>
@@ -1588,7 +1588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z66"/>
+  <dimension ref="A1:Z71"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1732,60 +1732,60 @@
         <v>43</v>
       </c>
       <c r="R7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" t="s">
         <v>44</v>
       </c>
-      <c r="S7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7">
+        <v>150</v>
+      </c>
+      <c r="Y7">
+        <v>126</v>
+      </c>
+      <c r="Z7" t="s">
         <v>45</v>
-      </c>
-      <c r="U7" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X7">
-        <v>101</v>
-      </c>
-      <c r="Y7">
-        <v>83</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>52</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>53</v>
-      </c>
-      <c r="I8" t="s">
-        <v>35</v>
       </c>
       <c r="J8" t="s">
         <v>36</v>
@@ -1809,10 +1809,10 @@
         <v>56</v>
       </c>
       <c r="Q8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S8" t="s">
         <v>43</v>
@@ -1830,21 +1830,21 @@
         <v>43</v>
       </c>
       <c r="X8">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="Y8">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="Z8" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
@@ -1865,7 +1865,7 @@
         <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
         <v>36</v>
@@ -1880,25 +1880,25 @@
         <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R9" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="S9" t="s">
         <v>43</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U9" t="s">
         <v>35</v>
@@ -1910,90 +1910,90 @@
         <v>43</v>
       </c>
       <c r="X9">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="Y9">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="Z9" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="U10" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10">
+        <v>96</v>
+      </c>
+      <c r="Y10">
         <v>77</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O10" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>44</v>
-      </c>
-      <c r="R10" t="s">
-        <v>43</v>
-      </c>
-      <c r="S10" t="s">
-        <v>43</v>
-      </c>
-      <c r="T10" t="s">
-        <v>81</v>
-      </c>
-      <c r="U10" t="s">
-        <v>35</v>
-      </c>
-      <c r="V10" t="s">
-        <v>43</v>
-      </c>
-      <c r="W10" t="s">
-        <v>43</v>
-      </c>
-      <c r="X10">
-        <v>114</v>
-      </c>
-      <c r="Y10">
-        <v>104</v>
       </c>
       <c r="Z10" t="s">
         <v>35</v>
@@ -2001,28 +2001,28 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -2040,25 +2040,25 @@
         <v>39</v>
       </c>
       <c r="N11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R11" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="S11" t="s">
         <v>43</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="U11" t="s">
         <v>35</v>
@@ -2070,39 +2070,39 @@
         <v>43</v>
       </c>
       <c r="X11">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Y11">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="Z11" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
         <v>91</v>
       </c>
-      <c r="B12" t="s">
+      <c r="H12" t="s">
         <v>92</v>
-      </c>
-      <c r="C12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" t="s">
-        <v>97</v>
       </c>
       <c r="I12" t="s">
         <v>35</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="O12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q12" t="s">
         <v>43</v>
       </c>
       <c r="R12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S12" t="s">
         <v>43</v>
       </c>
       <c r="T12" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="U12" t="s">
         <v>35</v>
@@ -2150,42 +2150,42 @@
         <v>43</v>
       </c>
       <c r="X12">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="Y12">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="Z12" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
         <v>36</v>
@@ -2200,25 +2200,25 @@
         <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Q13" t="s">
         <v>43</v>
       </c>
       <c r="R13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S13" t="s">
         <v>43</v>
       </c>
       <c r="T13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="U13" t="s">
         <v>35</v>
@@ -2230,202 +2230,202 @@
         <v>43</v>
       </c>
       <c r="X13">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="Y13">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
         <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N14" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="O14" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="Q14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="R14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W14" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14">
+        <v>135</v>
+      </c>
+      <c r="Y14">
         <v>117</v>
       </c>
-      <c r="U14" t="s">
-        <v>35</v>
-      </c>
-      <c r="V14" t="s">
-        <v>43</v>
-      </c>
-      <c r="W14" t="s">
-        <v>43</v>
-      </c>
-      <c r="X14">
-        <v>134</v>
-      </c>
-      <c r="Y14">
-        <v>123</v>
-      </c>
       <c r="Z14" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" t="s">
+        <v>104</v>
+      </c>
+      <c r="U15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V15" t="s">
+        <v>43</v>
+      </c>
+      <c r="W15" t="s">
+        <v>43</v>
+      </c>
+      <c r="X15">
         <v>71</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" t="s">
-        <v>125</v>
-      </c>
-      <c r="O15" t="s">
-        <v>126</v>
-      </c>
-      <c r="P15" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>44</v>
-      </c>
-      <c r="R15" t="s">
-        <v>44</v>
-      </c>
-      <c r="S15" t="s">
-        <v>43</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="Y15">
         <v>57</v>
       </c>
-      <c r="U15" t="s">
-        <v>35</v>
-      </c>
-      <c r="V15" t="s">
-        <v>43</v>
-      </c>
-      <c r="W15" t="s">
-        <v>43</v>
-      </c>
-      <c r="X15">
-        <v>122</v>
-      </c>
-      <c r="Y15">
-        <v>114</v>
-      </c>
       <c r="Z15" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s">
         <v>36</v>
@@ -2440,25 +2440,25 @@
         <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="Q16" t="s">
         <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="S16" t="s">
         <v>43</v>
       </c>
       <c r="T16" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="U16" t="s">
         <v>35</v>
@@ -2470,119 +2470,119 @@
         <v>43</v>
       </c>
       <c r="X16">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="Y16">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="Z16" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" t="s">
+        <v>73</v>
+      </c>
+      <c r="U17" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17" t="s">
+        <v>43</v>
+      </c>
+      <c r="W17" t="s">
+        <v>43</v>
+      </c>
+      <c r="X17">
+        <v>69</v>
+      </c>
+      <c r="Y17">
         <v>60</v>
       </c>
-      <c r="D17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M17" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" t="s">
-        <v>141</v>
-      </c>
-      <c r="O17" t="s">
-        <v>142</v>
-      </c>
-      <c r="P17" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>43</v>
-      </c>
-      <c r="R17" t="s">
-        <v>43</v>
-      </c>
-      <c r="S17" t="s">
-        <v>43</v>
-      </c>
-      <c r="T17" t="s">
-        <v>81</v>
-      </c>
-      <c r="U17" t="s">
-        <v>35</v>
-      </c>
-      <c r="V17" t="s">
-        <v>43</v>
-      </c>
-      <c r="W17" t="s">
-        <v>43</v>
-      </c>
-      <c r="X17">
-        <v>122</v>
-      </c>
-      <c r="Y17">
-        <v>121</v>
-      </c>
       <c r="Z17" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="I18" t="s">
         <v>35</v>
@@ -2600,13 +2600,13 @@
         <v>39</v>
       </c>
       <c r="N18" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="O18" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="Q18" t="s">
         <v>43</v>
@@ -2618,7 +2618,7 @@
         <v>43</v>
       </c>
       <c r="T18" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="U18" t="s">
         <v>35</v>
@@ -2630,42 +2630,42 @@
         <v>43</v>
       </c>
       <c r="X18">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="Y18">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="Z18" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="J19" t="s">
         <v>36</v>
@@ -2680,25 +2680,25 @@
         <v>39</v>
       </c>
       <c r="N19" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="O19" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="Q19" t="s">
         <v>43</v>
       </c>
       <c r="R19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S19" t="s">
         <v>43</v>
       </c>
       <c r="T19" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="U19" t="s">
         <v>35</v>
@@ -2710,42 +2710,42 @@
         <v>43</v>
       </c>
       <c r="X19">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="Y19">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="Z19" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="H20" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="J20" t="s">
         <v>36</v>
@@ -2760,25 +2760,25 @@
         <v>39</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="Q20" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="R20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S20" t="s">
         <v>43</v>
       </c>
       <c r="T20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="U20" t="s">
         <v>35</v>
@@ -2790,39 +2790,39 @@
         <v>43</v>
       </c>
       <c r="X20">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="Y20">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="Z20" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
         <v>123</v>
       </c>
-      <c r="G21" t="s">
-        <v>140</v>
-      </c>
       <c r="H21" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="I21" t="s">
         <v>35</v>
@@ -2840,25 +2840,25 @@
         <v>39</v>
       </c>
       <c r="N21" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="O21" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="P21" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="Q21" t="s">
         <v>43</v>
       </c>
       <c r="R21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S21" t="s">
         <v>43</v>
       </c>
       <c r="T21" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="U21" t="s">
         <v>35</v>
@@ -2870,39 +2870,39 @@
         <v>43</v>
       </c>
       <c r="X21">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="Y21">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="Z21" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="I22" t="s">
         <v>35</v>
@@ -2920,25 +2920,25 @@
         <v>39</v>
       </c>
       <c r="N22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O22" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="Q22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R22" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="S22" t="s">
         <v>43</v>
       </c>
       <c r="T22" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
         <v>35</v>
@@ -2950,39 +2950,39 @@
         <v>43</v>
       </c>
       <c r="X22">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Y22">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Z22" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="H23" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="I23" t="s">
         <v>35</v>
@@ -3000,25 +3000,25 @@
         <v>39</v>
       </c>
       <c r="N23" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="O23" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="Q23" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="R23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S23" t="s">
         <v>43</v>
       </c>
       <c r="T23" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="U23" t="s">
         <v>35</v>
@@ -3030,42 +3030,42 @@
         <v>43</v>
       </c>
       <c r="X23">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="Y23">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="Z23" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="H24" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s">
         <v>36</v>
@@ -3080,25 +3080,25 @@
         <v>39</v>
       </c>
       <c r="N24" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="O24" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="Q24" t="s">
         <v>43</v>
       </c>
       <c r="R24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S24" t="s">
         <v>43</v>
       </c>
       <c r="T24" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="U24" t="s">
         <v>35</v>
@@ -3110,75 +3110,75 @@
         <v>43</v>
       </c>
       <c r="X24">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="Y24">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="Z24" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="I25" t="s">
         <v>35</v>
       </c>
       <c r="J25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N25" t="s">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="O25" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="Q25" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R25" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S25" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T25" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s">
         <v>35</v>
@@ -3190,75 +3190,75 @@
         <v>43</v>
       </c>
       <c r="X25">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="Y25">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="Z25" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="I26" t="s">
         <v>35</v>
       </c>
       <c r="J26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N26" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="O26" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="Q26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="R26" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="U26" t="s">
         <v>35</v>
@@ -3270,10 +3270,10 @@
         <v>43</v>
       </c>
       <c r="X26">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="Y26">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Z26" t="s">
         <v>35</v>
@@ -3281,28 +3281,28 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="I27" t="s">
         <v>35</v>
@@ -3320,25 +3320,25 @@
         <v>39</v>
       </c>
       <c r="N27" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="O27" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="P27" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="Q27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S27" t="s">
         <v>43</v>
       </c>
       <c r="T27" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="U27" t="s">
         <v>35</v>
@@ -3350,42 +3350,42 @@
         <v>43</v>
       </c>
       <c r="X27">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="Y27">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="Z27" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J28" t="s">
         <v>36</v>
@@ -3400,69 +3400,69 @@
         <v>39</v>
       </c>
       <c r="N28" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="O28" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="P28" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="Q28" t="s">
         <v>43</v>
       </c>
       <c r="R28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S28" t="s">
         <v>43</v>
       </c>
       <c r="T28" t="s">
+        <v>71</v>
+      </c>
+      <c r="U28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V28" t="s">
+        <v>43</v>
+      </c>
+      <c r="W28" t="s">
+        <v>43</v>
+      </c>
+      <c r="X28">
+        <v>109</v>
+      </c>
+      <c r="Y28">
+        <v>107</v>
+      </c>
+      <c r="Z28" t="s">
         <v>45</v>
-      </c>
-      <c r="U28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V28" t="s">
-        <v>43</v>
-      </c>
-      <c r="W28" t="s">
-        <v>43</v>
-      </c>
-      <c r="X28">
-        <v>101</v>
-      </c>
-      <c r="Y28">
-        <v>89</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="D29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="E29" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="F29" t="s">
         <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="H29" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="I29" t="s">
         <v>35</v>
@@ -3480,25 +3480,25 @@
         <v>39</v>
       </c>
       <c r="N29" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="O29" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="P29" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="Q29" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="R29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S29" t="s">
         <v>43</v>
       </c>
       <c r="T29" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="U29" t="s">
         <v>35</v>
@@ -3510,42 +3510,42 @@
         <v>43</v>
       </c>
       <c r="X29">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Y29">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="Z29" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="G30" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="I30" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="J30" t="s">
         <v>36</v>
@@ -3560,25 +3560,25 @@
         <v>39</v>
       </c>
       <c r="N30" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="O30" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="P30" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="Q30" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="R30" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="S30" t="s">
         <v>43</v>
       </c>
       <c r="T30" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="U30" t="s">
         <v>35</v>
@@ -3590,13 +3590,13 @@
         <v>43</v>
       </c>
       <c r="X30">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="Y30">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="Z30" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -3658,7 +3658,7 @@
         <v>35</v>
       </c>
       <c r="T31" t="s">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="U31" t="s">
         <v>35</v>
@@ -3670,10 +3670,10 @@
         <v>43</v>
       </c>
       <c r="X31">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="Y31">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="Z31" t="s">
         <v>35</v>
@@ -3681,64 +3681,64 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="I32" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="J32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N32" t="s">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="O32" t="s">
-        <v>239</v>
+        <v>35</v>
       </c>
       <c r="P32" t="s">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="Q32" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="R32" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S32" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T32" t="s">
-        <v>241</v>
+        <v>104</v>
       </c>
       <c r="U32" t="s">
         <v>35</v>
@@ -3750,39 +3750,39 @@
         <v>43</v>
       </c>
       <c r="X32">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="Y32">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="Z32" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="E33" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="H33" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="I33" t="s">
         <v>35</v>
@@ -3800,25 +3800,25 @@
         <v>39</v>
       </c>
       <c r="N33" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="O33" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="P33" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="Q33" t="s">
         <v>43</v>
       </c>
       <c r="R33" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="S33" t="s">
         <v>43</v>
       </c>
       <c r="T33" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="U33" t="s">
         <v>35</v>
@@ -3830,39 +3830,39 @@
         <v>43</v>
       </c>
       <c r="X33">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="Y33">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="Z33" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="D34" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E34" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="F34" t="s">
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="I34" t="s">
         <v>35</v>
@@ -3880,16 +3880,16 @@
         <v>39</v>
       </c>
       <c r="N34" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="O34" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="P34" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="Q34" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="R34" t="s">
         <v>43</v>
@@ -3898,7 +3898,7 @@
         <v>43</v>
       </c>
       <c r="T34" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="U34" t="s">
         <v>35</v>
@@ -3910,39 +3910,39 @@
         <v>43</v>
       </c>
       <c r="X34">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Y34">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="E35" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="H35" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="I35" t="s">
         <v>35</v>
@@ -3960,25 +3960,25 @@
         <v>39</v>
       </c>
       <c r="N35" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="O35" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="P35" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="Q35" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="R35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S35" t="s">
         <v>43</v>
       </c>
       <c r="T35" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="U35" t="s">
         <v>35</v>
@@ -3990,39 +3990,39 @@
         <v>43</v>
       </c>
       <c r="X35">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="Y35">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="Z35" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="B36" t="s">
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="D36" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="E36" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="F36" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="H36" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="I36" t="s">
         <v>35</v>
@@ -4040,16 +4040,16 @@
         <v>39</v>
       </c>
       <c r="N36" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="O36" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="P36" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="Q36" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="R36" t="s">
         <v>43</v>
@@ -4058,7 +4058,7 @@
         <v>43</v>
       </c>
       <c r="T36" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="U36" t="s">
         <v>35</v>
@@ -4070,39 +4070,39 @@
         <v>43</v>
       </c>
       <c r="X36">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="Y36">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Z36" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="E37" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="F37" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="H37" t="s">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="I37" t="s">
         <v>35</v>
@@ -4120,25 +4120,25 @@
         <v>39</v>
       </c>
       <c r="N37" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="O37" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="P37" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="Q37" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="R37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S37" t="s">
         <v>43</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="U37" t="s">
         <v>35</v>
@@ -4150,42 +4150,42 @@
         <v>43</v>
       </c>
       <c r="X37">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="Y37">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="Z37" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="E38" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="H38" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="I38" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="J38" t="s">
         <v>36</v>
@@ -4200,25 +4200,25 @@
         <v>39</v>
       </c>
       <c r="N38" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="O38" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="P38" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="Q38" t="s">
         <v>43</v>
       </c>
       <c r="R38" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="S38" t="s">
         <v>43</v>
       </c>
       <c r="T38" t="s">
-        <v>280</v>
+        <v>112</v>
       </c>
       <c r="U38" t="s">
         <v>35</v>
@@ -4230,75 +4230,75 @@
         <v>43</v>
       </c>
       <c r="X38">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="Y38">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="Z38" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>281</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>282</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="I39" t="s">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="J39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N39" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="O39" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="P39" t="s">
-        <v>287</v>
+        <v>35</v>
       </c>
       <c r="Q39" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R39" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S39" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T39" t="s">
-        <v>280</v>
+        <v>73</v>
       </c>
       <c r="U39" t="s">
         <v>35</v>
@@ -4310,13 +4310,13 @@
         <v>43</v>
       </c>
       <c r="X39">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="Y39">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="Z39" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
@@ -4378,7 +4378,7 @@
         <v>35</v>
       </c>
       <c r="T40" t="s">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="U40" t="s">
         <v>35</v>
@@ -4390,10 +4390,10 @@
         <v>43</v>
       </c>
       <c r="X40">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="Y40">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="Z40" t="s">
         <v>35</v>
@@ -4401,28 +4401,28 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="E41" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="H41" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="I41" t="s">
         <v>35</v>
@@ -4440,25 +4440,25 @@
         <v>39</v>
       </c>
       <c r="N41" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="O41" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="P41" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="Q41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R41" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="S41" t="s">
         <v>43</v>
       </c>
       <c r="T41" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="U41" t="s">
         <v>35</v>
@@ -4470,42 +4470,42 @@
         <v>43</v>
       </c>
       <c r="X41">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="Y41">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="Z41" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="D42" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="E42" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="F42" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="H42" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="I42" t="s">
-        <v>291</v>
+        <v>35</v>
       </c>
       <c r="J42" t="s">
         <v>36</v>
@@ -4520,25 +4520,25 @@
         <v>39</v>
       </c>
       <c r="N42" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="O42" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="P42" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="Q42" t="s">
         <v>43</v>
       </c>
       <c r="R42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S42" t="s">
         <v>43</v>
       </c>
       <c r="T42" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="U42" t="s">
         <v>35</v>
@@ -4550,75 +4550,75 @@
         <v>43</v>
       </c>
       <c r="X42">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="Y42">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="Z42" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>257</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>258</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="H43" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="I43" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="J43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M43" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N43" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="O43" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="P43" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="Q43" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R43" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="S43" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T43" t="s">
-        <v>232</v>
+        <v>85</v>
       </c>
       <c r="U43" t="s">
         <v>35</v>
@@ -4630,10 +4630,10 @@
         <v>43</v>
       </c>
       <c r="X43">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="Y43">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="Z43" t="s">
         <v>35</v>
@@ -4698,7 +4698,7 @@
         <v>35</v>
       </c>
       <c r="T44" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="U44" t="s">
         <v>35</v>
@@ -4710,10 +4710,10 @@
         <v>43</v>
       </c>
       <c r="X44">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="Y44">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="Z44" t="s">
         <v>35</v>
@@ -4721,28 +4721,28 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="B45" t="s">
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D45" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E45" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="H45" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="I45" t="s">
         <v>35</v>
@@ -4760,25 +4760,25 @@
         <v>39</v>
       </c>
       <c r="N45" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="O45" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="P45" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="Q45" t="s">
         <v>43</v>
       </c>
       <c r="R45" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="S45" t="s">
         <v>43</v>
       </c>
       <c r="T45" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="U45" t="s">
         <v>35</v>
@@ -4790,39 +4790,39 @@
         <v>43</v>
       </c>
       <c r="X45">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="Y45">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="Z45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>270</v>
       </c>
       <c r="D46" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="E46" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="H46" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="I46" t="s">
         <v>35</v>
@@ -4840,25 +4840,25 @@
         <v>39</v>
       </c>
       <c r="N46" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="O46" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="P46" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="Q46" t="s">
         <v>43</v>
       </c>
       <c r="R46" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="S46" t="s">
         <v>43</v>
       </c>
       <c r="T46" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="U46" t="s">
         <v>35</v>
@@ -4870,39 +4870,39 @@
         <v>43</v>
       </c>
       <c r="X46">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="Y46">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="Z46" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="E47" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>318</v>
+        <v>192</v>
       </c>
       <c r="H47" t="s">
-        <v>319</v>
+        <v>245</v>
       </c>
       <c r="I47" t="s">
         <v>35</v>
@@ -4920,25 +4920,25 @@
         <v>39</v>
       </c>
       <c r="N47" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="O47" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="P47" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="Q47" t="s">
         <v>43</v>
       </c>
       <c r="R47" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="S47" t="s">
         <v>43</v>
       </c>
       <c r="T47" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="U47" t="s">
         <v>35</v>
@@ -4950,39 +4950,39 @@
         <v>43</v>
       </c>
       <c r="X47">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Y47">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Z47" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="D48" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="E48" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s">
-        <v>325</v>
+        <v>149</v>
       </c>
       <c r="H48" t="s">
-        <v>326</v>
+        <v>150</v>
       </c>
       <c r="I48" t="s">
         <v>35</v>
@@ -5000,13 +5000,13 @@
         <v>39</v>
       </c>
       <c r="N48" t="s">
-        <v>327</v>
+        <v>67</v>
       </c>
       <c r="O48" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="P48" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="Q48" t="s">
         <v>43</v>
@@ -5018,7 +5018,7 @@
         <v>43</v>
       </c>
       <c r="T48" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="U48" t="s">
         <v>35</v>
@@ -5030,10 +5030,10 @@
         <v>43</v>
       </c>
       <c r="X48">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="Y48">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="Z48" t="s">
         <v>35</v>
@@ -5041,31 +5041,31 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>226</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="E49" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="H49" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="I49" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="J49" t="s">
         <v>36</v>
@@ -5080,25 +5080,25 @@
         <v>39</v>
       </c>
       <c r="N49" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="O49" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="P49" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="Q49" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="R49" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="S49" t="s">
         <v>43</v>
       </c>
       <c r="T49" t="s">
-        <v>241</v>
+        <v>136</v>
       </c>
       <c r="U49" t="s">
         <v>35</v>
@@ -5110,13 +5110,13 @@
         <v>43</v>
       </c>
       <c r="X49">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="Y49">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="Z49" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
@@ -5178,7 +5178,7 @@
         <v>35</v>
       </c>
       <c r="T50" t="s">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="U50" t="s">
         <v>35</v>
@@ -5190,10 +5190,10 @@
         <v>43</v>
       </c>
       <c r="X50">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Y50">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="Z50" t="s">
         <v>35</v>
@@ -5201,64 +5201,64 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>293</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>294</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>271</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>295</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="I51" t="s">
         <v>35</v>
       </c>
       <c r="J51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M51" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N51" t="s">
-        <v>35</v>
+        <v>296</v>
       </c>
       <c r="O51" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
       <c r="P51" t="s">
-        <v>35</v>
+        <v>298</v>
       </c>
       <c r="Q51" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R51" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S51" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T51" t="s">
-        <v>302</v>
+        <v>85</v>
       </c>
       <c r="U51" t="s">
         <v>35</v>
@@ -5270,10 +5270,10 @@
         <v>43</v>
       </c>
       <c r="X51">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="Y51">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="Z51" t="s">
         <v>35</v>
@@ -5281,31 +5281,31 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>249</v>
+        <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="E52" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G52" t="s">
-        <v>339</v>
+        <v>64</v>
       </c>
       <c r="H52" t="s">
-        <v>258</v>
+        <v>65</v>
       </c>
       <c r="I52" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="J52" t="s">
         <v>36</v>
@@ -5320,25 +5320,25 @@
         <v>39</v>
       </c>
       <c r="N52" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="O52" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="P52" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="Q52" t="s">
         <v>43</v>
       </c>
       <c r="R52" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="S52" t="s">
         <v>43</v>
       </c>
       <c r="T52" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="U52" t="s">
         <v>35</v>
@@ -5350,10 +5350,10 @@
         <v>43</v>
       </c>
       <c r="X52">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Y52">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="Z52" t="s">
         <v>35</v>
@@ -5361,64 +5361,64 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>343</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>344</v>
+        <v>35</v>
       </c>
       <c r="E53" t="s">
-        <v>345</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="H53" t="s">
-        <v>259</v>
+        <v>35</v>
       </c>
       <c r="I53" t="s">
         <v>35</v>
       </c>
       <c r="J53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L53" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M53" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N53" t="s">
-        <v>346</v>
+        <v>35</v>
       </c>
       <c r="O53" t="s">
-        <v>347</v>
+        <v>35</v>
       </c>
       <c r="P53" t="s">
-        <v>348</v>
+        <v>35</v>
       </c>
       <c r="Q53" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="R53" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S53" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T53" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="U53" t="s">
         <v>35</v>
@@ -5430,42 +5430,42 @@
         <v>43</v>
       </c>
       <c r="X53">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y53">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Z53" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s">
-        <v>350</v>
+        <v>271</v>
       </c>
       <c r="E54" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="F54" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>132</v>
+        <v>307</v>
       </c>
       <c r="H54" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="I54" t="s">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="J54" t="s">
         <v>36</v>
@@ -5480,16 +5480,16 @@
         <v>39</v>
       </c>
       <c r="N54" t="s">
-        <v>352</v>
+        <v>93</v>
       </c>
       <c r="O54" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="P54" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="Q54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R54" t="s">
         <v>43</v>
@@ -5510,75 +5510,75 @@
         <v>43</v>
       </c>
       <c r="X54">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="Y54">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="Z54" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>311</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>312</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>313</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="H55" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="I55" t="s">
         <v>35</v>
       </c>
       <c r="J55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K55" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M55" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N55" t="s">
-        <v>35</v>
+        <v>314</v>
       </c>
       <c r="O55" t="s">
-        <v>35</v>
+        <v>315</v>
       </c>
       <c r="P55" t="s">
-        <v>35</v>
+        <v>316</v>
       </c>
       <c r="Q55" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R55" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S55" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T55" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="U55" t="s">
         <v>35</v>
@@ -5590,75 +5590,75 @@
         <v>43</v>
       </c>
       <c r="X55">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="Y55">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="Z55" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>317</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>318</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>319</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>320</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="H56" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="I56" t="s">
         <v>35</v>
       </c>
       <c r="J56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L56" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M56" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N56" t="s">
-        <v>35</v>
+        <v>321</v>
       </c>
       <c r="O56" t="s">
-        <v>35</v>
+        <v>322</v>
       </c>
       <c r="P56" t="s">
-        <v>35</v>
+        <v>323</v>
       </c>
       <c r="Q56" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="R56" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S56" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T56" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="U56" t="s">
         <v>35</v>
@@ -5670,42 +5670,42 @@
         <v>43</v>
       </c>
       <c r="X56">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="Y56">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="Z56" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="D57" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="E57" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s">
-        <v>236</v>
+        <v>92</v>
       </c>
       <c r="H57" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="I57" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="J57" t="s">
         <v>36</v>
@@ -5720,25 +5720,25 @@
         <v>39</v>
       </c>
       <c r="N57" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="O57" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="P57" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="Q57" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="R57" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="S57" t="s">
         <v>43</v>
       </c>
       <c r="T57" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="U57" t="s">
         <v>35</v>
@@ -5750,75 +5750,75 @@
         <v>43</v>
       </c>
       <c r="X57">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y57">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="Z57" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>330</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>331</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>332</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="H58" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
       <c r="I58" t="s">
         <v>35</v>
       </c>
       <c r="J58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L58" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M58" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N58" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="O58" t="s">
-        <v>35</v>
+        <v>333</v>
       </c>
       <c r="P58" t="s">
-        <v>35</v>
+        <v>334</v>
       </c>
       <c r="Q58" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R58" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="S58" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T58" t="s">
-        <v>232</v>
+        <v>85</v>
       </c>
       <c r="U58" t="s">
         <v>35</v>
@@ -5830,75 +5830,75 @@
         <v>43</v>
       </c>
       <c r="X58">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="Y58">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="Z58" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>335</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
+        <v>336</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>337</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
       <c r="H59" t="s">
-        <v>35</v>
+        <v>338</v>
       </c>
       <c r="I59" t="s">
         <v>35</v>
       </c>
       <c r="J59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L59" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M59" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N59" t="s">
-        <v>35</v>
+        <v>339</v>
       </c>
       <c r="O59" t="s">
-        <v>35</v>
+        <v>340</v>
       </c>
       <c r="P59" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="Q59" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R59" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S59" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T59" t="s">
-        <v>302</v>
+        <v>57</v>
       </c>
       <c r="U59" t="s">
         <v>35</v>
@@ -5910,42 +5910,42 @@
         <v>43</v>
       </c>
       <c r="X59">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Y59">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="Z59" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>250</v>
+        <v>343</v>
       </c>
       <c r="E60" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="H60" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I60" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="J60" t="s">
         <v>36</v>
@@ -5960,25 +5960,25 @@
         <v>39</v>
       </c>
       <c r="N60" t="s">
-        <v>214</v>
+        <v>345</v>
       </c>
       <c r="O60" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="P60" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="Q60" t="s">
         <v>43</v>
       </c>
       <c r="R60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S60" t="s">
         <v>43</v>
       </c>
       <c r="T60" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="U60" t="s">
         <v>35</v>
@@ -5990,75 +5990,75 @@
         <v>43</v>
       </c>
       <c r="X60">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="Y60">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="Z60" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>364</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D61" t="s">
-        <v>365</v>
+        <v>35</v>
       </c>
       <c r="E61" t="s">
-        <v>366</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="H61" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I61" t="s">
         <v>35</v>
       </c>
       <c r="J61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L61" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M61" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N61" t="s">
-        <v>367</v>
+        <v>35</v>
       </c>
       <c r="O61" t="s">
-        <v>368</v>
+        <v>35</v>
       </c>
       <c r="P61" t="s">
-        <v>369</v>
+        <v>35</v>
       </c>
       <c r="Q61" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R61" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S61" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T61" t="s">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="U61" t="s">
         <v>35</v>
@@ -6070,10 +6070,10 @@
         <v>43</v>
       </c>
       <c r="X61">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="Y61">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="Z61" t="s">
         <v>35</v>
@@ -6081,28 +6081,28 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>294</v>
       </c>
       <c r="D62" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="E62" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="F62" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="G62" t="s">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="I62" t="s">
         <v>35</v>
@@ -6120,25 +6120,25 @@
         <v>39</v>
       </c>
       <c r="N62" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="O62" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="P62" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="Q62" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="R62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S62" t="s">
         <v>43</v>
       </c>
       <c r="T62" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="U62" t="s">
         <v>35</v>
@@ -6150,42 +6150,42 @@
         <v>43</v>
       </c>
       <c r="X62">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="Y62">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="Z62" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="E63" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G63" t="s">
-        <v>339</v>
+        <v>66</v>
       </c>
       <c r="H63" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="I63" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="J63" t="s">
         <v>36</v>
@@ -6200,25 +6200,25 @@
         <v>39</v>
       </c>
       <c r="N63" t="s">
-        <v>379</v>
+        <v>168</v>
       </c>
       <c r="O63" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="P63" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="Q63" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="R63" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="S63" t="s">
         <v>43</v>
       </c>
       <c r="T63" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="U63" t="s">
         <v>35</v>
@@ -6230,75 +6230,75 @@
         <v>43</v>
       </c>
       <c r="X63">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="Y63">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="Z63" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>382</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="D64" t="s">
-        <v>383</v>
+        <v>35</v>
       </c>
       <c r="E64" t="s">
-        <v>384</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="H64" t="s">
-        <v>259</v>
+        <v>35</v>
       </c>
       <c r="I64" t="s">
         <v>35</v>
       </c>
       <c r="J64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L64" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M64" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N64" t="s">
-        <v>367</v>
+        <v>35</v>
       </c>
       <c r="O64" t="s">
-        <v>385</v>
+        <v>35</v>
       </c>
       <c r="P64" t="s">
-        <v>386</v>
+        <v>35</v>
       </c>
       <c r="Q64" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="R64" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S64" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T64" t="s">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="U64" t="s">
         <v>35</v>
@@ -6310,39 +6310,39 @@
         <v>43</v>
       </c>
       <c r="X64">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="Y64">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Z64" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D65" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="E65" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="F65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G65" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="H65" t="s">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="I65" t="s">
         <v>35</v>
@@ -6360,25 +6360,25 @@
         <v>39</v>
       </c>
       <c r="N65" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="O65" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="P65" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="Q65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R65" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="S65" t="s">
         <v>43</v>
       </c>
       <c r="T65" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="U65" t="s">
         <v>35</v>
@@ -6390,39 +6390,39 @@
         <v>43</v>
       </c>
       <c r="X65">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="Y65">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="Z65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="B66" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>318</v>
       </c>
       <c r="D66" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="E66" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="F66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="H66" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
       <c r="I66" t="s">
         <v>35</v>
@@ -6440,43 +6440,443 @@
         <v>39</v>
       </c>
       <c r="N66" t="s">
+        <v>368</v>
+      </c>
+      <c r="O66" t="s">
+        <v>369</v>
+      </c>
+      <c r="P66" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>70</v>
+      </c>
+      <c r="R66" t="s">
+        <v>43</v>
+      </c>
+      <c r="S66" t="s">
+        <v>43</v>
+      </c>
+      <c r="T66" t="s">
+        <v>103</v>
+      </c>
+      <c r="U66" t="s">
+        <v>35</v>
+      </c>
+      <c r="V66" t="s">
+        <v>43</v>
+      </c>
+      <c r="W66" t="s">
+        <v>43</v>
+      </c>
+      <c r="X66">
+        <v>65</v>
+      </c>
+      <c r="Y66">
+        <v>64</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>371</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" t="s">
+        <v>372</v>
+      </c>
+      <c r="E67" t="s">
+        <v>373</v>
+      </c>
+      <c r="F67" t="s">
+        <v>90</v>
+      </c>
+      <c r="G67" t="s">
+        <v>253</v>
+      </c>
+      <c r="H67" t="s">
+        <v>338</v>
+      </c>
+      <c r="I67" t="s">
+        <v>35</v>
+      </c>
+      <c r="J67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K67" t="s">
+        <v>37</v>
+      </c>
+      <c r="L67" t="s">
+        <v>38</v>
+      </c>
+      <c r="M67" t="s">
+        <v>39</v>
+      </c>
+      <c r="N67" t="s">
+        <v>279</v>
+      </c>
+      <c r="O67" t="s">
+        <v>374</v>
+      </c>
+      <c r="P67" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>43</v>
+      </c>
+      <c r="R67" t="s">
+        <v>43</v>
+      </c>
+      <c r="S67" t="s">
+        <v>43</v>
+      </c>
+      <c r="T67" t="s">
+        <v>44</v>
+      </c>
+      <c r="U67" t="s">
+        <v>35</v>
+      </c>
+      <c r="V67" t="s">
+        <v>43</v>
+      </c>
+      <c r="W67" t="s">
+        <v>43</v>
+      </c>
+      <c r="X67">
+        <v>150</v>
+      </c>
+      <c r="Y67">
+        <v>140</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>376</v>
+      </c>
+      <c r="B68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" t="s">
+        <v>377</v>
+      </c>
+      <c r="E68" t="s">
+        <v>378</v>
+      </c>
+      <c r="F68" t="s">
+        <v>63</v>
+      </c>
+      <c r="G68" t="s">
+        <v>184</v>
+      </c>
+      <c r="H68" t="s">
+        <v>232</v>
+      </c>
+      <c r="I68" t="s">
+        <v>35</v>
+      </c>
+      <c r="J68" t="s">
+        <v>36</v>
+      </c>
+      <c r="K68" t="s">
+        <v>37</v>
+      </c>
+      <c r="L68" t="s">
+        <v>38</v>
+      </c>
+      <c r="M68" t="s">
+        <v>39</v>
+      </c>
+      <c r="N68" t="s">
+        <v>379</v>
+      </c>
+      <c r="O68" t="s">
+        <v>380</v>
+      </c>
+      <c r="P68" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>43</v>
+      </c>
+      <c r="R68" t="s">
+        <v>70</v>
+      </c>
+      <c r="S68" t="s">
+        <v>43</v>
+      </c>
+      <c r="T68" t="s">
+        <v>57</v>
+      </c>
+      <c r="U68" t="s">
+        <v>35</v>
+      </c>
+      <c r="V68" t="s">
+        <v>43</v>
+      </c>
+      <c r="W68" t="s">
+        <v>43</v>
+      </c>
+      <c r="X68">
+        <v>96</v>
+      </c>
+      <c r="Y68">
+        <v>90</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>382</v>
+      </c>
+      <c r="B69" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" t="s">
+        <v>383</v>
+      </c>
+      <c r="E69" t="s">
+        <v>384</v>
+      </c>
+      <c r="F69" t="s">
+        <v>50</v>
+      </c>
+      <c r="G69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" t="s">
+        <v>167</v>
+      </c>
+      <c r="I69" t="s">
+        <v>35</v>
+      </c>
+      <c r="J69" t="s">
+        <v>36</v>
+      </c>
+      <c r="K69" t="s">
+        <v>37</v>
+      </c>
+      <c r="L69" t="s">
+        <v>38</v>
+      </c>
+      <c r="M69" t="s">
+        <v>39</v>
+      </c>
+      <c r="N69" t="s">
+        <v>385</v>
+      </c>
+      <c r="O69" t="s">
+        <v>386</v>
+      </c>
+      <c r="P69" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>70</v>
+      </c>
+      <c r="R69" t="s">
+        <v>43</v>
+      </c>
+      <c r="S69" t="s">
+        <v>43</v>
+      </c>
+      <c r="T69" t="s">
+        <v>236</v>
+      </c>
+      <c r="U69" t="s">
+        <v>35</v>
+      </c>
+      <c r="V69" t="s">
+        <v>43</v>
+      </c>
+      <c r="W69" t="s">
+        <v>43</v>
+      </c>
+      <c r="X69">
+        <v>128</v>
+      </c>
+      <c r="Y69">
+        <v>103</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>388</v>
+      </c>
+      <c r="B70" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" t="s">
+        <v>389</v>
+      </c>
+      <c r="E70" t="s">
+        <v>390</v>
+      </c>
+      <c r="F70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G70" t="s">
+        <v>53</v>
+      </c>
+      <c r="H70" t="s">
+        <v>52</v>
+      </c>
+      <c r="I70" t="s">
+        <v>35</v>
+      </c>
+      <c r="J70" t="s">
+        <v>36</v>
+      </c>
+      <c r="K70" t="s">
+        <v>37</v>
+      </c>
+      <c r="L70" t="s">
+        <v>38</v>
+      </c>
+      <c r="M70" t="s">
+        <v>39</v>
+      </c>
+      <c r="N70" t="s">
+        <v>391</v>
+      </c>
+      <c r="O70" t="s">
+        <v>392</v>
+      </c>
+      <c r="P70" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>43</v>
+      </c>
+      <c r="R70" t="s">
+        <v>70</v>
+      </c>
+      <c r="S70" t="s">
+        <v>43</v>
+      </c>
+      <c r="T70" t="s">
+        <v>44</v>
+      </c>
+      <c r="U70" t="s">
+        <v>35</v>
+      </c>
+      <c r="V70" t="s">
+        <v>43</v>
+      </c>
+      <c r="W70" t="s">
+        <v>43</v>
+      </c>
+      <c r="X70">
+        <v>132</v>
+      </c>
+      <c r="Y70">
+        <v>121</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>394</v>
+      </c>
+      <c r="B71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" t="s">
+        <v>395</v>
+      </c>
+      <c r="E71" t="s">
         <v>396</v>
       </c>
-      <c r="O66" t="s">
+      <c r="F71" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" t="s">
+        <v>176</v>
+      </c>
+      <c r="H71" t="s">
+        <v>177</v>
+      </c>
+      <c r="I71" t="s">
+        <v>35</v>
+      </c>
+      <c r="J71" t="s">
+        <v>36</v>
+      </c>
+      <c r="K71" t="s">
+        <v>37</v>
+      </c>
+      <c r="L71" t="s">
+        <v>38</v>
+      </c>
+      <c r="M71" t="s">
+        <v>39</v>
+      </c>
+      <c r="N71" t="s">
+        <v>109</v>
+      </c>
+      <c r="O71" t="s">
         <v>397</v>
       </c>
-      <c r="P66" t="s">
+      <c r="P71" t="s">
         <v>398</v>
       </c>
-      <c r="Q66" t="s">
-        <v>43</v>
-      </c>
-      <c r="R66" t="s">
-        <v>43</v>
-      </c>
-      <c r="S66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T66" t="s">
-        <v>151</v>
-      </c>
-      <c r="U66" t="s">
-        <v>35</v>
-      </c>
-      <c r="V66" t="s">
-        <v>43</v>
-      </c>
-      <c r="W66" t="s">
-        <v>43</v>
-      </c>
-      <c r="X66">
-        <v>66</v>
-      </c>
-      <c r="Y66">
-        <v>61</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>35</v>
+      <c r="Q71" t="s">
+        <v>43</v>
+      </c>
+      <c r="R71" t="s">
+        <v>70</v>
+      </c>
+      <c r="S71" t="s">
+        <v>43</v>
+      </c>
+      <c r="T71" t="s">
+        <v>202</v>
+      </c>
+      <c r="U71" t="s">
+        <v>35</v>
+      </c>
+      <c r="V71" t="s">
+        <v>43</v>
+      </c>
+      <c r="W71" t="s">
+        <v>43</v>
+      </c>
+      <c r="X71">
+        <v>119</v>
+      </c>
+      <c r="Y71">
+        <v>100</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/seeded_units_2026.xlsx
+++ b/seeded_units_2026.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="402">
   <si>
     <t>강의년도</t>
   </si>
@@ -97,1114 +97,1123 @@
     <t>통신13대대(2026)</t>
   </si>
   <si>
+    <t>AirForce</t>
+  </si>
+  <si>
+    <t>강원특별자치도</t>
+  </si>
+  <si>
+    <t>동해시</t>
+  </si>
+  <si>
+    <t>강원특별자치도 동해시 천곡로 77</t>
+  </si>
+  <si>
+    <t>본관 4층</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>권건우</t>
+  </si>
+  <si>
+    <t>010-5705-8292</t>
+  </si>
+  <si>
+    <t>officer99@army.mil.kr</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>세미나실</t>
+  </si>
+  <si>
+    <t>주차 가능</t>
+  </si>
+  <si>
+    <t>통신13연대(2026)</t>
+  </si>
+  <si>
     <t>Army</t>
   </si>
   <si>
+    <t>서울특별시</t>
+  </si>
+  <si>
+    <t>관악구</t>
+  </si>
+  <si>
+    <t>서울특별시 관악구 관악로 145</t>
+  </si>
+  <si>
+    <t>본관 1층</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>임우진</t>
+  </si>
+  <si>
+    <t>010-2577-9879</t>
+  </si>
+  <si>
+    <t>officer98@army.mil.kr</t>
+  </si>
+  <si>
+    <t>강의실</t>
+  </si>
+  <si>
+    <t>추가장소2</t>
+  </si>
+  <si>
+    <t>추가장소3</t>
+  </si>
+  <si>
+    <t>통신13여단(2026)</t>
+  </si>
+  <si>
+    <t>MND</t>
+  </si>
+  <si>
+    <t>충청북도</t>
+  </si>
+  <si>
+    <t>청주시 흥덕구</t>
+  </si>
+  <si>
+    <t>충청북도 청주시 흥덕구 강내면 청주역로 71</t>
+  </si>
+  <si>
+    <t>본관 3층</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
+  </si>
+  <si>
+    <t>2026-02-14</t>
+  </si>
+  <si>
+    <t>윤우진</t>
+  </si>
+  <si>
+    <t>010-9743-3114</t>
+  </si>
+  <si>
+    <t>officer97@army.mil.kr</t>
+  </si>
+  <si>
+    <t>회의실</t>
+  </si>
+  <si>
+    <t>음향시설 완비</t>
+  </si>
+  <si>
+    <t>통신13사단(2026)</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>경상북도</t>
+  </si>
+  <si>
+    <t>경주시</t>
+  </si>
+  <si>
+    <t>경상북도 경주시 양정로 260</t>
+  </si>
+  <si>
+    <t>본관 2층</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>윤재원</t>
+  </si>
+  <si>
+    <t>010-5648-8138</t>
+  </si>
+  <si>
+    <t>officer96@army.mil.kr</t>
+  </si>
+  <si>
+    <t>다목적실</t>
+  </si>
+  <si>
+    <t>통신12교육대(2026)</t>
+  </si>
+  <si>
+    <t>Marines</t>
+  </si>
+  <si>
+    <t>용산구</t>
+  </si>
+  <si>
+    <t>서울특별시 용산구 한강대로 405</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>박지호</t>
+  </si>
+  <si>
+    <t>010-7069-7689</t>
+  </si>
+  <si>
+    <t>officer95@army.mil.kr</t>
+  </si>
+  <si>
+    <t>통신12지원단(2026)</t>
+  </si>
+  <si>
+    <t>경기도</t>
+  </si>
+  <si>
+    <t>수원시 영통구</t>
+  </si>
+  <si>
+    <t>경기도 수원시 영통구 광교로 156</t>
+  </si>
+  <si>
+    <t>본관 5층</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>이도현</t>
+  </si>
+  <si>
+    <t>010-2531-5212</t>
+  </si>
+  <si>
+    <t>officer94@army.mil.kr</t>
+  </si>
+  <si>
+    <t>통신12사령부(2026)</t>
+  </si>
+  <si>
     <t>충청남도</t>
   </si>
   <si>
-    <t>논산시</t>
-  </si>
-  <si>
-    <t>충청남도 논산시 시민로210번길 9</t>
-  </si>
-  <si>
-    <t>본관 5층</t>
-  </si>
-  <si>
-    <t>2026-01-13</t>
+    <t>계룡시</t>
+  </si>
+  <si>
+    <t>충청남도 계룡시 장안로 46</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>정서준</t>
+  </si>
+  <si>
+    <t>010-7235-3434</t>
+  </si>
+  <si>
+    <t>officer93@army.mil.kr</t>
+  </si>
+  <si>
+    <t>훈련장</t>
+  </si>
+  <si>
+    <t>통신12부대(2026)</t>
+  </si>
+  <si>
+    <t>영주시</t>
+  </si>
+  <si>
+    <t>경상북도 영주시 시청로 1</t>
+  </si>
+  <si>
+    <t>2026-02-21</t>
+  </si>
+  <si>
+    <t>2026-02-23</t>
+  </si>
+  <si>
+    <t>윤도윤</t>
+  </si>
+  <si>
+    <t>010-2822-6081</t>
+  </si>
+  <si>
+    <t>officer92@army.mil.kr</t>
+  </si>
+  <si>
+    <t>교육센터</t>
+  </si>
+  <si>
+    <t>통신12대대(2026)</t>
+  </si>
+  <si>
+    <t>광진구</t>
+  </si>
+  <si>
+    <t>서울특별시 광진구 능동로 120</t>
+  </si>
+  <si>
+    <t>서현우</t>
+  </si>
+  <si>
+    <t>010-2148-4347</t>
+  </si>
+  <si>
+    <t>officer91@army.mil.kr</t>
+  </si>
+  <si>
+    <t>통신12연대(2026)</t>
+  </si>
+  <si>
+    <t>전북특별자치도</t>
+  </si>
+  <si>
+    <t>군산시</t>
+  </si>
+  <si>
+    <t>전북특별자치도 군산시 시청로 17</t>
+  </si>
+  <si>
+    <t>황성민</t>
+  </si>
+  <si>
+    <t>010-5863-6469</t>
+  </si>
+  <si>
+    <t>officer90@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병12여단(2026)</t>
+  </si>
+  <si>
+    <t>보령시</t>
+  </si>
+  <si>
+    <t>충청남도 보령시 성주산로 77</t>
+  </si>
+  <si>
+    <t>강시우</t>
+  </si>
+  <si>
+    <t>010-5621-5696</t>
+  </si>
+  <si>
+    <t>officer89@army.mil.kr</t>
+  </si>
+  <si>
+    <t>연병장</t>
+  </si>
+  <si>
+    <t>공병12사단(2026)</t>
+  </si>
+  <si>
+    <t>충주시</t>
+  </si>
+  <si>
+    <t>충청북도 충주시 으뜸로 21</t>
+  </si>
+  <si>
+    <t>2026-02-26</t>
+  </si>
+  <si>
+    <t>2026-02-28</t>
+  </si>
+  <si>
+    <t>최지훈</t>
+  </si>
+  <si>
+    <t>010-5708-7482</t>
+  </si>
+  <si>
+    <t>officer88@army.mil.kr</t>
+  </si>
+  <si>
+    <t>에어컨 가동</t>
+  </si>
+  <si>
+    <t>공병11교육대(2026)</t>
+  </si>
+  <si>
+    <t>음성군</t>
+  </si>
+  <si>
+    <t>충청북도 음성군 음성읍 수정로 38</t>
+  </si>
+  <si>
+    <t>이예준</t>
+  </si>
+  <si>
+    <t>010-1059-8222</t>
+  </si>
+  <si>
+    <t>officer87@army.mil.kr</t>
+  </si>
+  <si>
+    <t>프로젝터 있음</t>
+  </si>
+  <si>
+    <t>공병11지원단(2026)</t>
+  </si>
+  <si>
+    <t>구미시</t>
+  </si>
+  <si>
+    <t>경상북도 구미시 송정대로 55</t>
+  </si>
+  <si>
+    <t>윤건우</t>
+  </si>
+  <si>
+    <t>010-7874-7033</t>
+  </si>
+  <si>
+    <t>officer86@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11사령부(2026)</t>
+  </si>
+  <si>
+    <t>원주시</t>
+  </si>
+  <si>
+    <t>강원특별자치도 원주시 서원대로 158</t>
   </si>
   <si>
     <t>2026-01-15</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>이민준</t>
-  </si>
-  <si>
-    <t>010-4466-1315</t>
-  </si>
-  <si>
-    <t>officer99@army.mil.kr</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>연병장</t>
-  </si>
-  <si>
-    <t>주차 가능</t>
-  </si>
-  <si>
-    <t>통신13연대(2026)</t>
-  </si>
-  <si>
-    <t>경기도</t>
-  </si>
-  <si>
-    <t>안양시 동안구</t>
-  </si>
-  <si>
-    <t>경기도 안양시 동안구 시민대로 230</t>
-  </si>
-  <si>
-    <t>본관 4층</t>
+    <t>강건우</t>
+  </si>
+  <si>
+    <t>010-2986-7334</t>
+  </si>
+  <si>
+    <t>officer85@army.mil.kr</t>
+  </si>
+  <si>
+    <t>체육관</t>
+  </si>
+  <si>
+    <t>공병11부대(2026)</t>
+  </si>
+  <si>
+    <t>의정부시</t>
+  </si>
+  <si>
+    <t>경기도 의정부시 청사로 1</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>황하준</t>
+  </si>
+  <si>
+    <t>010-2329-5419</t>
+  </si>
+  <si>
+    <t>officer84@army.mil.kr</t>
+  </si>
+  <si>
+    <t>대강당</t>
+  </si>
+  <si>
+    <t>공병11대대(2026)</t>
+  </si>
+  <si>
+    <t>인천광역시</t>
+  </si>
+  <si>
+    <t>계양구</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 계양대로 168</t>
   </si>
   <si>
     <t>2026-01-20</t>
   </si>
   <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>서시우</t>
+  </si>
+  <si>
+    <t>010-6610-3031</t>
+  </si>
+  <si>
+    <t>officer83@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11연대(2026)</t>
+  </si>
+  <si>
+    <t>전라남도</t>
+  </si>
+  <si>
+    <t>광양시</t>
+  </si>
+  <si>
+    <t>전라남도 광양시 시청로 33</t>
+  </si>
+  <si>
+    <t>2026-02-16</t>
+  </si>
+  <si>
+    <t>이도윤</t>
+  </si>
+  <si>
+    <t>010-9352-8598</t>
+  </si>
+  <si>
+    <t>officer82@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11여단(2026)</t>
+  </si>
+  <si>
+    <t>노원구</t>
+  </si>
+  <si>
+    <t>서울특별시 노원구 동일로 1414</t>
+  </si>
+  <si>
+    <t>황민준</t>
+  </si>
+  <si>
+    <t>010-2184-3310</t>
+  </si>
+  <si>
+    <t>officer81@army.mil.kr</t>
+  </si>
+  <si>
+    <t>교육관</t>
+  </si>
+  <si>
+    <t>공병11사단(2026)</t>
+  </si>
+  <si>
+    <t>성남시 분당구</t>
+  </si>
+  <si>
+    <t>경기도 성남시 분당구 판교역로 166</t>
+  </si>
+  <si>
+    <t>정주원</t>
+  </si>
+  <si>
+    <t>010-6329-5436</t>
+  </si>
+  <si>
+    <t>officer80@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10교육대(2026)</t>
+  </si>
+  <si>
+    <t>대전광역시</t>
+  </si>
+  <si>
+    <t>중구</t>
+  </si>
+  <si>
+    <t>대전광역시 중구 중앙로 101</t>
+  </si>
+  <si>
+    <t>2026-02-20</t>
+  </si>
+  <si>
+    <t>2026-02-22</t>
+  </si>
+  <si>
+    <t>김서준</t>
+  </si>
+  <si>
+    <t>010-1657-1676</t>
+  </si>
+  <si>
+    <t>officer79@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10지원단(2026)</t>
+  </si>
+  <si>
+    <t>영등포구</t>
+  </si>
+  <si>
+    <t>서울특별시 영등포구 여의대로 108</t>
+  </si>
+  <si>
     <t>2026-01-23</t>
   </si>
   <si>
     <t>2026-01-21</t>
   </si>
   <si>
-    <t>오지훈</t>
-  </si>
-  <si>
-    <t>010-7320-5057</t>
-  </si>
-  <si>
-    <t>officer98@army.mil.kr</t>
-  </si>
-  <si>
-    <t>회의실</t>
-  </si>
-  <si>
-    <t>음향시설 완비</t>
-  </si>
-  <si>
-    <t>통신13여단(2026)</t>
-  </si>
-  <si>
-    <t>서울특별시</t>
-  </si>
-  <si>
-    <t>서초구</t>
-  </si>
-  <si>
-    <t>서울특별시 서초구 서초대로 396</t>
-  </si>
-  <si>
-    <t>본관 1층</t>
-  </si>
-  <si>
-    <t>2026-01-26</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>2026-01-27</t>
+    <t>최민준</t>
+  </si>
+  <si>
+    <t>010-3396-3511</t>
+  </si>
+  <si>
+    <t>officer78@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10사령부(2026)</t>
+  </si>
+  <si>
+    <t>광주광역시</t>
+  </si>
+  <si>
+    <t>서구</t>
+  </si>
+  <si>
+    <t>광주광역시 서구 내방로 111</t>
+  </si>
+  <si>
+    <t>신서준</t>
+  </si>
+  <si>
+    <t>010-9871-3767</t>
+  </si>
+  <si>
+    <t>officer77@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10부대(2026)</t>
+  </si>
+  <si>
+    <t>송파구</t>
+  </si>
+  <si>
+    <t>서울특별시 송파구 올림픽로 300</t>
+  </si>
+  <si>
+    <t>박하준</t>
+  </si>
+  <si>
+    <t>010-1483-7872</t>
+  </si>
+  <si>
+    <t>officer76@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10대대(2026)</t>
+  </si>
+  <si>
+    <t>천안시 서북구</t>
+  </si>
+  <si>
+    <t>충청남도 천안시 서북구 번영로 208</t>
+  </si>
+  <si>
+    <t>최성민</t>
+  </si>
+  <si>
+    <t>010-3685-5220</t>
+  </si>
+  <si>
+    <t>officer75@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10연대(2026)</t>
+  </si>
+  <si>
+    <t>목포시</t>
+  </si>
+  <si>
+    <t>전라남도 목포시 평화로 29</t>
+  </si>
+  <si>
+    <t>최태현</t>
+  </si>
+  <si>
+    <t>010-8661-1136</t>
+  </si>
+  <si>
+    <t>officer74@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10여단(2026)</t>
+  </si>
+  <si>
+    <t>포항시 남구</t>
+  </si>
+  <si>
+    <t>경상북도 포항시 남구 시청로 1</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>신태현</t>
+  </si>
+  <si>
+    <t>010-8650-9036</t>
+  </si>
+  <si>
+    <t>officer73@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10사단(2026)</t>
+  </si>
+  <si>
+    <t>속초시</t>
+  </si>
+  <si>
+    <t>강원특별자치도 속초시 중앙로 183</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>김하준</t>
+  </si>
+  <si>
+    <t>010-8281-3657</t>
+  </si>
+  <si>
+    <t>officer72@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병9교육대(2026)</t>
+  </si>
+  <si>
+    <t>경상남도</t>
+  </si>
+  <si>
+    <t>창원시 성산구</t>
+  </si>
+  <si>
+    <t>경상남도 창원시 성산구 중앙대로 151</t>
+  </si>
+  <si>
+    <t>2026-03-02</t>
+  </si>
+  <si>
+    <t>신현우</t>
+  </si>
+  <si>
+    <t>010-7863-9907</t>
+  </si>
+  <si>
+    <t>officer71@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병9지원단(2026)</t>
+  </si>
+  <si>
+    <t>남원시</t>
+  </si>
+  <si>
+    <t>전북특별자치도 남원시 시청로 60</t>
+  </si>
+  <si>
+    <t>신건우</t>
+  </si>
+  <si>
+    <t>010-6627-3707</t>
+  </si>
+  <si>
+    <t>officer70@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9사령부(2026)</t>
+  </si>
+  <si>
+    <t>미추홀구</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 석정로 229</t>
+  </si>
+  <si>
+    <t>임도윤</t>
+  </si>
+  <si>
+    <t>010-7852-8942</t>
+  </si>
+  <si>
+    <t>officer69@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9부대(2026)</t>
+  </si>
+  <si>
+    <t>순천시</t>
+  </si>
+  <si>
+    <t>전라남도 순천시 장명로 30</t>
+  </si>
+  <si>
+    <t>한태현</t>
+  </si>
+  <si>
+    <t>010-7871-6371</t>
+  </si>
+  <si>
+    <t>officer68@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9대대(2026)</t>
+  </si>
+  <si>
+    <t>천안시 동남구</t>
+  </si>
+  <si>
+    <t>충청남도 천안시 동남구 대흥로 215</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>한서준</t>
+  </si>
+  <si>
+    <t>010-1783-9809</t>
+  </si>
+  <si>
+    <t>officer67@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9연대(2026)</t>
+  </si>
+  <si>
+    <t>안동시</t>
+  </si>
+  <si>
+    <t>경상북도 안동시 퇴계로 115</t>
+  </si>
+  <si>
+    <t>010-9053-6614</t>
+  </si>
+  <si>
+    <t>officer66@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9여단(2026)</t>
+  </si>
+  <si>
+    <t>거제시</t>
+  </si>
+  <si>
+    <t>경상남도 거제시 계룡로 125</t>
+  </si>
+  <si>
+    <t>윤서준</t>
+  </si>
+  <si>
+    <t>010-7207-2337</t>
+  </si>
+  <si>
+    <t>officer65@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9사단(2026)</t>
+  </si>
+  <si>
+    <t>공주시</t>
+  </si>
+  <si>
+    <t>충청남도 공주시 봉황로 1</t>
+  </si>
+  <si>
+    <t>신지훈</t>
+  </si>
+  <si>
+    <t>010-1685-7900</t>
+  </si>
+  <si>
+    <t>officer64@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화8교육대(2026)</t>
+  </si>
+  <si>
+    <t>유성구</t>
+  </si>
+  <si>
+    <t>대전광역시 유성구 대학로 99</t>
   </si>
   <si>
     <t>조도현</t>
   </si>
   <si>
-    <t>010-4036-8315</t>
-  </si>
-  <si>
-    <t>officer97@army.mil.kr</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>체육관</t>
-  </si>
-  <si>
-    <t>에어컨 가동</t>
-  </si>
-  <si>
-    <t>추가장소2</t>
-  </si>
-  <si>
-    <t>통신13사단(2026)</t>
-  </si>
-  <si>
-    <t>Marines</t>
-  </si>
-  <si>
-    <t>전라남도</t>
-  </si>
-  <si>
-    <t>담양군</t>
-  </si>
-  <si>
-    <t>전라남도 담양군 담양읍 추성로 1371</t>
-  </si>
-  <si>
-    <t>본관 2층</t>
-  </si>
-  <si>
-    <t>2026-02-27</t>
-  </si>
-  <si>
-    <t>2026-03-01</t>
-  </si>
-  <si>
-    <t>정지훈</t>
-  </si>
-  <si>
-    <t>010-9317-4773</t>
-  </si>
-  <si>
-    <t>officer96@army.mil.kr</t>
-  </si>
-  <si>
-    <t>세미나실</t>
-  </si>
-  <si>
-    <t>통신12교육대(2026)</t>
-  </si>
-  <si>
-    <t>MND</t>
-  </si>
-  <si>
-    <t>아산시</t>
-  </si>
-  <si>
-    <t>충청남도 아산시 번영로 224</t>
-  </si>
-  <si>
-    <t>본관 3층</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>이우진</t>
-  </si>
-  <si>
-    <t>010-3489-4249</t>
-  </si>
-  <si>
-    <t>officer95@army.mil.kr</t>
-  </si>
-  <si>
-    <t>교육센터</t>
-  </si>
-  <si>
-    <t>통신12지원단(2026)</t>
-  </si>
-  <si>
-    <t>송파구</t>
-  </si>
-  <si>
-    <t>서울특별시 송파구 올림픽로 300</t>
+    <t>010-9349-1997</t>
+  </si>
+  <si>
+    <t>officer63@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화8지원단(2026)</t>
+  </si>
+  <si>
+    <t>동구</t>
+  </si>
+  <si>
+    <t>대전광역시 동구 동대전로 133</t>
+  </si>
+  <si>
+    <t>정민준</t>
+  </si>
+  <si>
+    <t>010-6817-7519</t>
+  </si>
+  <si>
+    <t>officer62@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화8사령부(2026)</t>
+  </si>
+  <si>
+    <t>오산시</t>
+  </si>
+  <si>
+    <t>경기도 오산시 성호대로 141</t>
+  </si>
+  <si>
+    <t>윤성민</t>
+  </si>
+  <si>
+    <t>010-8656-4814</t>
+  </si>
+  <si>
+    <t>officer61@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화8부대(2026)</t>
+  </si>
+  <si>
+    <t>대구광역시</t>
+  </si>
+  <si>
+    <t>대구광역시 중구 공평로 88</t>
+  </si>
+  <si>
+    <t>2026-02-19</t>
+  </si>
+  <si>
+    <t>임민준</t>
+  </si>
+  <si>
+    <t>010-5720-2215</t>
+  </si>
+  <si>
+    <t>officer60@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전8대대(2026)</t>
+  </si>
+  <si>
+    <t>남동구</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 예술로 198</t>
+  </si>
+  <si>
+    <t>정도윤</t>
+  </si>
+  <si>
+    <t>010-3324-6579</t>
+  </si>
+  <si>
+    <t>officer59@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전8연대(2026)</t>
+  </si>
+  <si>
+    <t>대덕구</t>
+  </si>
+  <si>
+    <t>대전광역시 대덕구 대전로1033번길 20</t>
   </si>
   <si>
     <t>서서준</t>
   </si>
   <si>
-    <t>010-4048-6368</t>
-  </si>
-  <si>
-    <t>officer94@army.mil.kr</t>
-  </si>
-  <si>
-    <t>강의실</t>
-  </si>
-  <si>
-    <t>추가장소3</t>
-  </si>
-  <si>
-    <t>통신12사령부(2026)</t>
-  </si>
-  <si>
-    <t>관악구</t>
-  </si>
-  <si>
-    <t>서울특별시 관악구 관악로 145</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>윤우진</t>
-  </si>
-  <si>
-    <t>010-2129-4252</t>
-  </si>
-  <si>
-    <t>officer93@army.mil.kr</t>
-  </si>
-  <si>
-    <t>훈련장</t>
-  </si>
-  <si>
-    <t>통신12부대(2026)</t>
-  </si>
-  <si>
-    <t>서산시</t>
-  </si>
-  <si>
-    <t>충청남도 서산시 관아문길 1</t>
+    <t>010-9545-1591</t>
+  </si>
+  <si>
+    <t>officer58@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전8여단(2026)</t>
+  </si>
+  <si>
+    <t>인천광역시 서구 서곶로 307</t>
+  </si>
+  <si>
+    <t>010-9599-4522</t>
+  </si>
+  <si>
+    <t>officer57@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전8사단(2026)</t>
+  </si>
+  <si>
+    <t>김해시</t>
+  </si>
+  <si>
+    <t>경상남도 김해시 김해대로 2401</t>
+  </si>
+  <si>
+    <t>권지호</t>
+  </si>
+  <si>
+    <t>010-1526-4210</t>
+  </si>
+  <si>
+    <t>officer56@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7교육대(2026)</t>
+  </si>
+  <si>
+    <t>은평구</t>
+  </si>
+  <si>
+    <t>서울특별시 은평구 은평로 195</t>
+  </si>
+  <si>
+    <t>최현우</t>
+  </si>
+  <si>
+    <t>010-2853-7577</t>
+  </si>
+  <si>
+    <t>officer55@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7지원단(2026)</t>
+  </si>
+  <si>
+    <t>나주시</t>
+  </si>
+  <si>
+    <t>전라남도 나주시 빛가람로 601</t>
+  </si>
+  <si>
+    <t>010-5592-3877</t>
+  </si>
+  <si>
+    <t>officer54@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7사령부(2026)</t>
+  </si>
+  <si>
+    <t>이천시</t>
+  </si>
+  <si>
+    <t>경기도 이천시 부악로 40</t>
+  </si>
+  <si>
+    <t>신예준</t>
+  </si>
+  <si>
+    <t>010-2053-5881</t>
+  </si>
+  <si>
+    <t>officer53@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7부대(2026)</t>
+  </si>
+  <si>
+    <t>용인시 처인구</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 중부대로 1199</t>
   </si>
   <si>
     <t>윤지호</t>
   </si>
   <si>
-    <t>010-1038-9211</t>
-  </si>
-  <si>
-    <t>officer92@army.mil.kr</t>
-  </si>
-  <si>
-    <t>통신12대대(2026)</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>고양시 덕양구</t>
-  </si>
-  <si>
-    <t>경기도 고양시 덕양구 고양대로 1955</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>2026-01-06</t>
+    <t>010-2467-7345</t>
+  </si>
+  <si>
+    <t>officer52@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7대대(2026)</t>
+  </si>
+  <si>
+    <t>고양시 일산동구</t>
+  </si>
+  <si>
+    <t>경기도 고양시 일산동구 중앙로 1286</t>
+  </si>
+  <si>
+    <t>신하준</t>
+  </si>
+  <si>
+    <t>010-1593-8136</t>
+  </si>
+  <si>
+    <t>officer51@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7연대(2026)</t>
+  </si>
+  <si>
+    <t>달서구</t>
+  </si>
+  <si>
+    <t>대구광역시 달서구 학산로 30</t>
   </si>
   <si>
     <t>신성민</t>
   </si>
   <si>
-    <t>010-6624-9572</t>
-  </si>
-  <si>
-    <t>officer91@army.mil.kr</t>
-  </si>
-  <si>
-    <t>프로젝터 있음</t>
-  </si>
-  <si>
-    <t>통신12연대(2026)</t>
-  </si>
-  <si>
-    <t>화성시</t>
-  </si>
-  <si>
-    <t>경기도 화성시 남양읍 시청로 159</t>
-  </si>
-  <si>
-    <t>이성민</t>
-  </si>
-  <si>
-    <t>010-8670-6595</t>
-  </si>
-  <si>
-    <t>officer90@army.mil.kr</t>
-  </si>
-  <si>
-    <t>대강당</t>
-  </si>
-  <si>
-    <t>공병12여단(2026)</t>
-  </si>
-  <si>
-    <t>강원특별자치도</t>
-  </si>
-  <si>
-    <t>삼척시</t>
-  </si>
-  <si>
-    <t>강원특별자치도 삼척시 중앙로 296</t>
-  </si>
-  <si>
-    <t>2026-01-07</t>
-  </si>
-  <si>
-    <t>윤재원</t>
-  </si>
-  <si>
-    <t>010-3556-6787</t>
-  </si>
-  <si>
-    <t>officer89@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병12사단(2026)</t>
-  </si>
-  <si>
-    <t>전북특별자치도</t>
-  </si>
-  <si>
-    <t>익산시</t>
-  </si>
-  <si>
-    <t>전북특별자치도 익산시 인북로 140</t>
-  </si>
-  <si>
-    <t>2026-02-06</t>
-  </si>
-  <si>
-    <t>2026-02-08</t>
-  </si>
-  <si>
-    <t>오우진</t>
-  </si>
-  <si>
-    <t>010-2895-5007</t>
-  </si>
-  <si>
-    <t>officer88@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11교육대(2026)</t>
-  </si>
-  <si>
-    <t>충청북도</t>
-  </si>
-  <si>
-    <t>청주시 흥덕구</t>
-  </si>
-  <si>
-    <t>충청북도 청주시 흥덕구 강내면 청주역로 71</t>
-  </si>
-  <si>
-    <t>2026-02-05</t>
-  </si>
-  <si>
-    <t>2026-02-07</t>
-  </si>
-  <si>
-    <t>정도윤</t>
-  </si>
-  <si>
-    <t>010-2397-3826</t>
-  </si>
-  <si>
-    <t>officer87@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11지원단(2026)</t>
-  </si>
-  <si>
-    <t>강동구</t>
-  </si>
-  <si>
-    <t>서울특별시 강동구 천호대로 1017</t>
-  </si>
-  <si>
-    <t>2026-01-19</t>
-  </si>
-  <si>
-    <t>2026-01-22</t>
-  </si>
-  <si>
-    <t>조시우</t>
-  </si>
-  <si>
-    <t>010-3368-5434</t>
-  </si>
-  <si>
-    <t>officer86@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11사령부(2026)</t>
-  </si>
-  <si>
-    <t>AirForce</t>
-  </si>
-  <si>
-    <t>대전광역시</t>
-  </si>
-  <si>
-    <t>동구</t>
-  </si>
-  <si>
-    <t>대전광역시 동구 동대전로 133</t>
-  </si>
-  <si>
-    <t>2026-02-13</t>
-  </si>
-  <si>
-    <t>2026-02-15</t>
-  </si>
-  <si>
-    <t>장예준</t>
-  </si>
-  <si>
-    <t>010-3412-9990</t>
-  </si>
-  <si>
-    <t>officer85@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11부대(2026)</t>
-  </si>
-  <si>
-    <t>남양주시</t>
-  </si>
-  <si>
-    <t>경기도 남양주시 경춘로 1037</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>김예준</t>
-  </si>
-  <si>
-    <t>010-2441-8343</t>
-  </si>
-  <si>
-    <t>officer84@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11대대(2026)</t>
-  </si>
-  <si>
-    <t>군산시</t>
-  </si>
-  <si>
-    <t>전북특별자치도 군산시 시청로 17</t>
-  </si>
-  <si>
-    <t>2026-02-12</t>
-  </si>
-  <si>
-    <t>2026-02-14</t>
-  </si>
-  <si>
-    <t>신시우</t>
-  </si>
-  <si>
-    <t>010-3836-9935</t>
-  </si>
-  <si>
-    <t>officer83@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11연대(2026)</t>
-  </si>
-  <si>
-    <t>영등포구</t>
-  </si>
-  <si>
-    <t>서울특별시 영등포구 여의대로 108</t>
-  </si>
-  <si>
-    <t>임시우</t>
-  </si>
-  <si>
-    <t>010-6157-2150</t>
-  </si>
-  <si>
-    <t>officer82@army.mil.kr</t>
-  </si>
-  <si>
-    <t>다목적실</t>
-  </si>
-  <si>
-    <t>공병11여단(2026)</t>
-  </si>
-  <si>
-    <t>경상북도</t>
-  </si>
-  <si>
-    <t>영주시</t>
-  </si>
-  <si>
-    <t>경상북도 영주시 시청로 1</t>
-  </si>
-  <si>
-    <t>이시우</t>
-  </si>
-  <si>
-    <t>010-3197-5170</t>
-  </si>
-  <si>
-    <t>officer81@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11사단(2026)</t>
-  </si>
-  <si>
-    <t>광주광역시</t>
-  </si>
-  <si>
-    <t>북구</t>
-  </si>
-  <si>
-    <t>광주광역시 북구 용봉로 77</t>
-  </si>
-  <si>
-    <t>이하준</t>
-  </si>
-  <si>
-    <t>010-7164-1517</t>
-  </si>
-  <si>
-    <t>officer80@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10교육대(2026)</t>
-  </si>
-  <si>
-    <t>계룡시</t>
-  </si>
-  <si>
-    <t>충청남도 계룡시 장안로 46</t>
-  </si>
-  <si>
-    <t>권도현</t>
-  </si>
-  <si>
-    <t>010-7720-4292</t>
-  </si>
-  <si>
-    <t>officer79@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10지원단(2026)</t>
-  </si>
-  <si>
-    <t>안동시</t>
-  </si>
-  <si>
-    <t>경상북도 안동시 퇴계로 115</t>
-  </si>
-  <si>
-    <t>한도현</t>
-  </si>
-  <si>
-    <t>010-6992-8925</t>
-  </si>
-  <si>
-    <t>officer78@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10사령부(2026)</t>
-  </si>
-  <si>
-    <t>횡성군</t>
-  </si>
-  <si>
-    <t>강원특별자치도 횡성군 횡성로 111</t>
-  </si>
-  <si>
-    <t>2026-01-30</t>
-  </si>
-  <si>
-    <t>서민준</t>
-  </si>
-  <si>
-    <t>010-7675-3713</t>
-  </si>
-  <si>
-    <t>officer77@army.mil.kr</t>
-  </si>
-  <si>
-    <t>교육관</t>
-  </si>
-  <si>
-    <t>포병10부대(2026)</t>
-  </si>
-  <si>
-    <t>성북구</t>
-  </si>
-  <si>
-    <t>서울특별시 성북구 성북로 76</t>
-  </si>
-  <si>
-    <t>박예준</t>
-  </si>
-  <si>
-    <t>010-9260-9918</t>
-  </si>
-  <si>
-    <t>officer76@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10대대(2026)</t>
-  </si>
-  <si>
-    <t>광주광역시 동구 서남로 1</t>
-  </si>
-  <si>
-    <t>2026-02-16</t>
-  </si>
-  <si>
-    <t>최현우</t>
-  </si>
-  <si>
-    <t>010-9255-8502</t>
-  </si>
-  <si>
-    <t>officer75@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10연대(2026)</t>
-  </si>
-  <si>
-    <t>음성군</t>
-  </si>
-  <si>
-    <t>충청북도 음성군 음성읍 수정로 38</t>
-  </si>
-  <si>
-    <t>2026-02-26</t>
-  </si>
-  <si>
-    <t>2026-02-28</t>
-  </si>
-  <si>
-    <t>김도현</t>
-  </si>
-  <si>
-    <t>010-1951-5585</t>
-  </si>
-  <si>
-    <t>officer74@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10여단(2026)</t>
-  </si>
-  <si>
-    <t>종로구</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 세종대로 209</t>
-  </si>
-  <si>
-    <t>서도윤</t>
-  </si>
-  <si>
-    <t>010-3472-9284</t>
-  </si>
-  <si>
-    <t>officer73@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10사단(2026)</t>
-  </si>
-  <si>
-    <t>제천시</t>
-  </si>
-  <si>
-    <t>충청북도 제천시 내토로 295</t>
-  </si>
-  <si>
-    <t>임도윤</t>
-  </si>
-  <si>
-    <t>010-3971-1564</t>
-  </si>
-  <si>
-    <t>officer72@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병9교육대(2026)</t>
-  </si>
-  <si>
-    <t>대구광역시</t>
-  </si>
-  <si>
-    <t>중구</t>
-  </si>
-  <si>
-    <t>대구광역시 중구 공평로 88</t>
-  </si>
-  <si>
-    <t>장우진</t>
-  </si>
-  <si>
-    <t>010-8482-7235</t>
-  </si>
-  <si>
-    <t>officer71@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병9지원단(2026)</t>
-  </si>
-  <si>
-    <t>정읍시</t>
-  </si>
-  <si>
-    <t>전북특별자치도 정읍시 충정로 379</t>
-  </si>
-  <si>
-    <t>최지훈</t>
-  </si>
-  <si>
-    <t>010-3621-5709</t>
-  </si>
-  <si>
-    <t>officer70@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9사령부(2026)</t>
-  </si>
-  <si>
-    <t>서구</t>
-  </si>
-  <si>
-    <t>대전광역시 서구 둔산로 100</t>
-  </si>
-  <si>
-    <t>010-9704-9972</t>
-  </si>
-  <si>
-    <t>officer69@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9부대(2026)</t>
-  </si>
-  <si>
-    <t>수원시 영통구</t>
-  </si>
-  <si>
-    <t>경기도 수원시 영통구 광교로 156</t>
-  </si>
-  <si>
-    <t>오하준</t>
-  </si>
-  <si>
-    <t>010-5783-2269</t>
-  </si>
-  <si>
-    <t>officer68@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9대대(2026)</t>
-  </si>
-  <si>
-    <t>인천광역시</t>
-  </si>
-  <si>
-    <t>인천광역시 중구 신포로27번길 80</t>
-  </si>
-  <si>
-    <t>권주원</t>
-  </si>
-  <si>
-    <t>010-4715-7575</t>
-  </si>
-  <si>
-    <t>officer67@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9연대(2026)</t>
-  </si>
-  <si>
-    <t>은평구</t>
-  </si>
-  <si>
-    <t>서울특별시 은평구 은평로 195</t>
-  </si>
-  <si>
-    <t>조성민</t>
-  </si>
-  <si>
-    <t>010-2669-6820</t>
-  </si>
-  <si>
-    <t>officer66@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9여단(2026)</t>
-  </si>
-  <si>
-    <t>대전광역시 중구 중앙로 101</t>
-  </si>
-  <si>
-    <t>2026-02-19</t>
-  </si>
-  <si>
-    <t>2026-02-21</t>
-  </si>
-  <si>
-    <t>010-6928-8403</t>
-  </si>
-  <si>
-    <t>officer65@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9사단(2026)</t>
-  </si>
-  <si>
-    <t>시흥시</t>
-  </si>
-  <si>
-    <t>경기도 시흥시 시청로 20</t>
-  </si>
-  <si>
-    <t>김도윤</t>
-  </si>
-  <si>
-    <t>010-6868-9594</t>
-  </si>
-  <si>
-    <t>officer64@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화8교육대(2026)</t>
-  </si>
-  <si>
-    <t>경상남도</t>
-  </si>
-  <si>
-    <t>거제시</t>
-  </si>
-  <si>
-    <t>경상남도 거제시 계룡로 125</t>
-  </si>
-  <si>
-    <t>박태현</t>
-  </si>
-  <si>
-    <t>010-8623-5975</t>
-  </si>
-  <si>
-    <t>officer63@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화8지원단(2026)</t>
-  </si>
-  <si>
-    <t>동해시</t>
-  </si>
-  <si>
-    <t>강원특별자치도 동해시 천곡로 77</t>
-  </si>
-  <si>
-    <t>정하준</t>
-  </si>
-  <si>
-    <t>010-6511-4045</t>
-  </si>
-  <si>
-    <t>officer62@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화8사령부(2026)</t>
-  </si>
-  <si>
-    <t>김천시</t>
-  </si>
-  <si>
-    <t>경상북도 김천시 시청로 20</t>
-  </si>
-  <si>
-    <t>010-9410-7178</t>
-  </si>
-  <si>
-    <t>officer61@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화8부대(2026)</t>
-  </si>
-  <si>
-    <t>구미시</t>
-  </si>
-  <si>
-    <t>경상북도 구미시 송정대로 55</t>
-  </si>
-  <si>
-    <t>2026-03-02</t>
-  </si>
-  <si>
-    <t>임지훈</t>
-  </si>
-  <si>
-    <t>010-1007-8633</t>
-  </si>
-  <si>
-    <t>officer60@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전8대대(2026)</t>
-  </si>
-  <si>
-    <t>강남구</t>
-  </si>
-  <si>
-    <t>서울특별시 강남구 테헤란로 152</t>
-  </si>
-  <si>
-    <t>신지호</t>
-  </si>
-  <si>
-    <t>010-9930-7952</t>
-  </si>
-  <si>
-    <t>officer59@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전8연대(2026)</t>
-  </si>
-  <si>
-    <t>남동구</t>
-  </si>
-  <si>
-    <t>인천광역시 남동구 예술로 198</t>
-  </si>
-  <si>
-    <t>서성민</t>
-  </si>
-  <si>
-    <t>010-8122-8961</t>
-  </si>
-  <si>
-    <t>officer58@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전8여단(2026)</t>
-  </si>
-  <si>
-    <t>용인시 처인구</t>
-  </si>
-  <si>
-    <t>경기도 용인시 처인구 중부대로 1199</t>
-  </si>
-  <si>
-    <t>010-5860-9856</t>
-  </si>
-  <si>
-    <t>officer57@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전8사단(2026)</t>
-  </si>
-  <si>
-    <t>진천군</t>
-  </si>
-  <si>
-    <t>충청북도 진천군 진천읍 중앙서로 11</t>
-  </si>
-  <si>
-    <t>장민준</t>
-  </si>
-  <si>
-    <t>010-2572-2032</t>
-  </si>
-  <si>
-    <t>officer56@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7교육대(2026)</t>
-  </si>
-  <si>
-    <t>창원시 성산구</t>
-  </si>
-  <si>
-    <t>경상남도 창원시 성산구 중앙대로 151</t>
-  </si>
-  <si>
-    <t>임주원</t>
-  </si>
-  <si>
-    <t>010-2562-8358</t>
-  </si>
-  <si>
-    <t>officer55@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7지원단(2026)</t>
-  </si>
-  <si>
-    <t>전주시 완산구</t>
-  </si>
-  <si>
-    <t>전북특별자치도 전주시 완산구 효자로 225</t>
-  </si>
-  <si>
-    <t>010-5260-5676</t>
-  </si>
-  <si>
-    <t>officer54@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7사령부(2026)</t>
-  </si>
-  <si>
-    <t>안산시 단원구</t>
-  </si>
-  <si>
-    <t>경기도 안산시 단원구 광덕대로 142</t>
-  </si>
-  <si>
-    <t>정우진</t>
-  </si>
-  <si>
-    <t>010-1208-4657</t>
-  </si>
-  <si>
-    <t>officer53@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7부대(2026)</t>
-  </si>
-  <si>
-    <t>평택시</t>
-  </si>
-  <si>
-    <t>경기도 평택시 평택로 51</t>
-  </si>
-  <si>
-    <t>신건우</t>
-  </si>
-  <si>
-    <t>010-9485-9045</t>
-  </si>
-  <si>
-    <t>officer52@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7대대(2026)</t>
-  </si>
-  <si>
-    <t>속초시</t>
-  </si>
-  <si>
-    <t>강원특별자치도 속초시 중앙로 183</t>
-  </si>
-  <si>
-    <t>김주원</t>
-  </si>
-  <si>
-    <t>010-7124-3748</t>
-  </si>
-  <si>
-    <t>officer51@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7연대(2026)</t>
-  </si>
-  <si>
-    <t>남원시</t>
-  </si>
-  <si>
-    <t>전북특별자치도 남원시 시청로 60</t>
-  </si>
-  <si>
-    <t>010-9513-6391</t>
+    <t>010-7542-6221</t>
   </si>
   <si>
     <t>officer50@army.mil.kr</t>
@@ -1588,7 +1597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z71"/>
+  <dimension ref="A1:Z74"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1732,13 +1741,13 @@
         <v>43</v>
       </c>
       <c r="R7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S7" t="s">
         <v>43</v>
       </c>
       <c r="T7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s">
         <v>35</v>
@@ -1750,42 +1759,42 @@
         <v>43</v>
       </c>
       <c r="X7">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="Y7">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="Z7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
         <v>36</v>
@@ -1800,16 +1809,16 @@
         <v>39</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R8" t="s">
         <v>43</v>
@@ -1818,7 +1827,7 @@
         <v>43</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
         <v>35</v>
@@ -1830,93 +1839,93 @@
         <v>43</v>
       </c>
       <c r="X8">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="Y8">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="Z8" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" t="s">
         <v>60</v>
       </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="U9" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9">
+        <v>70</v>
+      </c>
+      <c r="Y9">
         <v>66</v>
       </c>
-      <c r="J9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P9" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" t="s">
-        <v>70</v>
-      </c>
-      <c r="S9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" t="s">
-        <v>71</v>
-      </c>
-      <c r="U9" t="s">
-        <v>35</v>
-      </c>
-      <c r="V9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W9" t="s">
-        <v>43</v>
-      </c>
-      <c r="X9">
-        <v>57</v>
-      </c>
-      <c r="Y9">
-        <v>56</v>
-      </c>
       <c r="Z9" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -1978,7 +1987,7 @@
         <v>35</v>
       </c>
       <c r="T10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="U10" t="s">
         <v>35</v>
@@ -1990,10 +1999,10 @@
         <v>43</v>
       </c>
       <c r="X10">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="Y10">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="Z10" t="s">
         <v>35</v>
@@ -2001,28 +2010,28 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -2040,25 +2049,25 @@
         <v>39</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="O11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="P11" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="Q11" t="s">
         <v>43</v>
       </c>
       <c r="R11" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="S11" t="s">
         <v>43</v>
       </c>
       <c r="T11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s">
         <v>35</v>
@@ -2070,39 +2079,39 @@
         <v>43</v>
       </c>
       <c r="X11">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="Y11">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="Z11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
         <v>35</v>
@@ -2120,13 +2129,13 @@
         <v>39</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Q12" t="s">
         <v>43</v>
@@ -2138,7 +2147,7 @@
         <v>43</v>
       </c>
       <c r="T12" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U12" t="s">
         <v>35</v>
@@ -2150,42 +2159,42 @@
         <v>43</v>
       </c>
       <c r="X12">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="Y12">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="Z12" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
         <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s">
         <v>36</v>
@@ -2200,13 +2209,13 @@
         <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q13" t="s">
         <v>43</v>
@@ -2218,7 +2227,7 @@
         <v>43</v>
       </c>
       <c r="T13" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
         <v>35</v>
@@ -2230,13 +2239,13 @@
         <v>43</v>
       </c>
       <c r="X13">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="Y13">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="Z13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -2298,7 +2307,7 @@
         <v>35</v>
       </c>
       <c r="T14" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
         <v>35</v>
@@ -2310,10 +2319,10 @@
         <v>43</v>
       </c>
       <c r="X14">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="Y14">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="Z14" t="s">
         <v>35</v>
@@ -2321,64 +2330,64 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N15" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="O15" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="Q15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R15" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T15" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="U15" t="s">
         <v>35</v>
@@ -2390,10 +2399,10 @@
         <v>43</v>
       </c>
       <c r="X15">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="Y15">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="Z15" t="s">
         <v>35</v>
@@ -2401,65 +2410,65 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" t="s">
         <v>60</v>
       </c>
-      <c r="D16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>108</v>
-      </c>
-      <c r="I16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" t="s">
-        <v>109</v>
-      </c>
-      <c r="O16" t="s">
-        <v>110</v>
-      </c>
-      <c r="P16" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R16" t="s">
-        <v>70</v>
-      </c>
-      <c r="S16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T16" t="s">
-        <v>112</v>
-      </c>
       <c r="U16" t="s">
         <v>35</v>
       </c>
@@ -2470,75 +2479,75 @@
         <v>43</v>
       </c>
       <c r="X16">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="Y16">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="Z16" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
         <v>35</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="O17" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="P17" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="Q17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R17" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T17" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="U17" t="s">
         <v>35</v>
@@ -2550,39 +2559,39 @@
         <v>43</v>
       </c>
       <c r="X17">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y17">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Z17" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
         <v>35</v>
@@ -2600,16 +2609,16 @@
         <v>39</v>
       </c>
       <c r="N18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="O18" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R18" t="s">
         <v>43</v>
@@ -2618,7 +2627,7 @@
         <v>43</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="U18" t="s">
         <v>35</v>
@@ -2630,42 +2639,42 @@
         <v>43</v>
       </c>
       <c r="X18">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="Y18">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="Z18" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I19" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="J19" t="s">
         <v>36</v>
@@ -2680,25 +2689,25 @@
         <v>39</v>
       </c>
       <c r="N19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P19" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q19" t="s">
         <v>43</v>
       </c>
       <c r="R19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S19" t="s">
         <v>43</v>
       </c>
       <c r="T19" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="U19" t="s">
         <v>35</v>
@@ -2710,75 +2719,75 @@
         <v>43</v>
       </c>
       <c r="X19">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="Y19">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="Z19" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N20" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="Q20" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="R20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T20" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="U20" t="s">
         <v>35</v>
@@ -2790,75 +2799,75 @@
         <v>43</v>
       </c>
       <c r="X20">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Y20">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="Z20" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
         <v>35</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N21" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="Q21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="R21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T21" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="U21" t="s">
         <v>35</v>
@@ -2870,39 +2879,39 @@
         <v>43</v>
       </c>
       <c r="X21">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Y21">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="Z21" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s">
         <v>35</v>
@@ -2920,25 +2929,25 @@
         <v>39</v>
       </c>
       <c r="N22" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="O22" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="Q22" t="s">
         <v>43</v>
       </c>
       <c r="R22" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="S22" t="s">
         <v>43</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="U22" t="s">
         <v>35</v>
@@ -2950,39 +2959,39 @@
         <v>43</v>
       </c>
       <c r="X22">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Y22">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Z22" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="H23" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="I23" t="s">
         <v>35</v>
@@ -3000,16 +3009,16 @@
         <v>39</v>
       </c>
       <c r="N23" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="O23" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="Q23" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="R23" t="s">
         <v>43</v>
@@ -3018,7 +3027,7 @@
         <v>43</v>
       </c>
       <c r="T23" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="U23" t="s">
         <v>35</v>
@@ -3030,42 +3039,42 @@
         <v>43</v>
       </c>
       <c r="X23">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="Y23">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="H24" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J24" t="s">
         <v>36</v>
@@ -3080,13 +3089,13 @@
         <v>39</v>
       </c>
       <c r="N24" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="O24" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="Q24" t="s">
         <v>43</v>
@@ -3098,7 +3107,7 @@
         <v>43</v>
       </c>
       <c r="T24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="U24" t="s">
         <v>35</v>
@@ -3110,75 +3119,75 @@
         <v>43</v>
       </c>
       <c r="X24">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="Y24">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="Z24" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s">
         <v>35</v>
       </c>
       <c r="J25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N25" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="O25" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="P25" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="Q25" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R25" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S25" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T25" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="U25" t="s">
         <v>35</v>
@@ -3190,75 +3199,75 @@
         <v>43</v>
       </c>
       <c r="X25">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Y25">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="Z25" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s">
         <v>35</v>
       </c>
       <c r="J26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N26" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="O26" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="P26" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="Q26" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R26" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S26" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T26" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="U26" t="s">
         <v>35</v>
@@ -3270,39 +3279,39 @@
         <v>43</v>
       </c>
       <c r="X26">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="Y26">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="Z26" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" t="s">
         <v>171</v>
-      </c>
-      <c r="B27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" t="s">
-        <v>175</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" t="s">
-        <v>176</v>
-      </c>
-      <c r="H27" t="s">
-        <v>177</v>
       </c>
       <c r="I27" t="s">
         <v>35</v>
@@ -3320,25 +3329,25 @@
         <v>39</v>
       </c>
       <c r="N27" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O27" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q27" t="s">
         <v>43</v>
       </c>
       <c r="R27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S27" t="s">
         <v>43</v>
       </c>
       <c r="T27" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="U27" t="s">
         <v>35</v>
@@ -3350,39 +3359,39 @@
         <v>43</v>
       </c>
       <c r="X27">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y27">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Z27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E28" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I28" t="s">
         <v>35</v>
@@ -3400,16 +3409,16 @@
         <v>39</v>
       </c>
       <c r="N28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O28" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R28" t="s">
         <v>43</v>
@@ -3418,7 +3427,7 @@
         <v>43</v>
       </c>
       <c r="T28" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="U28" t="s">
         <v>35</v>
@@ -3430,39 +3439,39 @@
         <v>43</v>
       </c>
       <c r="X28">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="Y28">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="Z28" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" t="s">
         <v>188</v>
       </c>
-      <c r="B29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C29" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="H29" t="s">
         <v>189</v>
-      </c>
-      <c r="E29" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" t="s">
-        <v>191</v>
-      </c>
-      <c r="H29" t="s">
-        <v>192</v>
       </c>
       <c r="I29" t="s">
         <v>35</v>
@@ -3480,16 +3489,16 @@
         <v>39</v>
       </c>
       <c r="N29" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O29" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q29" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="R29" t="s">
         <v>43</v>
@@ -3498,7 +3507,7 @@
         <v>43</v>
       </c>
       <c r="T29" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
         <v>35</v>
@@ -3510,42 +3519,42 @@
         <v>43</v>
       </c>
       <c r="X29">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="Y29">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Z29" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" t="s">
         <v>196</v>
       </c>
-      <c r="B30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" t="s">
         <v>197</v>
       </c>
-      <c r="E30" t="s">
-        <v>198</v>
-      </c>
-      <c r="F30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" t="s">
-        <v>108</v>
-      </c>
       <c r="I30" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="J30" t="s">
         <v>36</v>
@@ -3560,25 +3569,25 @@
         <v>39</v>
       </c>
       <c r="N30" t="s">
+        <v>198</v>
+      </c>
+      <c r="O30" t="s">
         <v>199</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>200</v>
       </c>
-      <c r="P30" t="s">
-        <v>201</v>
-      </c>
       <c r="Q30" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="R30" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="S30" t="s">
         <v>43</v>
       </c>
       <c r="T30" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="U30" t="s">
         <v>35</v>
@@ -3590,75 +3599,75 @@
         <v>43</v>
       </c>
       <c r="X30">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="Y30">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="Z30" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N31" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="O31" t="s">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="P31" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="Q31" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R31" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S31" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T31" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="U31" t="s">
         <v>35</v>
@@ -3670,13 +3679,13 @@
         <v>43</v>
       </c>
       <c r="X31">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="Y31">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="Z31" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
@@ -3738,7 +3747,7 @@
         <v>35</v>
       </c>
       <c r="T32" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="U32" t="s">
         <v>35</v>
@@ -3750,10 +3759,10 @@
         <v>43</v>
       </c>
       <c r="X32">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="Y32">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="Z32" t="s">
         <v>35</v>
@@ -3761,64 +3770,64 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="I33" t="s">
         <v>35</v>
       </c>
       <c r="J33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N33" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="O33" t="s">
-        <v>208</v>
+        <v>35</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="Q33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="R33" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="S33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T33" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="U33" t="s">
         <v>35</v>
@@ -3830,42 +3839,42 @@
         <v>43</v>
       </c>
       <c r="X33">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="Y33">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="Z33" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" t="s">
         <v>210</v>
       </c>
-      <c r="B34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" t="s">
-        <v>211</v>
-      </c>
-      <c r="D34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E34" t="s">
-        <v>213</v>
-      </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="G34" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="J34" t="s">
         <v>36</v>
@@ -3880,25 +3889,25 @@
         <v>39</v>
       </c>
       <c r="N34" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P34" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q34" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="R34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S34" t="s">
         <v>43</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="U34" t="s">
         <v>35</v>
@@ -3910,75 +3919,75 @@
         <v>43</v>
       </c>
       <c r="X34">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y34">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Z34" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I35" t="s">
         <v>35</v>
       </c>
       <c r="J35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N35" t="s">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="O35" t="s">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="P35" t="s">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="Q35" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="R35" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S35" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T35" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="U35" t="s">
         <v>35</v>
@@ -3990,75 +3999,75 @@
         <v>43</v>
       </c>
       <c r="X35">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="Y35">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="Z35" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="I36" t="s">
         <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N36" t="s">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="O36" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="P36" t="s">
-        <v>228</v>
+        <v>35</v>
       </c>
       <c r="Q36" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="R36" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T36" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="U36" t="s">
         <v>35</v>
@@ -4070,39 +4079,39 @@
         <v>43</v>
       </c>
       <c r="X36">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="Y36">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Z36" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="D37" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E37" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="G37" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="H37" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="I37" t="s">
         <v>35</v>
@@ -4120,25 +4129,25 @@
         <v>39</v>
       </c>
       <c r="N37" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="O37" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P37" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="Q37" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="R37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S37" t="s">
         <v>43</v>
       </c>
       <c r="T37" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="U37" t="s">
         <v>35</v>
@@ -4150,42 +4159,42 @@
         <v>43</v>
       </c>
       <c r="X37">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="Y37">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="Z37" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="E38" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="G38" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="H38" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I38" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="J38" t="s">
         <v>36</v>
@@ -4200,25 +4209,25 @@
         <v>39</v>
       </c>
       <c r="N38" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="O38" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="P38" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="Q38" t="s">
         <v>43</v>
       </c>
       <c r="R38" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="S38" t="s">
         <v>43</v>
       </c>
       <c r="T38" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="U38" t="s">
         <v>35</v>
@@ -4230,13 +4239,13 @@
         <v>43</v>
       </c>
       <c r="X38">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="Y38">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="Z38" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
@@ -4298,7 +4307,7 @@
         <v>35</v>
       </c>
       <c r="T39" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="U39" t="s">
         <v>35</v>
@@ -4310,10 +4319,10 @@
         <v>43</v>
       </c>
       <c r="X39">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="Y39">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="Z39" t="s">
         <v>35</v>
@@ -4321,64 +4330,64 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="I40" t="s">
         <v>35</v>
       </c>
       <c r="J40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L40" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M40" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N40" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="O40" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="P40" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="Q40" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R40" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S40" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T40" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="U40" t="s">
         <v>35</v>
@@ -4390,10 +4399,10 @@
         <v>43</v>
       </c>
       <c r="X40">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Y40">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="Z40" t="s">
         <v>35</v>
@@ -4401,31 +4410,31 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>174</v>
+        <v>239</v>
       </c>
       <c r="E41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F41" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="H41" t="s">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="I41" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="J41" t="s">
         <v>36</v>
@@ -4440,25 +4449,25 @@
         <v>39</v>
       </c>
       <c r="N41" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O41" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P41" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q41" t="s">
         <v>43</v>
       </c>
       <c r="R41" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="S41" t="s">
         <v>43</v>
       </c>
       <c r="T41" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="U41" t="s">
         <v>35</v>
@@ -4470,75 +4479,75 @@
         <v>43</v>
       </c>
       <c r="X41">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="Y41">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="Z41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="E42" t="s">
-        <v>251</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="H42" t="s">
-        <v>253</v>
+        <v>35</v>
       </c>
       <c r="I42" t="s">
         <v>35</v>
       </c>
       <c r="J42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N42" t="s">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c r="O42" t="s">
-        <v>255</v>
+        <v>35</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="Q42" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="R42" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S42" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T42" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="U42" t="s">
         <v>35</v>
@@ -4550,10 +4559,10 @@
         <v>43</v>
       </c>
       <c r="X42">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="Y42">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s">
         <v>35</v>
@@ -4561,31 +4570,31 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E43" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="G43" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="H43" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="I43" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="J43" t="s">
         <v>36</v>
@@ -4600,25 +4609,25 @@
         <v>39</v>
       </c>
       <c r="N43" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="O43" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="P43" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="Q43" t="s">
         <v>43</v>
       </c>
       <c r="R43" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="S43" t="s">
         <v>43</v>
       </c>
       <c r="T43" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="U43" t="s">
         <v>35</v>
@@ -4630,75 +4639,75 @@
         <v>43</v>
       </c>
       <c r="X43">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="Y43">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="Z43" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="I44" t="s">
         <v>35</v>
       </c>
       <c r="J44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M44" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N44" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
       <c r="O44" t="s">
-        <v>35</v>
+        <v>254</v>
       </c>
       <c r="P44" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="Q44" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R44" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S44" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T44" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="U44" t="s">
         <v>35</v>
@@ -4710,10 +4719,10 @@
         <v>43</v>
       </c>
       <c r="X44">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="Y44">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="Z44" t="s">
         <v>35</v>
@@ -4721,28 +4730,28 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E45" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="I45" t="s">
         <v>35</v>
@@ -4760,25 +4769,25 @@
         <v>39</v>
       </c>
       <c r="N45" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O45" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P45" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q45" t="s">
         <v>43</v>
       </c>
       <c r="R45" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="S45" t="s">
         <v>43</v>
       </c>
       <c r="T45" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U45" t="s">
         <v>35</v>
@@ -4790,39 +4799,39 @@
         <v>43</v>
       </c>
       <c r="X45">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="Y45">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="Z45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>270</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c r="H46" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="I46" t="s">
         <v>35</v>
@@ -4840,25 +4849,25 @@
         <v>39</v>
       </c>
       <c r="N46" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O46" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P46" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q46" t="s">
         <v>43</v>
       </c>
       <c r="R46" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="S46" t="s">
         <v>43</v>
       </c>
       <c r="T46" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="U46" t="s">
         <v>35</v>
@@ -4870,39 +4879,39 @@
         <v>43</v>
       </c>
       <c r="X46">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="Y46">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Z46" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c r="D47" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E47" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="G47" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="H47" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="I47" t="s">
         <v>35</v>
@@ -4920,25 +4929,25 @@
         <v>39</v>
       </c>
       <c r="N47" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O47" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P47" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q47" t="s">
         <v>43</v>
       </c>
       <c r="R47" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="S47" t="s">
         <v>43</v>
       </c>
       <c r="T47" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="U47" t="s">
         <v>35</v>
@@ -4950,33 +4959,33 @@
         <v>43</v>
       </c>
       <c r="X47">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="Y47">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="Z47" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E48" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G48" t="s">
         <v>149</v>
@@ -5000,16 +5009,16 @@
         <v>39</v>
       </c>
       <c r="N48" t="s">
-        <v>67</v>
+        <v>281</v>
       </c>
       <c r="O48" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P48" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R48" t="s">
         <v>43</v>
@@ -5018,7 +5027,7 @@
         <v>43</v>
       </c>
       <c r="T48" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="U48" t="s">
         <v>35</v>
@@ -5030,42 +5039,42 @@
         <v>43</v>
       </c>
       <c r="X48">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="Y48">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="Z48" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="D49" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E49" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F49" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G49" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="H49" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="I49" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J49" t="s">
         <v>36</v>
@@ -5080,25 +5089,25 @@
         <v>39</v>
       </c>
       <c r="N49" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O49" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P49" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q49" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="R49" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="S49" t="s">
         <v>43</v>
       </c>
       <c r="T49" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="U49" t="s">
         <v>35</v>
@@ -5110,75 +5119,75 @@
         <v>43</v>
       </c>
       <c r="X49">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="Y49">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="Z49" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>290</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>291</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>292</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="H50" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="I50" t="s">
         <v>35</v>
       </c>
       <c r="J50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M50" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N50" t="s">
-        <v>35</v>
+        <v>293</v>
       </c>
       <c r="O50" t="s">
-        <v>35</v>
+        <v>294</v>
       </c>
       <c r="P50" t="s">
-        <v>35</v>
+        <v>295</v>
       </c>
       <c r="Q50" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R50" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S50" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T50" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="U50" t="s">
         <v>35</v>
@@ -5190,39 +5199,39 @@
         <v>43</v>
       </c>
       <c r="X50">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="Y50">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="Z50" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>294</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="E51" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F51" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G51" t="s">
-        <v>51</v>
+        <v>299</v>
       </c>
       <c r="H51" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="I51" t="s">
         <v>35</v>
@@ -5240,25 +5249,25 @@
         <v>39</v>
       </c>
       <c r="N51" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O51" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P51" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S51" t="s">
         <v>43</v>
       </c>
       <c r="T51" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="U51" t="s">
         <v>35</v>
@@ -5270,10 +5279,10 @@
         <v>43</v>
       </c>
       <c r="X51">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="Y51">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="Z51" t="s">
         <v>35</v>
@@ -5281,31 +5290,31 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E52" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F52" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="H52" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="I52" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="J52" t="s">
         <v>36</v>
@@ -5320,25 +5329,25 @@
         <v>39</v>
       </c>
       <c r="N52" t="s">
-        <v>302</v>
+        <v>129</v>
       </c>
       <c r="O52" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P52" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q52" t="s">
         <v>43</v>
       </c>
       <c r="R52" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="S52" t="s">
         <v>43</v>
       </c>
       <c r="T52" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U52" t="s">
         <v>35</v>
@@ -5350,75 +5359,75 @@
         <v>43</v>
       </c>
       <c r="X52">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="Y52">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="Z52" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>271</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="H53" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="I53" t="s">
         <v>35</v>
       </c>
       <c r="J53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L53" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N53" t="s">
-        <v>35</v>
+        <v>311</v>
       </c>
       <c r="O53" t="s">
-        <v>35</v>
+        <v>312</v>
       </c>
       <c r="P53" t="s">
-        <v>35</v>
+        <v>313</v>
       </c>
       <c r="Q53" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R53" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S53" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T53" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="U53" t="s">
         <v>35</v>
@@ -5430,39 +5439,39 @@
         <v>43</v>
       </c>
       <c r="X53">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="Y53">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="Z53" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="E54" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s">
-        <v>307</v>
+        <v>188</v>
       </c>
       <c r="H54" t="s">
-        <v>308</v>
+        <v>189</v>
       </c>
       <c r="I54" t="s">
         <v>35</v>
@@ -5480,13 +5489,13 @@
         <v>39</v>
       </c>
       <c r="N54" t="s">
-        <v>93</v>
+        <v>317</v>
       </c>
       <c r="O54" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="P54" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="Q54" t="s">
         <v>43</v>
@@ -5498,7 +5507,7 @@
         <v>43</v>
       </c>
       <c r="T54" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="U54" t="s">
         <v>35</v>
@@ -5510,39 +5519,39 @@
         <v>43</v>
       </c>
       <c r="X54">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="Y54">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="Z54" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="D55" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="E55" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="H55" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="I55" t="s">
         <v>35</v>
@@ -5560,25 +5569,25 @@
         <v>39</v>
       </c>
       <c r="N55" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="O55" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="P55" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="Q55" t="s">
         <v>43</v>
       </c>
       <c r="R55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S55" t="s">
         <v>43</v>
       </c>
       <c r="T55" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="U55" t="s">
         <v>35</v>
@@ -5590,39 +5599,39 @@
         <v>43</v>
       </c>
       <c r="X55">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="Y55">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="Z55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>318</v>
+        <v>215</v>
       </c>
       <c r="D56" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E56" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G56" t="s">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="H56" t="s">
-        <v>245</v>
+        <v>121</v>
       </c>
       <c r="I56" t="s">
         <v>35</v>
@@ -5640,16 +5649,16 @@
         <v>39</v>
       </c>
       <c r="N56" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="O56" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="P56" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q56" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="R56" t="s">
         <v>43</v>
@@ -5658,7 +5667,7 @@
         <v>43</v>
       </c>
       <c r="T56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U56" t="s">
         <v>35</v>
@@ -5670,39 +5679,39 @@
         <v>43</v>
       </c>
       <c r="X56">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="Y56">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="Z56" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="E57" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G57" t="s">
+        <v>93</v>
+      </c>
+      <c r="H57" t="s">
         <v>92</v>
-      </c>
-      <c r="H57" t="s">
-        <v>108</v>
       </c>
       <c r="I57" t="s">
         <v>35</v>
@@ -5720,25 +5729,25 @@
         <v>39</v>
       </c>
       <c r="N57" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="O57" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P57" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q57" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="R57" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="S57" t="s">
         <v>43</v>
       </c>
       <c r="T57" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="U57" t="s">
         <v>35</v>
@@ -5750,39 +5759,39 @@
         <v>43</v>
       </c>
       <c r="X57">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="Y57">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="Z57" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" t="s">
+        <v>339</v>
+      </c>
+      <c r="D58" t="s">
+        <v>216</v>
+      </c>
+      <c r="E58" t="s">
+        <v>340</v>
+      </c>
+      <c r="F58" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" t="s">
+        <v>341</v>
+      </c>
+      <c r="H58" t="s">
         <v>120</v>
-      </c>
-      <c r="C58" t="s">
-        <v>204</v>
-      </c>
-      <c r="D58" t="s">
-        <v>331</v>
-      </c>
-      <c r="E58" t="s">
-        <v>332</v>
-      </c>
-      <c r="F58" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" t="s">
-        <v>252</v>
-      </c>
-      <c r="H58" t="s">
-        <v>253</v>
       </c>
       <c r="I58" t="s">
         <v>35</v>
@@ -5800,25 +5809,25 @@
         <v>39</v>
       </c>
       <c r="N58" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="O58" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="P58" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="Q58" t="s">
         <v>43</v>
       </c>
       <c r="R58" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="S58" t="s">
         <v>43</v>
       </c>
       <c r="T58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U58" t="s">
         <v>35</v>
@@ -5830,39 +5839,39 @@
         <v>43</v>
       </c>
       <c r="X58">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="Y58">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="Z58" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D59" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="E59" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="G59" t="s">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="H59" t="s">
-        <v>338</v>
+        <v>34</v>
       </c>
       <c r="I59" t="s">
         <v>35</v>
@@ -5880,16 +5889,16 @@
         <v>39</v>
       </c>
       <c r="N59" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="O59" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="P59" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R59" t="s">
         <v>43</v>
@@ -5898,7 +5907,7 @@
         <v>43</v>
       </c>
       <c r="T59" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="U59" t="s">
         <v>35</v>
@@ -5910,42 +5919,42 @@
         <v>43</v>
       </c>
       <c r="X59">
+        <v>149</v>
+      </c>
+      <c r="Y59">
         <v>144</v>
       </c>
-      <c r="Y59">
-        <v>130</v>
-      </c>
       <c r="Z59" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="D60" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="E60" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="H60" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="I60" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="J60" t="s">
         <v>36</v>
@@ -5960,13 +5969,13 @@
         <v>39</v>
       </c>
       <c r="N60" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="O60" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="P60" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="Q60" t="s">
         <v>43</v>
@@ -5978,7 +5987,7 @@
         <v>43</v>
       </c>
       <c r="T60" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="U60" t="s">
         <v>35</v>
@@ -5990,75 +5999,75 @@
         <v>43</v>
       </c>
       <c r="X60">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="Y60">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Z60" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>357</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>358</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="H61" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I61" t="s">
         <v>35</v>
       </c>
       <c r="J61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K61" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L61" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M61" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N61" t="s">
-        <v>35</v>
+        <v>311</v>
       </c>
       <c r="O61" t="s">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="P61" t="s">
-        <v>35</v>
+        <v>360</v>
       </c>
       <c r="Q61" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R61" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S61" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T61" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="U61" t="s">
         <v>35</v>
@@ -6070,39 +6079,39 @@
         <v>43</v>
       </c>
       <c r="X61">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="Y61">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Z61" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="D62" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="E62" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="F62" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="H62" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="I62" t="s">
         <v>35</v>
@@ -6120,25 +6129,25 @@
         <v>39</v>
       </c>
       <c r="N62" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="O62" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="P62" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="Q62" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="R62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S62" t="s">
         <v>43</v>
       </c>
       <c r="T62" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="U62" t="s">
         <v>35</v>
@@ -6150,42 +6159,42 @@
         <v>43</v>
       </c>
       <c r="X62">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Y62">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="Z62" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="E63" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F63" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="H63" t="s">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="J63" t="s">
         <v>36</v>
@@ -6200,25 +6209,25 @@
         <v>39</v>
       </c>
       <c r="N63" t="s">
-        <v>168</v>
+        <v>370</v>
       </c>
       <c r="O63" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="P63" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="Q63" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="R63" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="S63" t="s">
         <v>43</v>
       </c>
       <c r="T63" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="U63" t="s">
         <v>35</v>
@@ -6230,13 +6239,13 @@
         <v>43</v>
       </c>
       <c r="X63">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="Y63">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="Z63" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
@@ -6298,7 +6307,7 @@
         <v>35</v>
       </c>
       <c r="T64" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="U64" t="s">
         <v>35</v>
@@ -6310,10 +6319,10 @@
         <v>43</v>
       </c>
       <c r="X64">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="Y64">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="Z64" t="s">
         <v>35</v>
@@ -6321,64 +6330,64 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>359</v>
+        <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="D65" t="s">
-        <v>360</v>
+        <v>35</v>
       </c>
       <c r="E65" t="s">
-        <v>361</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="H65" t="s">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="I65" t="s">
         <v>35</v>
       </c>
       <c r="J65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M65" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N65" t="s">
-        <v>362</v>
+        <v>35</v>
       </c>
       <c r="O65" t="s">
-        <v>363</v>
+        <v>35</v>
       </c>
       <c r="P65" t="s">
-        <v>364</v>
+        <v>35</v>
       </c>
       <c r="Q65" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="R65" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="S65" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T65" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="U65" t="s">
         <v>35</v>
@@ -6390,39 +6399,39 @@
         <v>43</v>
       </c>
       <c r="X65">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="Y65">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="Z65" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>318</v>
+        <v>194</v>
       </c>
       <c r="D66" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E66" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="G66" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="H66" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="I66" t="s">
         <v>35</v>
@@ -6440,25 +6449,25 @@
         <v>39</v>
       </c>
       <c r="N66" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="O66" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="P66" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Q66" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="R66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S66" t="s">
         <v>43</v>
       </c>
       <c r="T66" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="U66" t="s">
         <v>35</v>
@@ -6470,39 +6479,39 @@
         <v>43</v>
       </c>
       <c r="X66">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Y66">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Z66" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="D67" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E67" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F67" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G67" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="H67" t="s">
-        <v>338</v>
+        <v>189</v>
       </c>
       <c r="I67" t="s">
         <v>35</v>
@@ -6520,25 +6529,25 @@
         <v>39</v>
       </c>
       <c r="N67" t="s">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="O67" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="P67" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q67" t="s">
         <v>43</v>
       </c>
       <c r="R67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S67" t="s">
         <v>43</v>
       </c>
       <c r="T67" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="U67" t="s">
         <v>35</v>
@@ -6550,42 +6559,42 @@
         <v>43</v>
       </c>
       <c r="X67">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Y67">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="Z67" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="D68" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="E68" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="H68" t="s">
-        <v>232</v>
+        <v>103</v>
       </c>
       <c r="I68" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="J68" t="s">
         <v>36</v>
@@ -6600,25 +6609,25 @@
         <v>39</v>
       </c>
       <c r="N68" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="O68" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P68" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q68" t="s">
         <v>43</v>
       </c>
       <c r="R68" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="S68" t="s">
         <v>43</v>
       </c>
       <c r="T68" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="U68" t="s">
         <v>35</v>
@@ -6630,75 +6639,75 @@
         <v>43</v>
       </c>
       <c r="X68">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="Y68">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="Z68" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>382</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D69" t="s">
-        <v>383</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>384</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H69" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="I69" t="s">
         <v>35</v>
       </c>
       <c r="J69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M69" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N69" t="s">
-        <v>385</v>
+        <v>35</v>
       </c>
       <c r="O69" t="s">
-        <v>386</v>
+        <v>35</v>
       </c>
       <c r="P69" t="s">
-        <v>387</v>
+        <v>35</v>
       </c>
       <c r="Q69" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="R69" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S69" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T69" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="U69" t="s">
         <v>35</v>
@@ -6710,75 +6719,75 @@
         <v>43</v>
       </c>
       <c r="X69">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="Y69">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Z69" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>388</v>
+        <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="D70" t="s">
-        <v>389</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
-        <v>390</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H70" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I70" t="s">
         <v>35</v>
       </c>
       <c r="J70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L70" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M70" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N70" t="s">
-        <v>391</v>
+        <v>35</v>
       </c>
       <c r="O70" t="s">
-        <v>392</v>
+        <v>35</v>
       </c>
       <c r="P70" t="s">
-        <v>393</v>
+        <v>35</v>
       </c>
       <c r="Q70" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="R70" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="S70" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T70" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="U70" t="s">
         <v>35</v>
@@ -6790,42 +6799,42 @@
         <v>43</v>
       </c>
       <c r="X70">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="Y70">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="Z70" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="D71" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E71" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="G71" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="H71" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="I71" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="J71" t="s">
         <v>36</v>
@@ -6840,43 +6849,283 @@
         <v>39</v>
       </c>
       <c r="N71" t="s">
-        <v>109</v>
+        <v>393</v>
       </c>
       <c r="O71" t="s">
+        <v>394</v>
+      </c>
+      <c r="P71" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>44</v>
+      </c>
+      <c r="R71" t="s">
+        <v>43</v>
+      </c>
+      <c r="S71" t="s">
+        <v>43</v>
+      </c>
+      <c r="T71" t="s">
+        <v>183</v>
+      </c>
+      <c r="U71" t="s">
+        <v>35</v>
+      </c>
+      <c r="V71" t="s">
+        <v>43</v>
+      </c>
+      <c r="W71" t="s">
+        <v>43</v>
+      </c>
+      <c r="X71">
+        <v>108</v>
+      </c>
+      <c r="Y71">
+        <v>90</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" t="s">
+        <v>35</v>
+      </c>
+      <c r="F72" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" t="s">
+        <v>35</v>
+      </c>
+      <c r="J72" t="s">
+        <v>35</v>
+      </c>
+      <c r="K72" t="s">
+        <v>35</v>
+      </c>
+      <c r="L72" t="s">
+        <v>35</v>
+      </c>
+      <c r="M72" t="s">
+        <v>35</v>
+      </c>
+      <c r="N72" t="s">
+        <v>35</v>
+      </c>
+      <c r="O72" t="s">
+        <v>35</v>
+      </c>
+      <c r="P72" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>35</v>
+      </c>
+      <c r="R72" t="s">
+        <v>35</v>
+      </c>
+      <c r="S72" t="s">
+        <v>35</v>
+      </c>
+      <c r="T72" t="s">
+        <v>60</v>
+      </c>
+      <c r="U72" t="s">
+        <v>35</v>
+      </c>
+      <c r="V72" t="s">
+        <v>43</v>
+      </c>
+      <c r="W72" t="s">
+        <v>43</v>
+      </c>
+      <c r="X72">
+        <v>70</v>
+      </c>
+      <c r="Y72">
+        <v>67</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" t="s">
+        <v>35</v>
+      </c>
+      <c r="J73" t="s">
+        <v>35</v>
+      </c>
+      <c r="K73" t="s">
+        <v>35</v>
+      </c>
+      <c r="L73" t="s">
+        <v>35</v>
+      </c>
+      <c r="M73" t="s">
+        <v>35</v>
+      </c>
+      <c r="N73" t="s">
+        <v>35</v>
+      </c>
+      <c r="O73" t="s">
+        <v>35</v>
+      </c>
+      <c r="P73" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>35</v>
+      </c>
+      <c r="R73" t="s">
+        <v>35</v>
+      </c>
+      <c r="S73" t="s">
+        <v>35</v>
+      </c>
+      <c r="T73" t="s">
+        <v>61</v>
+      </c>
+      <c r="U73" t="s">
+        <v>35</v>
+      </c>
+      <c r="V73" t="s">
+        <v>43</v>
+      </c>
+      <c r="W73" t="s">
+        <v>43</v>
+      </c>
+      <c r="X73">
+        <v>84</v>
+      </c>
+      <c r="Y73">
+        <v>68</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>396</v>
+      </c>
+      <c r="B74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" t="s">
+        <v>339</v>
+      </c>
+      <c r="D74" t="s">
         <v>397</v>
       </c>
-      <c r="P71" t="s">
+      <c r="E74" t="s">
         <v>398</v>
       </c>
-      <c r="Q71" t="s">
-        <v>43</v>
-      </c>
-      <c r="R71" t="s">
-        <v>70</v>
-      </c>
-      <c r="S71" t="s">
-        <v>43</v>
-      </c>
-      <c r="T71" t="s">
-        <v>202</v>
-      </c>
-      <c r="U71" t="s">
-        <v>35</v>
-      </c>
-      <c r="V71" t="s">
-        <v>43</v>
-      </c>
-      <c r="W71" t="s">
-        <v>43</v>
-      </c>
-      <c r="X71">
-        <v>119</v>
-      </c>
-      <c r="Y71">
-        <v>100</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>72</v>
+      <c r="F74" t="s">
+        <v>67</v>
+      </c>
+      <c r="G74" t="s">
+        <v>341</v>
+      </c>
+      <c r="H74" t="s">
+        <v>120</v>
+      </c>
+      <c r="I74" t="s">
+        <v>35</v>
+      </c>
+      <c r="J74" t="s">
+        <v>36</v>
+      </c>
+      <c r="K74" t="s">
+        <v>37</v>
+      </c>
+      <c r="L74" t="s">
+        <v>38</v>
+      </c>
+      <c r="M74" t="s">
+        <v>39</v>
+      </c>
+      <c r="N74" t="s">
+        <v>399</v>
+      </c>
+      <c r="O74" t="s">
+        <v>400</v>
+      </c>
+      <c r="P74" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>43</v>
+      </c>
+      <c r="R74" t="s">
+        <v>43</v>
+      </c>
+      <c r="S74" t="s">
+        <v>43</v>
+      </c>
+      <c r="T74" t="s">
+        <v>207</v>
+      </c>
+      <c r="U74" t="s">
+        <v>35</v>
+      </c>
+      <c r="V74" t="s">
+        <v>43</v>
+      </c>
+      <c r="W74" t="s">
+        <v>43</v>
+      </c>
+      <c r="X74">
+        <v>116</v>
+      </c>
+      <c r="Y74">
+        <v>112</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/seeded_units_2026.xlsx
+++ b/seeded_units_2026.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="407">
   <si>
     <t>강의년도</t>
   </si>
@@ -100,136 +100,982 @@
     <t>Army</t>
   </si>
   <si>
+    <t>대구광역시</t>
+  </si>
+  <si>
+    <t>중구</t>
+  </si>
+  <si>
+    <t>대구광역시 중구 공평로 88</t>
+  </si>
+  <si>
+    <t>본관 3층</t>
+  </si>
+  <si>
+    <t>2026-02-20</t>
+  </si>
+  <si>
+    <t>2026-02-22</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>오하준</t>
+  </si>
+  <si>
+    <t>010-1399-4193</t>
+  </si>
+  <si>
+    <t>officer99@army.mil.kr</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>훈련장</t>
+  </si>
+  <si>
+    <t>주차 가능</t>
+  </si>
+  <si>
+    <t>통신13연대(2026)</t>
+  </si>
+  <si>
+    <t>MND</t>
+  </si>
+  <si>
+    <t>광주광역시</t>
+  </si>
+  <si>
+    <t>북구</t>
+  </si>
+  <si>
+    <t>광주광역시 북구 용봉로 77</t>
+  </si>
+  <si>
+    <t>본관 4층</t>
+  </si>
+  <si>
+    <t>2026-02-26</t>
+  </si>
+  <si>
+    <t>2026-02-28</t>
+  </si>
+  <si>
+    <t>신지호</t>
+  </si>
+  <si>
+    <t>010-9475-5750</t>
+  </si>
+  <si>
+    <t>officer98@army.mil.kr</t>
+  </si>
+  <si>
+    <t>다목적실</t>
+  </si>
+  <si>
+    <t>통신13여단(2026)</t>
+  </si>
+  <si>
+    <t>AirForce</t>
+  </si>
+  <si>
     <t>경상북도</t>
   </si>
   <si>
-    <t>경주시</t>
-  </si>
-  <si>
-    <t>경상북도 경주시 양정로 260</t>
-  </si>
-  <si>
-    <t>본관 3층</t>
-  </si>
-  <si>
-    <t>2026-02-28</t>
+    <t>영주시</t>
+  </si>
+  <si>
+    <t>경상북도 영주시 시청로 1</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>정태현</t>
+  </si>
+  <si>
+    <t>010-3200-2403</t>
+  </si>
+  <si>
+    <t>officer97@army.mil.kr</t>
+  </si>
+  <si>
+    <t>프로젝터 있음</t>
+  </si>
+  <si>
+    <t>통신13사단(2026)</t>
+  </si>
+  <si>
+    <t>서구</t>
+  </si>
+  <si>
+    <t>광주광역시 서구 내방로 111</t>
+  </si>
+  <si>
+    <t>2026-02-27</t>
+  </si>
+  <si>
+    <t>2026-03-01</t>
+  </si>
+  <si>
+    <t>정지호</t>
+  </si>
+  <si>
+    <t>010-2004-5597</t>
+  </si>
+  <si>
+    <t>officer96@army.mil.kr</t>
+  </si>
+  <si>
+    <t>체육관</t>
+  </si>
+  <si>
+    <t>음향시설 완비</t>
+  </si>
+  <si>
+    <t>통신12교육대(2026)</t>
+  </si>
+  <si>
+    <t>전북특별자치도</t>
+  </si>
+  <si>
+    <t>전주시 덕진구</t>
+  </si>
+  <si>
+    <t>전북특별자치도 전주시 덕진구 건산로 251</t>
+  </si>
+  <si>
+    <t>본관 2층</t>
   </si>
   <si>
     <t>2026-03-02</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>신예준</t>
-  </si>
-  <si>
-    <t>010-5153-5242</t>
-  </si>
-  <si>
-    <t>officer99@army.mil.kr</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>훈련장</t>
-  </si>
-  <si>
-    <t>통신13연대(2026)</t>
+    <t>윤도현</t>
+  </si>
+  <si>
+    <t>010-4020-2279</t>
+  </si>
+  <si>
+    <t>officer95@army.mil.kr</t>
+  </si>
+  <si>
+    <t>교육관</t>
+  </si>
+  <si>
+    <t>통신12지원단(2026)</t>
+  </si>
+  <si>
+    <t>전라남도</t>
+  </si>
+  <si>
+    <t>순천시</t>
+  </si>
+  <si>
+    <t>전라남도 순천시 장명로 30</t>
+  </si>
+  <si>
+    <t>2026-02-19</t>
+  </si>
+  <si>
+    <t>2026-02-21</t>
+  </si>
+  <si>
+    <t>정주원</t>
+  </si>
+  <si>
+    <t>010-9652-7000</t>
+  </si>
+  <si>
+    <t>officer94@army.mil.kr</t>
+  </si>
+  <si>
+    <t>통신12사령부(2026)</t>
+  </si>
+  <si>
+    <t>담양군</t>
+  </si>
+  <si>
+    <t>전라남도 담양군 담양읍 추성로 1371</t>
+  </si>
+  <si>
+    <t>2026-02-13</t>
+  </si>
+  <si>
+    <t>2026-02-15</t>
+  </si>
+  <si>
+    <t>권태현</t>
+  </si>
+  <si>
+    <t>010-1641-8024</t>
+  </si>
+  <si>
+    <t>officer93@army.mil.kr</t>
+  </si>
+  <si>
+    <t>세미나실</t>
+  </si>
+  <si>
+    <t>통신12부대(2026)</t>
   </si>
   <si>
     <t>대전광역시</t>
   </si>
   <si>
+    <t>유성구</t>
+  </si>
+  <si>
+    <t>대전광역시 유성구 대학로 99</t>
+  </si>
+  <si>
+    <t>강재원</t>
+  </si>
+  <si>
+    <t>010-4933-7187</t>
+  </si>
+  <si>
+    <t>officer92@army.mil.kr</t>
+  </si>
+  <si>
+    <t>통신12대대(2026)</t>
+  </si>
+  <si>
     <t>대덕구</t>
   </si>
   <si>
     <t>대전광역시 대덕구 대전로1033번길 20</t>
   </si>
   <si>
-    <t>본관 4층</t>
-  </si>
-  <si>
-    <t>윤우진</t>
-  </si>
-  <si>
-    <t>010-6375-5170</t>
-  </si>
-  <si>
-    <t>officer98@army.mil.kr</t>
+    <t>2026-02-23</t>
+  </si>
+  <si>
+    <t>윤지훈</t>
+  </si>
+  <si>
+    <t>010-3327-9968</t>
+  </si>
+  <si>
+    <t>officer91@army.mil.kr</t>
+  </si>
+  <si>
+    <t>강의실</t>
+  </si>
+  <si>
+    <t>통신12연대(2026)</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>대전광역시 서구 둔산로 100</t>
+  </si>
+  <si>
+    <t>본관 1층</t>
+  </si>
+  <si>
+    <t>조지호</t>
+  </si>
+  <si>
+    <t>010-5803-5249</t>
+  </si>
+  <si>
+    <t>officer90@army.mil.kr</t>
+  </si>
+  <si>
+    <t>교육센터</t>
+  </si>
+  <si>
+    <t>공병12여단(2026)</t>
+  </si>
+  <si>
+    <t>동구</t>
+  </si>
+  <si>
+    <t>대전광역시 동구 동대전로 133</t>
+  </si>
+  <si>
+    <t>2026-02-06</t>
+  </si>
+  <si>
+    <t>2026-02-08</t>
+  </si>
+  <si>
+    <t>조태현</t>
+  </si>
+  <si>
+    <t>010-6367-8650</t>
+  </si>
+  <si>
+    <t>officer89@army.mil.kr</t>
+  </si>
+  <si>
+    <t>회의실</t>
+  </si>
+  <si>
+    <t>공병12사단(2026)</t>
+  </si>
+  <si>
+    <t>충청북도</t>
+  </si>
+  <si>
+    <t>진천군</t>
+  </si>
+  <si>
+    <t>충청북도 진천군 진천읍 중앙서로 11</t>
+  </si>
+  <si>
+    <t>김예준</t>
+  </si>
+  <si>
+    <t>010-3180-8333</t>
+  </si>
+  <si>
+    <t>officer88@army.mil.kr</t>
   </si>
   <si>
     <t>연병장</t>
   </si>
   <si>
-    <t>프로젝터 있음</t>
-  </si>
-  <si>
-    <t>통신13여단(2026)</t>
+    <t>에어컨 가동</t>
+  </si>
+  <si>
+    <t>공병11교육대(2026)</t>
+  </si>
+  <si>
+    <t>남원시</t>
+  </si>
+  <si>
+    <t>전북특별자치도 남원시 시청로 60</t>
+  </si>
+  <si>
+    <t>본관 5층</t>
+  </si>
+  <si>
+    <t>권도윤</t>
+  </si>
+  <si>
+    <t>010-1028-1233</t>
+  </si>
+  <si>
+    <t>officer87@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11지원단(2026)</t>
+  </si>
+  <si>
+    <t>서울특별시</t>
+  </si>
+  <si>
+    <t>성북구</t>
+  </si>
+  <si>
+    <t>서울특별시 성북구 성북로 76</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>최현우</t>
+  </si>
+  <si>
+    <t>010-3356-9452</t>
+  </si>
+  <si>
+    <t>officer86@army.mil.kr</t>
+  </si>
+  <si>
+    <t>대강당</t>
+  </si>
+  <si>
+    <t>추가장소2</t>
+  </si>
+  <si>
+    <t>공병11사령부(2026)</t>
+  </si>
+  <si>
+    <t>경기도</t>
+  </si>
+  <si>
+    <t>용인시 처인구</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 중부대로 1199</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>오지호</t>
+  </si>
+  <si>
+    <t>010-8895-4147</t>
+  </si>
+  <si>
+    <t>officer85@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11부대(2026)</t>
+  </si>
+  <si>
+    <t>마포구</t>
+  </si>
+  <si>
+    <t>서울특별시 마포구 월드컵북로 396</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>오우진</t>
+  </si>
+  <si>
+    <t>010-2575-4675</t>
+  </si>
+  <si>
+    <t>officer84@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11대대(2026)</t>
+  </si>
+  <si>
+    <t>정읍시</t>
+  </si>
+  <si>
+    <t>전북특별자치도 정읍시 충정로 379</t>
+  </si>
+  <si>
+    <t>박서준</t>
+  </si>
+  <si>
+    <t>010-1057-2747</t>
+  </si>
+  <si>
+    <t>officer83@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11연대(2026)</t>
+  </si>
+  <si>
+    <t>Marines</t>
+  </si>
+  <si>
+    <t>종로구</t>
+  </si>
+  <si>
+    <t>서울특별시 종로구 세종대로 209</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>박지훈</t>
+  </si>
+  <si>
+    <t>010-8944-6576</t>
+  </si>
+  <si>
+    <t>officer82@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11여단(2026)</t>
+  </si>
+  <si>
+    <t>인천광역시</t>
+  </si>
+  <si>
+    <t>부평구</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평대로 168</t>
+  </si>
+  <si>
+    <t>박주원</t>
+  </si>
+  <si>
+    <t>010-1930-2732</t>
+  </si>
+  <si>
+    <t>officer81@army.mil.kr</t>
+  </si>
+  <si>
+    <t>공병11사단(2026)</t>
+  </si>
+  <si>
+    <t>강원특별자치도</t>
+  </si>
+  <si>
+    <t>홍천군</t>
+  </si>
+  <si>
+    <t>강원특별자치도 홍천군 홍천로 49</t>
+  </si>
+  <si>
+    <t>최도윤</t>
+  </si>
+  <si>
+    <t>010-7946-8143</t>
+  </si>
+  <si>
+    <t>officer80@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10교육대(2026)</t>
+  </si>
+  <si>
+    <t>괴산군</t>
+  </si>
+  <si>
+    <t>충청북도 괴산군 괴산읍 임꺽정로 90</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>한지호</t>
+  </si>
+  <si>
+    <t>010-1915-2109</t>
+  </si>
+  <si>
+    <t>officer79@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10지원단(2026)</t>
+  </si>
+  <si>
+    <t>달서구</t>
+  </si>
+  <si>
+    <t>대구광역시 달서구 학산로 30</t>
+  </si>
+  <si>
+    <t>한우진</t>
+  </si>
+  <si>
+    <t>010-2685-1814</t>
+  </si>
+  <si>
+    <t>officer78@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10사령부(2026)</t>
+  </si>
+  <si>
+    <t>계양구</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 계양대로 168</t>
+  </si>
+  <si>
+    <t>강서준</t>
+  </si>
+  <si>
+    <t>010-1586-1267</t>
+  </si>
+  <si>
+    <t>officer77@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10부대(2026)</t>
+  </si>
+  <si>
+    <t>충주시</t>
+  </si>
+  <si>
+    <t>충청북도 충주시 으뜸로 21</t>
+  </si>
+  <si>
+    <t>황현우</t>
+  </si>
+  <si>
+    <t>010-3880-2261</t>
+  </si>
+  <si>
+    <t>officer76@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10대대(2026)</t>
   </si>
   <si>
     <t>충청남도</t>
   </si>
   <si>
-    <t>논산시</t>
-  </si>
-  <si>
-    <t>충청남도 논산시 시민로210번길 9</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>이건우</t>
-  </si>
-  <si>
-    <t>010-8228-4976</t>
-  </si>
-  <si>
-    <t>officer97@army.mil.kr</t>
-  </si>
-  <si>
-    <t>세미나실</t>
-  </si>
-  <si>
-    <t>에어컨 가동</t>
-  </si>
-  <si>
-    <t>통신13사단(2026)</t>
-  </si>
-  <si>
-    <t>Navy</t>
+    <t>서산시</t>
+  </si>
+  <si>
+    <t>충청남도 서산시 관아문길 1</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>박도윤</t>
+  </si>
+  <si>
+    <t>010-6585-5789</t>
+  </si>
+  <si>
+    <t>officer75@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10연대(2026)</t>
+  </si>
+  <si>
+    <t>군포시</t>
+  </si>
+  <si>
+    <t>경기도 군포시 청백리길 6</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>최예준</t>
+  </si>
+  <si>
+    <t>010-2914-8602</t>
+  </si>
+  <si>
+    <t>officer74@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10여단(2026)</t>
+  </si>
+  <si>
+    <t>화성시</t>
+  </si>
+  <si>
+    <t>경기도 화성시 남양읍 시청로 159</t>
+  </si>
+  <si>
+    <t>오건우</t>
+  </si>
+  <si>
+    <t>010-9768-7934</t>
+  </si>
+  <si>
+    <t>officer73@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병10사단(2026)</t>
+  </si>
+  <si>
+    <t>원주시</t>
+  </si>
+  <si>
+    <t>강원특별자치도 원주시 서원대로 158</t>
+  </si>
+  <si>
+    <t>강성민</t>
+  </si>
+  <si>
+    <t>010-3670-8772</t>
+  </si>
+  <si>
+    <t>officer72@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병9교육대(2026)</t>
+  </si>
+  <si>
+    <t>청주시 상당구</t>
+  </si>
+  <si>
+    <t>충청북도 청주시 상당구 상당로 155</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>임우진</t>
+  </si>
+  <si>
+    <t>010-4277-6964</t>
+  </si>
+  <si>
+    <t>officer71@army.mil.kr</t>
+  </si>
+  <si>
+    <t>포병9지원단(2026)</t>
+  </si>
+  <si>
+    <t>횡성군</t>
+  </si>
+  <si>
+    <t>강원특별자치도 횡성군 횡성로 111</t>
+  </si>
+  <si>
+    <t>최성민</t>
+  </si>
+  <si>
+    <t>010-4409-8034</t>
+  </si>
+  <si>
+    <t>officer70@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9사령부(2026)</t>
+  </si>
+  <si>
+    <t>익산시</t>
+  </si>
+  <si>
+    <t>전북특별자치도 익산시 인북로 140</t>
+  </si>
+  <si>
+    <t>서지호</t>
+  </si>
+  <si>
+    <t>010-4395-1414</t>
+  </si>
+  <si>
+    <t>officer69@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9부대(2026)</t>
   </si>
   <si>
     <t>경상남도</t>
   </si>
   <si>
-    <t>창원시 성산구</t>
-  </si>
-  <si>
-    <t>경상남도 창원시 성산구 중앙대로 151</t>
-  </si>
-  <si>
-    <t>본관 1층</t>
+    <t>양산시</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 중앙로 39</t>
+  </si>
+  <si>
+    <t>이민준</t>
+  </si>
+  <si>
+    <t>010-3911-5178</t>
+  </si>
+  <si>
+    <t>officer68@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9대대(2026)</t>
+  </si>
+  <si>
+    <t>계룡시</t>
+  </si>
+  <si>
+    <t>충청남도 계룡시 장안로 46</t>
+  </si>
+  <si>
+    <t>윤예준</t>
+  </si>
+  <si>
+    <t>010-5284-6754</t>
+  </si>
+  <si>
+    <t>officer67@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9연대(2026)</t>
+  </si>
+  <si>
+    <t>김포시</t>
+  </si>
+  <si>
+    <t>경기도 김포시 걸포로 170</t>
+  </si>
+  <si>
+    <t>신하준</t>
+  </si>
+  <si>
+    <t>010-3638-9844</t>
+  </si>
+  <si>
+    <t>officer66@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9여단(2026)</t>
+  </si>
+  <si>
+    <t>공주시</t>
+  </si>
+  <si>
+    <t>충청남도 공주시 봉황로 1</t>
+  </si>
+  <si>
+    <t>윤민준</t>
+  </si>
+  <si>
+    <t>010-8377-8762</t>
+  </si>
+  <si>
+    <t>officer65@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화9사단(2026)</t>
+  </si>
+  <si>
+    <t>평택시</t>
+  </si>
+  <si>
+    <t>경기도 평택시 평택로 51</t>
+  </si>
+  <si>
+    <t>010-4916-1565</t>
+  </si>
+  <si>
+    <t>officer64@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화8교육대(2026)</t>
+  </si>
+  <si>
+    <t>수성구</t>
+  </si>
+  <si>
+    <t>대구광역시 수성구 동대구로 364</t>
+  </si>
+  <si>
+    <t>서도현</t>
+  </si>
+  <si>
+    <t>010-5232-8544</t>
+  </si>
+  <si>
+    <t>officer63@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화8지원단(2026)</t>
+  </si>
+  <si>
+    <t>부천시</t>
+  </si>
+  <si>
+    <t>경기도 부천시 길주로 210</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>조서준</t>
+  </si>
+  <si>
+    <t>010-6477-1338</t>
+  </si>
+  <si>
+    <t>officer62@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화8사령부(2026)</t>
+  </si>
+  <si>
+    <t>삼척시</t>
+  </si>
+  <si>
+    <t>강원특별자치도 삼척시 중앙로 296</t>
+  </si>
+  <si>
+    <t>조민준</t>
+  </si>
+  <si>
+    <t>010-7887-8996</t>
+  </si>
+  <si>
+    <t>officer61@army.mil.kr</t>
+  </si>
+  <si>
+    <t>기계화8부대(2026)</t>
+  </si>
+  <si>
+    <t>수원시 팔달구</t>
+  </si>
+  <si>
+    <t>경기도 수원시 팔달구 효원로 1</t>
+  </si>
+  <si>
+    <t>황하준</t>
+  </si>
+  <si>
+    <t>010-9784-8382</t>
+  </si>
+  <si>
+    <t>officer60@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전8대대(2026)</t>
+  </si>
+  <si>
+    <t>보령시</t>
+  </si>
+  <si>
+    <t>충청남도 보령시 성주산로 77</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>윤도윤</t>
+  </si>
+  <si>
+    <t>010-3616-2928</t>
+  </si>
+  <si>
+    <t>officer59@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전8연대(2026)</t>
+  </si>
+  <si>
+    <t>제천시</t>
+  </si>
+  <si>
+    <t>충청북도 제천시 내토로 295</t>
   </si>
   <si>
     <t>2026-02-14</t>
@@ -238,73 +1084,106 @@
     <t>2026-02-16</t>
   </si>
   <si>
-    <t>조태현</t>
-  </si>
-  <si>
-    <t>010-8284-7044</t>
-  </si>
-  <si>
-    <t>officer96@army.mil.kr</t>
-  </si>
-  <si>
-    <t>강의실</t>
-  </si>
-  <si>
-    <t>주차 가능</t>
-  </si>
-  <si>
-    <t>통신12교육대(2026)</t>
-  </si>
-  <si>
-    <t>전북특별자치도</t>
-  </si>
-  <si>
-    <t>익산시</t>
-  </si>
-  <si>
-    <t>전북특별자치도 익산시 인북로 140</t>
-  </si>
-  <si>
-    <t>본관 2층</t>
-  </si>
-  <si>
-    <t>서현우</t>
-  </si>
-  <si>
-    <t>010-5148-3110</t>
-  </si>
-  <si>
-    <t>officer95@army.mil.kr</t>
-  </si>
-  <si>
-    <t>회의실</t>
-  </si>
-  <si>
-    <t>통신12지원단(2026)</t>
-  </si>
-  <si>
-    <t>서구</t>
-  </si>
-  <si>
-    <t>대전광역시 서구 둔산로 100</t>
-  </si>
-  <si>
-    <t>2026-02-07</t>
-  </si>
-  <si>
-    <t>2026-02-09</t>
-  </si>
-  <si>
-    <t>오지호</t>
-  </si>
-  <si>
-    <t>010-1288-4068</t>
-  </si>
-  <si>
-    <t>officer94@army.mil.kr</t>
-  </si>
-  <si>
-    <t>통신12사령부(2026)</t>
+    <t>김도현</t>
+  </si>
+  <si>
+    <t>010-2348-1767</t>
+  </si>
+  <si>
+    <t>officer58@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전8여단(2026)</t>
+  </si>
+  <si>
+    <t>포항시 남구</t>
+  </si>
+  <si>
+    <t>경상북도 포항시 남구 시청로 1</t>
+  </si>
+  <si>
+    <t>김태현</t>
+  </si>
+  <si>
+    <t>010-2458-9418</t>
+  </si>
+  <si>
+    <t>officer57@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전8사단(2026)</t>
+  </si>
+  <si>
+    <t>파주시</t>
+  </si>
+  <si>
+    <t>경기도 파주시 문발로 242</t>
+  </si>
+  <si>
+    <t>장지훈</t>
+  </si>
+  <si>
+    <t>010-9249-9550</t>
+  </si>
+  <si>
+    <t>officer56@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7교육대(2026)</t>
+  </si>
+  <si>
+    <t>연수구</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 컨벤시아대로 165</t>
+  </si>
+  <si>
+    <t>오도현</t>
+  </si>
+  <si>
+    <t>010-7523-6131</t>
+  </si>
+  <si>
+    <t>officer55@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7지원단(2026)</t>
+  </si>
+  <si>
+    <t>영등포구</t>
+  </si>
+  <si>
+    <t>서울특별시 영등포구 여의대로 108</t>
+  </si>
+  <si>
+    <t>황도윤</t>
+  </si>
+  <si>
+    <t>010-6488-8958</t>
+  </si>
+  <si>
+    <t>officer54@army.mil.kr</t>
+  </si>
+  <si>
+    <t>추가장소3</t>
+  </si>
+  <si>
+    <t>특전7사령부(2026)</t>
+  </si>
+  <si>
+    <t>용산구</t>
+  </si>
+  <si>
+    <t>서울특별시 용산구 한강대로 405</t>
+  </si>
+  <si>
+    <t>010-7634-7254</t>
+  </si>
+  <si>
+    <t>officer53@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7부대(2026)</t>
   </si>
   <si>
     <t>김천시</t>
@@ -313,367 +1192,31 @@
     <t>경상북도 김천시 시청로 20</t>
   </si>
   <si>
-    <t>2026-02-27</t>
-  </si>
-  <si>
-    <t>2026-03-01</t>
-  </si>
-  <si>
-    <t>권도현</t>
-  </si>
-  <si>
-    <t>010-5551-4819</t>
-  </si>
-  <si>
-    <t>officer93@army.mil.kr</t>
-  </si>
-  <si>
-    <t>대강당</t>
-  </si>
-  <si>
-    <t>통신12부대(2026)</t>
-  </si>
-  <si>
-    <t>Marines</t>
-  </si>
-  <si>
-    <t>충청북도</t>
-  </si>
-  <si>
-    <t>음성군</t>
-  </si>
-  <si>
-    <t>충청북도 음성군 음성읍 수정로 38</t>
-  </si>
-  <si>
-    <t>2026-02-26</t>
-  </si>
-  <si>
-    <t>윤지호</t>
-  </si>
-  <si>
-    <t>010-5803-5364</t>
-  </si>
-  <si>
-    <t>officer92@army.mil.kr</t>
-  </si>
-  <si>
-    <t>통신12대대(2026)</t>
-  </si>
-  <si>
-    <t>아산시</t>
-  </si>
-  <si>
-    <t>충청남도 아산시 번영로 224</t>
-  </si>
-  <si>
-    <t>2026-01-06</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>권현우</t>
-  </si>
-  <si>
-    <t>010-6758-1601</t>
-  </si>
-  <si>
-    <t>officer91@army.mil.kr</t>
-  </si>
-  <si>
-    <t>다목적실</t>
-  </si>
-  <si>
-    <t>통신12연대(2026)</t>
-  </si>
-  <si>
-    <t>대구광역시</t>
-  </si>
-  <si>
-    <t>수성구</t>
-  </si>
-  <si>
-    <t>대구광역시 수성구 동대구로 364</t>
-  </si>
-  <si>
-    <t>2026-02-12</t>
-  </si>
-  <si>
-    <t>조성민</t>
-  </si>
-  <si>
-    <t>010-9857-9676</t>
-  </si>
-  <si>
-    <t>officer90@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병12여단(2026)</t>
-  </si>
-  <si>
-    <t>MND</t>
-  </si>
-  <si>
-    <t>천안시 서북구</t>
-  </si>
-  <si>
-    <t>충청남도 천안시 서북구 번영로 208</t>
-  </si>
-  <si>
-    <t>2026-01-07</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>장서준</t>
-  </si>
-  <si>
-    <t>010-2017-3096</t>
-  </si>
-  <si>
-    <t>officer89@army.mil.kr</t>
-  </si>
-  <si>
-    <t>음향시설 완비</t>
-  </si>
-  <si>
-    <t>공병12사단(2026)</t>
-  </si>
-  <si>
-    <t>공주시</t>
-  </si>
-  <si>
-    <t>충청남도 공주시 봉황로 1</t>
-  </si>
-  <si>
-    <t>조주원</t>
-  </si>
-  <si>
-    <t>010-6402-8432</t>
-  </si>
-  <si>
-    <t>officer88@army.mil.kr</t>
-  </si>
-  <si>
-    <t>교육센터</t>
-  </si>
-  <si>
-    <t>공병11교육대(2026)</t>
-  </si>
-  <si>
-    <t>괴산군</t>
-  </si>
-  <si>
-    <t>충청북도 괴산군 괴산읍 임꺽정로 90</t>
-  </si>
-  <si>
-    <t>2026-02-19</t>
-  </si>
-  <si>
-    <t>2026-02-21</t>
-  </si>
-  <si>
-    <t>서지호</t>
-  </si>
-  <si>
-    <t>010-5942-2149</t>
-  </si>
-  <si>
-    <t>officer87@army.mil.kr</t>
-  </si>
-  <si>
-    <t>체육관</t>
-  </si>
-  <si>
-    <t>공병11지원단(2026)</t>
-  </si>
-  <si>
-    <t>청주시 흥덕구</t>
-  </si>
-  <si>
-    <t>충청북도 청주시 흥덕구 강내면 청주역로 71</t>
-  </si>
-  <si>
-    <t>본관 5층</t>
-  </si>
-  <si>
-    <t>박서준</t>
-  </si>
-  <si>
-    <t>010-7309-8476</t>
-  </si>
-  <si>
-    <t>officer86@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11사령부(2026)</t>
-  </si>
-  <si>
-    <t>전라남도</t>
-  </si>
-  <si>
-    <t>나주시</t>
-  </si>
-  <si>
-    <t>전라남도 나주시 빛가람로 601</t>
-  </si>
-  <si>
-    <t>2026-02-06</t>
-  </si>
-  <si>
-    <t>2026-02-08</t>
-  </si>
-  <si>
-    <t>최현우</t>
-  </si>
-  <si>
-    <t>010-5470-9177</t>
-  </si>
-  <si>
-    <t>officer85@army.mil.kr</t>
-  </si>
-  <si>
-    <t>교육관</t>
-  </si>
-  <si>
-    <t>공병11부대(2026)</t>
-  </si>
-  <si>
-    <t>청주시 상당구</t>
-  </si>
-  <si>
-    <t>충청북도 청주시 상당구 상당로 155</t>
-  </si>
-  <si>
-    <t>2026-01-20</t>
-  </si>
-  <si>
-    <t>2026-01-22</t>
-  </si>
-  <si>
-    <t>장민준</t>
-  </si>
-  <si>
-    <t>010-7818-3128</t>
-  </si>
-  <si>
-    <t>officer84@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11대대(2026)</t>
-  </si>
-  <si>
-    <t>유성구</t>
-  </si>
-  <si>
-    <t>대전광역시 유성구 대학로 99</t>
-  </si>
-  <si>
-    <t>한하준</t>
-  </si>
-  <si>
-    <t>010-1804-9713</t>
-  </si>
-  <si>
-    <t>officer83@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11연대(2026)</t>
-  </si>
-  <si>
-    <t>달서구</t>
-  </si>
-  <si>
-    <t>대구광역시 달서구 학산로 30</t>
-  </si>
-  <si>
-    <t>2026-02-20</t>
-  </si>
-  <si>
-    <t>2026-02-22</t>
-  </si>
-  <si>
-    <t>강재원</t>
-  </si>
-  <si>
-    <t>010-2723-6881</t>
-  </si>
-  <si>
-    <t>officer82@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11여단(2026)</t>
-  </si>
-  <si>
-    <t>계룡시</t>
-  </si>
-  <si>
-    <t>충청남도 계룡시 장안로 46</t>
-  </si>
-  <si>
-    <t>윤건우</t>
-  </si>
-  <si>
-    <t>010-3585-5961</t>
-  </si>
-  <si>
-    <t>officer81@army.mil.kr</t>
-  </si>
-  <si>
-    <t>공병11사단(2026)</t>
-  </si>
-  <si>
-    <t>거제시</t>
-  </si>
-  <si>
-    <t>경상남도 거제시 계룡로 125</t>
-  </si>
-  <si>
-    <t>010-1820-9862</t>
-  </si>
-  <si>
-    <t>officer80@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10교육대(2026)</t>
-  </si>
-  <si>
-    <t>담양군</t>
-  </si>
-  <si>
-    <t>전라남도 담양군 담양읍 추성로 1371</t>
-  </si>
-  <si>
-    <t>김도현</t>
-  </si>
-  <si>
-    <t>010-3883-1308</t>
-  </si>
-  <si>
-    <t>officer79@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10지원단(2026)</t>
-  </si>
-  <si>
-    <t>군산시</t>
-  </si>
-  <si>
-    <t>전북특별자치도 군산시 시청로 17</t>
-  </si>
-  <si>
-    <t>서태현</t>
-  </si>
-  <si>
-    <t>010-3386-2165</t>
-  </si>
-  <si>
-    <t>officer78@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10사령부(2026)</t>
+    <t>최지훈</t>
+  </si>
+  <si>
+    <t>010-7400-4006</t>
+  </si>
+  <si>
+    <t>officer52@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7대대(2026)</t>
+  </si>
+  <si>
+    <t>천안시 동남구</t>
+  </si>
+  <si>
+    <t>충청남도 천안시 동남구 대흥로 215</t>
+  </si>
+  <si>
+    <t>010-2054-5049</t>
+  </si>
+  <si>
+    <t>officer51@army.mil.kr</t>
+  </si>
+  <si>
+    <t>특전7연대(2026)</t>
   </si>
   <si>
     <t>구미시</t>
@@ -682,526 +1225,10 @@
     <t>경상북도 구미시 송정대로 55</t>
   </si>
   <si>
-    <t>신하준</t>
-  </si>
-  <si>
-    <t>010-8389-7266</t>
-  </si>
-  <si>
-    <t>officer77@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10부대(2026)</t>
-  </si>
-  <si>
-    <t>전주시 덕진구</t>
-  </si>
-  <si>
-    <t>전북특별자치도 전주시 덕진구 건산로 251</t>
-  </si>
-  <si>
-    <t>정우진</t>
-  </si>
-  <si>
-    <t>010-7730-3817</t>
-  </si>
-  <si>
-    <t>officer76@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10대대(2026)</t>
-  </si>
-  <si>
-    <t>여수시</t>
-  </si>
-  <si>
-    <t>전라남도 여수시 시청로 1</t>
-  </si>
-  <si>
-    <t>한지훈</t>
-  </si>
-  <si>
-    <t>010-2845-1727</t>
-  </si>
-  <si>
-    <t>officer75@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10연대(2026)</t>
-  </si>
-  <si>
-    <t>진천군</t>
-  </si>
-  <si>
-    <t>충청북도 진천군 진천읍 중앙서로 11</t>
-  </si>
-  <si>
-    <t>이시우</t>
-  </si>
-  <si>
-    <t>010-6447-8193</t>
-  </si>
-  <si>
-    <t>officer74@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10여단(2026)</t>
-  </si>
-  <si>
-    <t>제천시</t>
-  </si>
-  <si>
-    <t>충청북도 제천시 내토로 295</t>
-  </si>
-  <si>
-    <t>신도현</t>
-  </si>
-  <si>
-    <t>010-9167-9561</t>
-  </si>
-  <si>
-    <t>officer73@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병10사단(2026)</t>
-  </si>
-  <si>
-    <t>영주시</t>
-  </si>
-  <si>
-    <t>경상북도 영주시 시청로 1</t>
-  </si>
-  <si>
-    <t>황태현</t>
-  </si>
-  <si>
-    <t>010-9421-2605</t>
-  </si>
-  <si>
-    <t>officer72@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병9교육대(2026)</t>
-  </si>
-  <si>
-    <t>양산시</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 중앙로 39</t>
-  </si>
-  <si>
-    <t>권성민</t>
-  </si>
-  <si>
-    <t>010-8931-3838</t>
-  </si>
-  <si>
-    <t>officer71@army.mil.kr</t>
-  </si>
-  <si>
-    <t>포병9지원단(2026)</t>
-  </si>
-  <si>
-    <t>서울특별시</t>
-  </si>
-  <si>
-    <t>관악구</t>
-  </si>
-  <si>
-    <t>서울특별시 관악구 관악로 145</t>
-  </si>
-  <si>
-    <t>2026-01-26</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>2026-01-27</t>
-  </si>
-  <si>
-    <t>서도현</t>
-  </si>
-  <si>
-    <t>010-4628-8471</t>
-  </si>
-  <si>
-    <t>officer70@army.mil.kr</t>
-  </si>
-  <si>
-    <t>추가장소2</t>
-  </si>
-  <si>
-    <t>기계화9사령부(2026)</t>
-  </si>
-  <si>
-    <t>중구</t>
-  </si>
-  <si>
-    <t>대전광역시 중구 중앙로 101</t>
-  </si>
-  <si>
-    <t>신우진</t>
-  </si>
-  <si>
-    <t>010-7945-5625</t>
-  </si>
-  <si>
-    <t>officer69@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9부대(2026)</t>
-  </si>
-  <si>
-    <t>서산시</t>
-  </si>
-  <si>
-    <t>충청남도 서산시 관아문길 1</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>윤재원</t>
-  </si>
-  <si>
-    <t>010-9689-9443</t>
-  </si>
-  <si>
-    <t>officer68@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9대대(2026)</t>
-  </si>
-  <si>
-    <t>경기도</t>
-  </si>
-  <si>
-    <t>수원시 팔달구</t>
-  </si>
-  <si>
-    <t>경기도 수원시 팔달구 효원로 1</t>
-  </si>
-  <si>
-    <t>2026-01-13</t>
-  </si>
-  <si>
-    <t>010-7463-8063</t>
-  </si>
-  <si>
-    <t>officer67@army.mil.kr</t>
-  </si>
-  <si>
-    <t>추가장소3</t>
-  </si>
-  <si>
-    <t>기계화9연대(2026)</t>
-  </si>
-  <si>
-    <t>안양시 동안구</t>
-  </si>
-  <si>
-    <t>경기도 안양시 동안구 시민대로 230</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>강지훈</t>
-  </si>
-  <si>
-    <t>010-8625-6300</t>
-  </si>
-  <si>
-    <t>officer66@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9여단(2026)</t>
-  </si>
-  <si>
-    <t>순천시</t>
-  </si>
-  <si>
-    <t>전라남도 순천시 장명로 30</t>
-  </si>
-  <si>
-    <t>최예준</t>
-  </si>
-  <si>
-    <t>010-1607-9260</t>
-  </si>
-  <si>
-    <t>officer65@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화9사단(2026)</t>
-  </si>
-  <si>
-    <t>광진구</t>
-  </si>
-  <si>
-    <t>서울특별시 광진구 능동로 120</t>
-  </si>
-  <si>
-    <t>임주원</t>
-  </si>
-  <si>
-    <t>010-3568-8317</t>
-  </si>
-  <si>
-    <t>officer64@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화8교육대(2026)</t>
-  </si>
-  <si>
-    <t>화성시</t>
-  </si>
-  <si>
-    <t>경기도 화성시 남양읍 시청로 159</t>
-  </si>
-  <si>
-    <t>2026-01-19</t>
-  </si>
-  <si>
-    <t>최주원</t>
-  </si>
-  <si>
-    <t>010-9456-2644</t>
-  </si>
-  <si>
-    <t>officer63@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화8지원단(2026)</t>
-  </si>
-  <si>
-    <t>송파구</t>
-  </si>
-  <si>
-    <t>서울특별시 송파구 올림픽로 300</t>
-  </si>
-  <si>
-    <t>박건우</t>
-  </si>
-  <si>
-    <t>010-3136-9863</t>
-  </si>
-  <si>
-    <t>officer62@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화8사령부(2026)</t>
-  </si>
-  <si>
-    <t>안동시</t>
-  </si>
-  <si>
-    <t>경상북도 안동시 퇴계로 115</t>
-  </si>
-  <si>
-    <t>강서준</t>
-  </si>
-  <si>
-    <t>010-5749-7765</t>
-  </si>
-  <si>
-    <t>officer61@army.mil.kr</t>
-  </si>
-  <si>
-    <t>기계화8부대(2026)</t>
-  </si>
-  <si>
-    <t>군포시</t>
-  </si>
-  <si>
-    <t>경기도 군포시 청백리길 6</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>황민준</t>
-  </si>
-  <si>
-    <t>010-6675-3416</t>
-  </si>
-  <si>
-    <t>officer60@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전8대대(2026)</t>
-  </si>
-  <si>
-    <t>보령시</t>
-  </si>
-  <si>
-    <t>충청남도 보령시 성주산로 77</t>
-  </si>
-  <si>
-    <t>강민준</t>
-  </si>
-  <si>
-    <t>010-7264-3559</t>
-  </si>
-  <si>
-    <t>officer59@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전8연대(2026)</t>
-  </si>
-  <si>
-    <t>충주시</t>
-  </si>
-  <si>
-    <t>충청북도 충주시 으뜸로 21</t>
-  </si>
-  <si>
-    <t>윤서준</t>
-  </si>
-  <si>
-    <t>010-3725-7128</t>
-  </si>
-  <si>
-    <t>officer58@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전8여단(2026)</t>
-  </si>
-  <si>
-    <t>대구광역시 중구 공평로 88</t>
-  </si>
-  <si>
-    <t>박도윤</t>
-  </si>
-  <si>
-    <t>010-7198-9878</t>
-  </si>
-  <si>
-    <t>officer57@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전8사단(2026)</t>
-  </si>
-  <si>
-    <t>정읍시</t>
-  </si>
-  <si>
-    <t>전북특별자치도 정읍시 충정로 379</t>
-  </si>
-  <si>
-    <t>신지호</t>
-  </si>
-  <si>
-    <t>010-5207-9964</t>
-  </si>
-  <si>
-    <t>officer56@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7교육대(2026)</t>
-  </si>
-  <si>
-    <t>성북구</t>
-  </si>
-  <si>
-    <t>서울특별시 성북구 성북로 76</t>
-  </si>
-  <si>
-    <t>최건우</t>
-  </si>
-  <si>
-    <t>010-6552-3423</t>
-  </si>
-  <si>
-    <t>officer55@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7지원단(2026)</t>
-  </si>
-  <si>
-    <t>수원시 영통구</t>
-  </si>
-  <si>
-    <t>경기도 수원시 영통구 광교로 156</t>
-  </si>
-  <si>
-    <t>황지호</t>
-  </si>
-  <si>
-    <t>010-3289-8112</t>
-  </si>
-  <si>
-    <t>officer54@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7사령부(2026)</t>
-  </si>
-  <si>
-    <t>천안시 동남구</t>
-  </si>
-  <si>
-    <t>충청남도 천안시 동남구 대흥로 215</t>
-  </si>
-  <si>
-    <t>이재원</t>
-  </si>
-  <si>
-    <t>010-3701-1162</t>
-  </si>
-  <si>
-    <t>officer53@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7부대(2026)</t>
-  </si>
-  <si>
-    <t>목포시</t>
-  </si>
-  <si>
-    <t>전라남도 목포시 평화로 29</t>
-  </si>
-  <si>
-    <t>오재원</t>
-  </si>
-  <si>
-    <t>010-6513-5844</t>
-  </si>
-  <si>
-    <t>officer52@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7대대(2026)</t>
-  </si>
-  <si>
-    <t>포항시 남구</t>
-  </si>
-  <si>
-    <t>경상북도 포항시 남구 시청로 1</t>
-  </si>
-  <si>
-    <t>장우진</t>
-  </si>
-  <si>
-    <t>010-8186-4663</t>
-  </si>
-  <si>
-    <t>officer51@army.mil.kr</t>
-  </si>
-  <si>
-    <t>특전7연대(2026)</t>
-  </si>
-  <si>
-    <t>광주시</t>
-  </si>
-  <si>
-    <t>경기도 광주시 파발로 155</t>
-  </si>
-  <si>
-    <t>최재원</t>
-  </si>
-  <si>
-    <t>010-6903-7534</t>
+    <t>김성민</t>
+  </si>
+  <si>
+    <t>010-6759-2673</t>
   </si>
   <si>
     <t>officer50@army.mil.kr</t>
@@ -1732,7 +1759,7 @@
         <v>44</v>
       </c>
       <c r="S7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T7" t="s">
         <v>45</v>
@@ -1741,45 +1768,45 @@
         <v>35</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X7">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="Y7">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="Z7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
         <v>35</v>
@@ -1797,69 +1824,69 @@
         <v>39</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R8" t="s">
         <v>44</v>
       </c>
       <c r="S8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
         <v>35</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X8">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="Y8">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
@@ -1877,63 +1904,63 @@
         <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q9" t="s">
         <v>44</v>
       </c>
       <c r="R9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
         <v>35</v>
       </c>
       <c r="V9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X9">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="Y9">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
         <v>73</v>
@@ -1966,13 +1993,13 @@
         <v>77</v>
       </c>
       <c r="Q10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T10" t="s">
         <v>78</v>
@@ -1981,16 +2008,16 @@
         <v>35</v>
       </c>
       <c r="V10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X10">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="Y10">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="Z10" t="s">
         <v>79</v>
@@ -2016,10 +2043,10 @@
         <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -2037,69 +2064,69 @@
         <v>39</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" t="s">
+        <v>89</v>
+      </c>
+      <c r="U11" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W11" t="s">
+        <v>43</v>
+      </c>
+      <c r="X11">
+        <v>100</v>
+      </c>
+      <c r="Y11">
         <v>87</v>
       </c>
-      <c r="Q11" t="s">
-        <v>44</v>
-      </c>
-      <c r="R11" t="s">
-        <v>44</v>
-      </c>
-      <c r="S11" t="s">
-        <v>44</v>
-      </c>
-      <c r="T11" t="s">
-        <v>88</v>
-      </c>
-      <c r="U11" t="s">
-        <v>35</v>
-      </c>
-      <c r="V11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W11" t="s">
-        <v>44</v>
-      </c>
-      <c r="X11">
-        <v>140</v>
-      </c>
-      <c r="Y11">
-        <v>126</v>
-      </c>
       <c r="Z11" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I12" t="s">
         <v>35</v>
@@ -2117,69 +2144,69 @@
         <v>39</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q12" t="s">
         <v>43</v>
       </c>
       <c r="R12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T12" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s">
         <v>35</v>
       </c>
       <c r="V12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X12">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="Y12">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="Z12" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
         <v>35</v>
@@ -2197,69 +2224,69 @@
         <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R13" t="s">
         <v>43</v>
       </c>
       <c r="S13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="U13" t="s">
         <v>35</v>
       </c>
       <c r="V13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X13">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="Y13">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="Z13" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="I14" t="s">
         <v>35</v>
@@ -2289,31 +2316,31 @@
         <v>43</v>
       </c>
       <c r="R14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T14" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="U14" t="s">
         <v>35</v>
       </c>
       <c r="V14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X14">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="Y14">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="Z14" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -2324,7 +2351,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
         <v>116</v>
@@ -2336,10 +2363,10 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" t="s">
         <v>118</v>
-      </c>
-      <c r="H15" t="s">
-        <v>119</v>
       </c>
       <c r="I15" t="s">
         <v>35</v>
@@ -2357,69 +2384,69 @@
         <v>39</v>
       </c>
       <c r="N15" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" t="s">
         <v>120</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>121</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" t="s">
         <v>122</v>
       </c>
-      <c r="Q15" t="s">
-        <v>44</v>
-      </c>
-      <c r="R15" t="s">
-        <v>43</v>
-      </c>
-      <c r="S15" t="s">
-        <v>44</v>
-      </c>
-      <c r="T15" t="s">
-        <v>123</v>
-      </c>
       <c r="U15" t="s">
         <v>35</v>
       </c>
       <c r="V15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X15">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="Y15">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="Z15" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" t="s">
         <v>124</v>
       </c>
-      <c r="B16" t="s">
-        <v>107</v>
-      </c>
       <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
         <v>125</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>126</v>
       </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I16" t="s">
         <v>35</v>
@@ -2437,69 +2464,69 @@
         <v>39</v>
       </c>
       <c r="N16" t="s">
+        <v>127</v>
+      </c>
+      <c r="O16" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" t="s">
         <v>129</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" t="s">
+        <v>44</v>
+      </c>
+      <c r="S16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T16" t="s">
         <v>130</v>
       </c>
-      <c r="P16" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T16" t="s">
-        <v>54</v>
-      </c>
       <c r="U16" t="s">
         <v>35</v>
       </c>
       <c r="V16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X16">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="Y16">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
         <v>132</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
         <v>133</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" t="s">
-        <v>135</v>
       </c>
       <c r="F17" t="s">
         <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I17" t="s">
         <v>35</v>
@@ -2517,69 +2544,69 @@
         <v>39</v>
       </c>
       <c r="N17" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" t="s">
+        <v>137</v>
+      </c>
+      <c r="P17" t="s">
         <v>138</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" t="s">
         <v>139</v>
       </c>
-      <c r="P17" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>43</v>
-      </c>
-      <c r="R17" t="s">
-        <v>43</v>
-      </c>
-      <c r="S17" t="s">
-        <v>44</v>
-      </c>
-      <c r="T17" t="s">
-        <v>45</v>
-      </c>
       <c r="U17" t="s">
         <v>35</v>
       </c>
       <c r="V17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X17">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="Y17">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="Z17" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" t="s">
         <v>142</v>
       </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>143</v>
-      </c>
-      <c r="E18" t="s">
-        <v>144</v>
       </c>
       <c r="F18" t="s">
         <v>84</v>
       </c>
       <c r="G18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" t="s">
         <v>118</v>
-      </c>
-      <c r="H18" t="s">
-        <v>119</v>
       </c>
       <c r="I18" t="s">
         <v>35</v>
@@ -2597,13 +2624,13 @@
         <v>39</v>
       </c>
       <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18" t="s">
         <v>145</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>146</v>
-      </c>
-      <c r="P18" t="s">
-        <v>147</v>
       </c>
       <c r="Q18" t="s">
         <v>44</v>
@@ -2612,28 +2639,28 @@
         <v>43</v>
       </c>
       <c r="S18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T18" t="s">
+        <v>147</v>
+      </c>
+      <c r="U18" t="s">
+        <v>35</v>
+      </c>
+      <c r="V18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18">
+        <v>59</v>
+      </c>
+      <c r="Y18">
+        <v>57</v>
+      </c>
+      <c r="Z18" t="s">
         <v>148</v>
-      </c>
-      <c r="U18" t="s">
-        <v>35</v>
-      </c>
-      <c r="V18" t="s">
-        <v>44</v>
-      </c>
-      <c r="W18" t="s">
-        <v>44</v>
-      </c>
-      <c r="X18">
-        <v>114</v>
-      </c>
-      <c r="Y18">
-        <v>99</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -2644,7 +2671,7 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>150</v>
@@ -2653,13 +2680,13 @@
         <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
@@ -2677,13 +2704,13 @@
         <v>39</v>
       </c>
       <c r="N19" t="s">
+        <v>153</v>
+      </c>
+      <c r="O19" t="s">
         <v>154</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>155</v>
-      </c>
-      <c r="P19" t="s">
-        <v>156</v>
       </c>
       <c r="Q19" t="s">
         <v>43</v>
@@ -2692,57 +2719,57 @@
         <v>44</v>
       </c>
       <c r="S19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T19" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="U19" t="s">
         <v>35</v>
       </c>
       <c r="V19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X19">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="Y19">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="Z19" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" t="s">
         <v>159</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
         <v>160</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>161</v>
       </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
         <v>36</v>
@@ -2757,152 +2784,152 @@
         <v>39</v>
       </c>
       <c r="N20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R20" t="s">
         <v>43</v>
       </c>
       <c r="S20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T20" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="U20" t="s">
         <v>35</v>
       </c>
       <c r="V20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X20">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="Y20">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="Z20" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" t="s">
         <v>167</v>
       </c>
-      <c r="E21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" t="s">
-        <v>169</v>
-      </c>
-      <c r="H21" t="s">
-        <v>170</v>
-      </c>
-      <c r="I21" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" t="s">
-        <v>171</v>
-      </c>
-      <c r="O21" t="s">
-        <v>172</v>
-      </c>
-      <c r="P21" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>44</v>
-      </c>
-      <c r="R21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S21" t="s">
-        <v>44</v>
-      </c>
-      <c r="T21" t="s">
-        <v>174</v>
-      </c>
       <c r="U21" t="s">
         <v>35</v>
       </c>
       <c r="V21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X21">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="Y21">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Z21" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E22" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H22" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="J22" t="s">
         <v>36</v>
@@ -2917,152 +2944,152 @@
         <v>39</v>
       </c>
       <c r="N22" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O22" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R22" t="s">
         <v>44</v>
       </c>
       <c r="S22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T22" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="U22" t="s">
         <v>35</v>
       </c>
       <c r="V22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X22">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="Y22">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
         <v>35</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N23" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="O23" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="Q23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="R23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T23" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="U23" t="s">
         <v>35</v>
       </c>
       <c r="V23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X23">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="Y23">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="Z23" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="H24" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
         <v>36</v>
@@ -3077,149 +3104,149 @@
         <v>39</v>
       </c>
       <c r="N24" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="O24" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="Q24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T24" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="U24" t="s">
         <v>35</v>
       </c>
       <c r="V24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X24">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="Y24">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="Z24" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I25" t="s">
         <v>35</v>
       </c>
       <c r="J25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N25" t="s">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="O25" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="Q25" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R25" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S25" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T25" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="U25" t="s">
         <v>35</v>
       </c>
       <c r="V25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X25">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="Y25">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="E26" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="H26" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="I26" t="s">
         <v>35</v>
@@ -3237,13 +3264,13 @@
         <v>39</v>
       </c>
       <c r="N26" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="O26" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="P26" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="Q26" t="s">
         <v>44</v>
@@ -3252,57 +3279,57 @@
         <v>43</v>
       </c>
       <c r="S26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T26" t="s">
+        <v>107</v>
+      </c>
+      <c r="U26" t="s">
+        <v>35</v>
+      </c>
+      <c r="V26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W26" t="s">
+        <v>43</v>
+      </c>
+      <c r="X26">
+        <v>112</v>
+      </c>
+      <c r="Y26">
+        <v>109</v>
+      </c>
+      <c r="Z26" t="s">
         <v>148</v>
-      </c>
-      <c r="U26" t="s">
-        <v>35</v>
-      </c>
-      <c r="V26" t="s">
-        <v>44</v>
-      </c>
-      <c r="W26" t="s">
-        <v>44</v>
-      </c>
-      <c r="X26">
-        <v>137</v>
-      </c>
-      <c r="Y26">
-        <v>133</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="C27" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="H27" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="I27" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="J27" t="s">
         <v>36</v>
@@ -3317,120 +3344,120 @@
         <v>39</v>
       </c>
       <c r="N27" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="O27" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="P27" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="Q27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R27" t="s">
         <v>43</v>
       </c>
       <c r="S27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T27" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="U27" t="s">
         <v>35</v>
       </c>
       <c r="V27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X27">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y27">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Z27" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>214</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>215</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="I28" t="s">
         <v>35</v>
       </c>
       <c r="J28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N28" t="s">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="O28" t="s">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="P28" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="Q28" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R28" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S28" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T28" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="U28" t="s">
         <v>35</v>
       </c>
       <c r="V28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X28">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="Y28">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z28" t="s">
         <v>35</v>
@@ -3438,28 +3465,28 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="D29" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="E29" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="I29" t="s">
         <v>35</v>
@@ -3477,69 +3504,69 @@
         <v>39</v>
       </c>
       <c r="N29" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="O29" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="Q29" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" t="s">
         <v>44</v>
       </c>
-      <c r="R29" t="s">
-        <v>43</v>
-      </c>
       <c r="S29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T29" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="U29" t="s">
         <v>35</v>
       </c>
       <c r="V29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X29">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="Y29">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="Z29" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="D30" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E30" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F30" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="I30" t="s">
         <v>35</v>
@@ -3557,69 +3584,69 @@
         <v>39</v>
       </c>
       <c r="N30" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="O30" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="P30" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="Q30" t="s">
         <v>44</v>
       </c>
       <c r="R30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T30" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="U30" t="s">
         <v>35</v>
       </c>
       <c r="V30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X30">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Y30">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Z30" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E31" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="F31" t="s">
         <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="I31" t="s">
         <v>35</v>
@@ -3637,69 +3664,69 @@
         <v>39</v>
       </c>
       <c r="N31" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="O31" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="P31" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="Q31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R31" t="s">
         <v>43</v>
       </c>
       <c r="S31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T31" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="U31" t="s">
         <v>35</v>
       </c>
       <c r="V31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X31">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y31">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z31" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E32" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="I32" t="s">
         <v>35</v>
@@ -3717,69 +3744,69 @@
         <v>39</v>
       </c>
       <c r="N32" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="O32" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="P32" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="Q32" t="s">
         <v>43</v>
       </c>
       <c r="R32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T32" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="U32" t="s">
         <v>35</v>
       </c>
       <c r="V32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X32">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="Y32">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Z32" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E33" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F33" t="s">
         <v>84</v>
       </c>
       <c r="G33" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="H33" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="I33" t="s">
         <v>35</v>
@@ -3797,69 +3824,69 @@
         <v>39</v>
       </c>
       <c r="N33" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="O33" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="P33" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="Q33" t="s">
         <v>43</v>
       </c>
       <c r="R33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T33" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="U33" t="s">
         <v>35</v>
       </c>
       <c r="V33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X33">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="Y33">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="Z33" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B34" t="s">
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E34" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G34" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="H34" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="I34" t="s">
         <v>35</v>
@@ -3877,69 +3904,69 @@
         <v>39</v>
       </c>
       <c r="N34" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="O34" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="P34" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="Q34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T34" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="U34" t="s">
         <v>35</v>
       </c>
       <c r="V34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X34">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="Y34">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="Z34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>242</v>
       </c>
       <c r="D35" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="H35" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="I35" t="s">
         <v>35</v>
@@ -3957,13 +3984,13 @@
         <v>39</v>
       </c>
       <c r="N35" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="O35" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="P35" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="Q35" t="s">
         <v>44</v>
@@ -3972,57 +3999,57 @@
         <v>44</v>
       </c>
       <c r="S35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T35" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="U35" t="s">
         <v>35</v>
       </c>
       <c r="V35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X35">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="Y35">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="Z35" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="C36" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="D36" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="E36" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="H36" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="I36" t="s">
-        <v>268</v>
+        <v>35</v>
       </c>
       <c r="J36" t="s">
         <v>36</v>
@@ -4037,149 +4064,149 @@
         <v>39</v>
       </c>
       <c r="N36" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="O36" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="P36" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="Q36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T36" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="U36" t="s">
         <v>35</v>
       </c>
       <c r="V36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X36">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="Y36">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="Z36" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>257</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>258</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="H37" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="I37" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="J37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M37" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N37" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="O37" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="P37" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="Q37" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R37" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S37" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T37" t="s">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c r="U37" t="s">
         <v>35</v>
       </c>
       <c r="V37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X37">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="Y37">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="Z37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B38" t="s">
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E38" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="H38" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="I38" t="s">
         <v>35</v>
@@ -4197,69 +4224,69 @@
         <v>39</v>
       </c>
       <c r="N38" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="O38" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="P38" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="Q38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T38" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="U38" t="s">
         <v>35</v>
       </c>
       <c r="V38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X38">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="Y38">
+        <v>54</v>
+      </c>
+      <c r="Z38" t="s">
         <v>79</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E39" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>266</v>
+        <v>172</v>
       </c>
       <c r="H39" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="I39" t="s">
         <v>35</v>
@@ -4277,13 +4304,13 @@
         <v>39</v>
       </c>
       <c r="N39" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="O39" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="P39" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="Q39" t="s">
         <v>44</v>
@@ -4292,57 +4319,57 @@
         <v>43</v>
       </c>
       <c r="S39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T39" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="U39" t="s">
         <v>35</v>
       </c>
       <c r="V39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X39">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="Y39">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="D40" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E40" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F40" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="J40" t="s">
         <v>36</v>
@@ -4357,232 +4384,232 @@
         <v>39</v>
       </c>
       <c r="N40" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="O40" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="P40" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="Q40" t="s">
         <v>44</v>
       </c>
       <c r="R40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T40" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="U40" t="s">
         <v>35</v>
       </c>
       <c r="V40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X40">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="Y40">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="Z40" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="H41" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="I41" t="s">
         <v>35</v>
       </c>
       <c r="J41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N41" t="s">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="O41" t="s">
-        <v>35</v>
+        <v>286</v>
       </c>
       <c r="P41" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="Q41" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R41" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S41" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T41" t="s">
-        <v>272</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s">
         <v>35</v>
       </c>
       <c r="V41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X41">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="Y41">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="Z41" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>289</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>290</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>291</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="H42" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I42" t="s">
         <v>35</v>
       </c>
       <c r="J42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L42" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M42" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N42" t="s">
-        <v>35</v>
+        <v>292</v>
       </c>
       <c r="O42" t="s">
-        <v>35</v>
+        <v>293</v>
       </c>
       <c r="P42" t="s">
-        <v>35</v>
+        <v>294</v>
       </c>
       <c r="Q42" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R42" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S42" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T42" t="s">
-        <v>293</v>
+        <v>130</v>
       </c>
       <c r="U42" t="s">
         <v>35</v>
       </c>
       <c r="V42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X42">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Y42">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="Z42" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="D43" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E43" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F43" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>297</v>
+        <v>160</v>
       </c>
       <c r="H43" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="I43" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="J43" t="s">
         <v>36</v>
@@ -4606,31 +4633,31 @@
         <v>300</v>
       </c>
       <c r="Q43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T43" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="U43" t="s">
         <v>35</v>
       </c>
       <c r="V43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X43">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="Y43">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="Z43" t="s">
         <v>35</v>
@@ -4641,10 +4668,10 @@
         <v>301</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D44" t="s">
         <v>302</v>
@@ -4653,13 +4680,13 @@
         <v>303</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="G44" t="s">
-        <v>92</v>
+        <v>252</v>
       </c>
       <c r="H44" t="s">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="I44" t="s">
         <v>35</v>
@@ -4686,34 +4713,34 @@
         <v>306</v>
       </c>
       <c r="Q44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R44" t="s">
         <v>44</v>
       </c>
       <c r="S44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T44" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="U44" t="s">
         <v>35</v>
       </c>
       <c r="V44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X44">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="Y44">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="Z44" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
@@ -4724,7 +4751,7 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="D45" t="s">
         <v>308</v>
@@ -4733,16 +4760,16 @@
         <v>309</v>
       </c>
       <c r="F45" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G45" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="H45" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="I45" t="s">
-        <v>268</v>
+        <v>35</v>
       </c>
       <c r="J45" t="s">
         <v>36</v>
@@ -4766,143 +4793,143 @@
         <v>312</v>
       </c>
       <c r="Q45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T45" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="U45" t="s">
         <v>35</v>
       </c>
       <c r="V45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X45">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="Y45">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z45" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
+        <v>314</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>315</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="H46" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="I46" t="s">
         <v>35</v>
       </c>
       <c r="J46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M46" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N46" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="O46" t="s">
-        <v>35</v>
+        <v>316</v>
       </c>
       <c r="P46" t="s">
-        <v>35</v>
+        <v>317</v>
       </c>
       <c r="Q46" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R46" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S46" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T46" t="s">
-        <v>272</v>
+        <v>130</v>
       </c>
       <c r="U46" t="s">
         <v>35</v>
       </c>
       <c r="V46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X46">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="Y46">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="Z46" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E47" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F47" t="s">
         <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>316</v>
+        <v>102</v>
       </c>
       <c r="H47" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="I47" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="J47" t="s">
         <v>36</v>
@@ -4917,72 +4944,72 @@
         <v>39</v>
       </c>
       <c r="N47" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O47" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P47" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q47" t="s">
         <v>44</v>
       </c>
       <c r="R47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T47" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="U47" t="s">
         <v>35</v>
       </c>
       <c r="V47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X47">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="Y47">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="Z47" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="D48" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E48" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="I48" t="s">
-        <v>60</v>
+        <v>329</v>
       </c>
       <c r="J48" t="s">
         <v>36</v>
@@ -4997,152 +5024,152 @@
         <v>39</v>
       </c>
       <c r="N48" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="O48" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="P48" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R48" t="s">
         <v>43</v>
       </c>
       <c r="S48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T48" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="U48" t="s">
         <v>35</v>
       </c>
       <c r="V48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X48">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="Y48">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="Z48" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>333</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>334</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>335</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="H49" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="I49" t="s">
         <v>35</v>
       </c>
       <c r="J49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L49" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M49" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N49" t="s">
-        <v>35</v>
+        <v>336</v>
       </c>
       <c r="O49" t="s">
-        <v>35</v>
+        <v>337</v>
       </c>
       <c r="P49" t="s">
-        <v>35</v>
+        <v>338</v>
       </c>
       <c r="Q49" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R49" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S49" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T49" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="U49" t="s">
         <v>35</v>
       </c>
       <c r="V49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X49">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="Y49">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="Z49" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="E50" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="H50" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="I50" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="J50" t="s">
         <v>36</v>
@@ -5157,149 +5184,149 @@
         <v>39</v>
       </c>
       <c r="N50" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="O50" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="P50" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="Q50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T50" t="s">
+        <v>147</v>
+      </c>
+      <c r="U50" t="s">
+        <v>35</v>
+      </c>
+      <c r="V50" t="s">
+        <v>43</v>
+      </c>
+      <c r="W50" t="s">
+        <v>43</v>
+      </c>
+      <c r="X50">
+        <v>69</v>
+      </c>
+      <c r="Y50">
         <v>65</v>
       </c>
-      <c r="U50" t="s">
-        <v>35</v>
-      </c>
-      <c r="V50" t="s">
-        <v>44</v>
-      </c>
-      <c r="W50" t="s">
-        <v>44</v>
-      </c>
-      <c r="X50">
-        <v>94</v>
-      </c>
-      <c r="Y50">
-        <v>89</v>
-      </c>
       <c r="Z50" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>332</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>287</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>333</v>
+        <v>35</v>
       </c>
       <c r="E51" t="s">
-        <v>334</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>290</v>
+        <v>35</v>
       </c>
       <c r="H51" t="s">
-        <v>335</v>
+        <v>35</v>
       </c>
       <c r="I51" t="s">
         <v>35</v>
       </c>
       <c r="J51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M51" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N51" t="s">
-        <v>336</v>
+        <v>35</v>
       </c>
       <c r="O51" t="s">
-        <v>337</v>
+        <v>35</v>
       </c>
       <c r="P51" t="s">
-        <v>338</v>
+        <v>35</v>
       </c>
       <c r="Q51" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="R51" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S51" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T51" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="U51" t="s">
         <v>35</v>
       </c>
       <c r="V51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X51">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="Y51">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="Z51" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>242</v>
       </c>
       <c r="D52" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E52" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="G52" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="H52" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="I52" t="s">
         <v>35</v>
@@ -5317,69 +5344,69 @@
         <v>39</v>
       </c>
       <c r="N52" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="O52" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="P52" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R52" t="s">
         <v>43</v>
       </c>
       <c r="S52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U52" t="s">
         <v>35</v>
       </c>
       <c r="V52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X52">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Y52">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z52" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="D53" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E53" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F53" t="s">
         <v>84</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>355</v>
       </c>
       <c r="H53" t="s">
-        <v>34</v>
+        <v>356</v>
       </c>
       <c r="I53" t="s">
         <v>35</v>
@@ -5397,69 +5424,69 @@
         <v>39</v>
       </c>
       <c r="N53" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="O53" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="P53" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="Q53" t="s">
         <v>43</v>
       </c>
       <c r="R53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T53" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="U53" t="s">
         <v>35</v>
       </c>
       <c r="V53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X53">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="Y53">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="Z53" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B54" t="s">
         <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>274</v>
+        <v>361</v>
       </c>
       <c r="E54" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H54" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="I54" t="s">
         <v>35</v>
@@ -5477,72 +5504,72 @@
         <v>39</v>
       </c>
       <c r="N54" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="O54" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="P54" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="Q54" t="s">
         <v>44</v>
       </c>
       <c r="R54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T54" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="U54" t="s">
         <v>35</v>
       </c>
       <c r="V54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X54">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="Y54">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="Z54" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="E55" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F55" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="G55" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="I55" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="J55" t="s">
         <v>36</v>
@@ -5557,40 +5584,40 @@
         <v>39</v>
       </c>
       <c r="N55" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="O55" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="P55" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="Q55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T55" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="U55" t="s">
         <v>35</v>
       </c>
       <c r="V55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X55">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Y55">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Z55" t="s">
         <v>79</v>
@@ -5598,31 +5625,31 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="C56" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="D56" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="E56" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="F56" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G56" t="s">
-        <v>266</v>
+        <v>174</v>
       </c>
       <c r="H56" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="I56" t="s">
-        <v>268</v>
+        <v>35</v>
       </c>
       <c r="J56" t="s">
         <v>36</v>
@@ -5637,123 +5664,123 @@
         <v>39</v>
       </c>
       <c r="N56" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="O56" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="P56" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="Q56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R56" t="s">
         <v>44</v>
       </c>
       <c r="S56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T56" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="U56" t="s">
         <v>35</v>
       </c>
       <c r="V56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X56">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="Y56">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="Z56" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>379</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>380</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="H57" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="I57" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="J57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L57" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M57" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N57" t="s">
-        <v>35</v>
+        <v>381</v>
       </c>
       <c r="O57" t="s">
-        <v>35</v>
+        <v>382</v>
       </c>
       <c r="P57" t="s">
-        <v>35</v>
+        <v>383</v>
       </c>
       <c r="Q57" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R57" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S57" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T57" t="s">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="U57" t="s">
         <v>35</v>
       </c>
       <c r="V57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X57">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Y57">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Z57" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
@@ -5815,22 +5842,22 @@
         <v>35</v>
       </c>
       <c r="T58" t="s">
-        <v>293</v>
+        <v>167</v>
       </c>
       <c r="U58" t="s">
         <v>35</v>
       </c>
       <c r="V58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X58">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="Y58">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="Z58" t="s">
         <v>35</v>
@@ -5838,159 +5865,159 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>368</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>287</v>
+        <v>35</v>
       </c>
       <c r="D59" t="s">
-        <v>369</v>
+        <v>35</v>
       </c>
       <c r="E59" t="s">
-        <v>370</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="H59" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="I59" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="J59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M59" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N59" t="s">
-        <v>371</v>
+        <v>35</v>
       </c>
       <c r="O59" t="s">
-        <v>372</v>
+        <v>35</v>
       </c>
       <c r="P59" t="s">
-        <v>373</v>
+        <v>35</v>
       </c>
       <c r="Q59" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="R59" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S59" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T59" t="s">
-        <v>174</v>
+        <v>384</v>
       </c>
       <c r="U59" t="s">
         <v>35</v>
       </c>
       <c r="V59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X59">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="Y59">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="Z59" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>385</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>386</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>387</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>348</v>
       </c>
       <c r="H60" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="I60" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="J60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K60" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L60" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M60" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N60" t="s">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="O60" t="s">
-        <v>35</v>
+        <v>388</v>
       </c>
       <c r="P60" t="s">
-        <v>35</v>
+        <v>389</v>
       </c>
       <c r="Q60" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R60" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S60" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T60" t="s">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c r="U60" t="s">
         <v>35</v>
       </c>
       <c r="V60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X60">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="Y60">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="Z60" t="s">
         <v>35</v>
@@ -6055,22 +6082,22 @@
         <v>35</v>
       </c>
       <c r="T61" t="s">
-        <v>293</v>
+        <v>167</v>
       </c>
       <c r="U61" t="s">
         <v>35</v>
       </c>
       <c r="V61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X61">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="Y61">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="Z61" t="s">
         <v>35</v>
@@ -6078,79 +6105,79 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>374</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D62" t="s">
-        <v>375</v>
+        <v>35</v>
       </c>
       <c r="E62" t="s">
-        <v>376</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="H62" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="I62" t="s">
         <v>35</v>
       </c>
       <c r="J62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L62" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M62" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N62" t="s">
-        <v>377</v>
+        <v>35</v>
       </c>
       <c r="O62" t="s">
-        <v>378</v>
+        <v>35</v>
       </c>
       <c r="P62" t="s">
-        <v>379</v>
+        <v>35</v>
       </c>
       <c r="Q62" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R62" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S62" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T62" t="s">
-        <v>157</v>
+        <v>384</v>
       </c>
       <c r="U62" t="s">
         <v>35</v>
       </c>
       <c r="V62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X62">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="Y62">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="Z62" t="s">
         <v>35</v>
@@ -6158,28 +6185,28 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B63" t="s">
         <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="E63" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="F63" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="H63" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="I63" t="s">
         <v>35</v>
@@ -6197,40 +6224,40 @@
         <v>39</v>
       </c>
       <c r="N63" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="O63" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="P63" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="Q63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R63" t="s">
         <v>44</v>
       </c>
       <c r="S63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T63" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="U63" t="s">
         <v>35</v>
       </c>
       <c r="V63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X63">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Y63">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="Z63" t="s">
         <v>35</v>
@@ -6238,28 +6265,28 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B64" t="s">
         <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="D64" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="E64" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="G64" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="H64" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="I64" t="s">
         <v>35</v>
@@ -6277,69 +6304,69 @@
         <v>39</v>
       </c>
       <c r="N64" t="s">
-        <v>389</v>
+        <v>232</v>
       </c>
       <c r="O64" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="P64" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="Q64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R64" t="s">
         <v>43</v>
       </c>
       <c r="S64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T64" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="U64" t="s">
         <v>35</v>
       </c>
       <c r="V64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X64">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="Y64">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="Z64" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B65" t="s">
         <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>287</v>
+        <v>61</v>
       </c>
       <c r="D65" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="E65" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H65" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="I65" t="s">
         <v>35</v>
@@ -6357,43 +6384,43 @@
         <v>39</v>
       </c>
       <c r="N65" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="O65" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="P65" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="Q65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R65" t="s">
         <v>44</v>
       </c>
       <c r="S65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T65" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="U65" t="s">
         <v>35</v>
       </c>
       <c r="V65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X65">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="Y65">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="Z65" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
